--- a/Rankings.xlsx
+++ b/Rankings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\Performance Efficiency Suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2F98DB-DDDA-4908-8861-06A8B21D4E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4742B216-7335-4487-8BB1-BE53E5EA3D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="6" r:id="rId6"/>
+    <pivotCache cacheId="8" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>CPU</t>
   </si>
@@ -100,9 +101,6 @@
     <t>Poekel</t>
   </si>
   <si>
-    <t>Ryzen 7 4750G (Renoir)</t>
-  </si>
-  <si>
     <t>Summe von PES MT</t>
   </si>
   <si>
@@ -124,9 +122,6 @@
     <t>dosenfisch24</t>
   </si>
   <si>
-    <t>AMD Ryzen 7 4750U</t>
-  </si>
-  <si>
     <t>Sweepi</t>
   </si>
   <si>
@@ -136,22 +131,46 @@
     <t>AMD Ryzen 5 3600 (Matisse) [2]</t>
   </si>
   <si>
-    <t>AMD Razyen 7 3700X (Matisse) [5]</t>
-  </si>
-  <si>
-    <t>??? [7]</t>
-  </si>
-  <si>
     <t>Intel i7 1065G (IceLake) [3]</t>
   </si>
   <si>
     <t>AMD Ryzen 7 4700U (Renoir) [1]</t>
   </si>
   <si>
-    <t>AMD Ryzen 7 4750U [6]</t>
+    <t>AMD Razyen 9 5950X (Vermeer)</t>
   </si>
   <si>
-    <t>Ryzen 7 4750G (Renoir) [4]</t>
+    <t>AMD Razyen 7 3700X (Matisse) [6]</t>
+  </si>
+  <si>
+    <t>??? [8]</t>
+  </si>
+  <si>
+    <t>AMD Razyen 9 5950X (Vermeer) [4]</t>
+  </si>
+  <si>
+    <t>Duration ST</t>
+  </si>
+  <si>
+    <t>Average Power ST</t>
+  </si>
+  <si>
+    <t>Duration MT</t>
+  </si>
+  <si>
+    <t>Average Power MT</t>
+  </si>
+  <si>
+    <t>AMDRyzen 7 4750G (Renoir)</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 4750U (Renoir)</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 4750U (Renoir) [7]</t>
+  </si>
+  <si>
+    <t>AMDRyzen 7 4750G (Renoir) [5]</t>
   </si>
 </sst>
 </file>
@@ -609,39 +628,42 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES ST'!$B$3:$B$10</c:f>
+              <c:f>'PES ST'!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>AMD Ryzen 5 3600 (Matisse) [2]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AMD Razyen 7 3700X (Matisse) [5]</c:v>
+                  <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>??? [7]</c:v>
+                  <c:v>??? [8]</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Intel i7 1065G (IceLake) [3]</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>AMD Ryzen 7 4750U [6]</c:v>
+                <c:pt idx="6">
+                  <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ryzen 7 4750G (Renoir) [4]</c:v>
+                <c:pt idx="7">
+                  <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES ST'!$C$3:$C$10</c:f>
+              <c:f>'PES ST'!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>45.76</c:v>
                 </c:pt>
@@ -652,15 +674,18 @@
                   <c:v>52.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>55.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>127.76</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>133.62</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>137.88</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>153.88</c:v>
                 </c:pt>
               </c:numCache>
@@ -713,7 +738,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1357,28 +1382,31 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption ST'!$B$3:$B$10</c:f>
+              <c:f>'Consumption ST'!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>??? [7]</c:v>
+                  <c:v>??? [8]</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>AMD Ryzen 5 3600 (Matisse) [2]</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>AMD Razyen 7 3700X (Matisse) [5]</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>AMD Ryzen 7 4750U [6]</c:v>
+                  <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Ryzen 7 4750G (Renoir) [4]</c:v>
+                  <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Intel i7 1065G (IceLake) [3]</c:v>
                 </c:pt>
               </c:strCache>
@@ -1386,29 +1414,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption ST'!$C$3:$C$10</c:f>
+              <c:f>'Consumption ST'!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>37274</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>35920</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>32112</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>30057</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10396</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>10352</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>10168</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>9839</c:v>
                 </c:pt>
               </c:numCache>
@@ -1461,7 +1492,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2105,9 +2136,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES MT'!$B$3:$B$10</c:f>
+              <c:f>'PES MT'!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Intel i7 1065G (IceLake) [3]</c:v>
                 </c:pt>
@@ -2115,29 +2146,32 @@
                   <c:v>AMD Ryzen 5 3600 (Matisse) [2]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AMD Razyen 7 3700X (Matisse) [5]</c:v>
+                  <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Ryzen 7 4750G (Renoir) [4]</c:v>
+                  <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>AMD Ryzen 7 4750U [6]</c:v>
+                  <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>??? [7]</c:v>
+                  <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>??? [8]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES MT'!$C$3:$C$10</c:f>
+              <c:f>'PES MT'!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>885.22</c:v>
                 </c:pt>
@@ -2157,6 +2191,9 @@
                   <c:v>3599.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>4779.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5760.71</c:v>
                 </c:pt>
               </c:numCache>
@@ -2209,7 +2246,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2882,6 +2919,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2972,39 +3065,42 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption MT'!$B$3:$B$10</c:f>
+              <c:f>'Consumption MT'!$B$3:$B$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>AMD Ryzen 5 3600 (Matisse) [2]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AMD Razyen 7 3700X (Matisse) [5]</c:v>
+                  <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Ryzen 7 4750G (Renoir) [4]</c:v>
+                  <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>??? [7]</c:v>
+                  <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>??? [8]</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Intel i7 1065G (IceLake) [3]</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>AMD Ryzen 7 4750U [6]</c:v>
+                <c:pt idx="7">
+                  <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption MT'!$C$3:$C$10</c:f>
+              <c:f>'Consumption MT'!$C$3:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>7223</c:v>
                 </c:pt>
@@ -3012,18 +3108,21 @@
                   <c:v>6377</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6242</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5262</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4507</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3912</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2649</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2029</c:v>
                 </c:pt>
               </c:numCache>
@@ -3031,7 +3130,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-81B1-44D1-A529-DE37BAD97AFF}"/>
+              <c16:uniqueId val="{00000001-38A4-49BE-B1FD-5A7803352B11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3076,7 +3175,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5397,14 +5496,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5446,8 +5545,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5489,8 +5588,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5532,8 +5631,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5564,37 +5663,98 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44370.941889814814" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7" xr:uid="{1C48AB18-201F-498F-BA2B-FB5C4F62805E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44370.982344444441" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="8" xr:uid="{1C48AB18-201F-498F-BA2B-FB5C4F62805E}">
   <cacheSource type="worksheet">
-    <worksheetSource name="GeneralTable[[GraphLabel]:[Consumption MT]]"/>
+    <worksheetSource name="GeneralTable[[GraphLabel]:[PES MT]]"/>
   </cacheSource>
-  <cacheFields count="5">
+  <cacheFields count="6">
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="11">
+      <sharedItems count="18">
         <s v="AMD Ryzen 7 4700U (Renoir) [1]"/>
         <s v="AMD Ryzen 5 3600 (Matisse) [2]"/>
         <s v="Intel i7 1065G (IceLake) [3]"/>
-        <s v="Ryzen 7 4750G (Renoir) [4]"/>
-        <s v="AMD Razyen 7 3700X (Matisse) [5]"/>
-        <s v="AMD Ryzen 7 4750U [6]"/>
-        <s v="??? [7]"/>
+        <s v="AMD Razyen 9 5950X (Vermeer) [4]"/>
+        <s v="AMDRyzen 7 4750G (Renoir) [5]"/>
+        <s v="AMD Razyen 7 3700X (Matisse) [6]"/>
+        <s v="AMD Ryzen 7 4750U (Renoir) [7]"/>
+        <s v="??? [8]"/>
         <s v="Ryzen 7 4750G (Renoir) [18]" u="1"/>
+        <s v="AMD Ryzen 7 4750U [6]" u="1"/>
+        <s v="Intel i7 1065G (IceLake) [7]" u="1"/>
+        <s v="AMD Ryzen 5 3600 (Matisse) [6]" u="1"/>
+        <s v="AMD Ryzen 7 4750U [7]" u="1"/>
+        <s v="??? [7]" u="1"/>
+        <s v="Ryzen 7 4750G (Renoir) [4]" u="1"/>
+        <s v="Ryzen 7 4750G (Renoir) [5]" u="1"/>
+        <s v="AMD Razyen 7 3700X (Matisse) [5]" u="1"/>
         <s v="AMD Ryzen 7 4700U (Renoir) [3]" u="1"/>
-        <s v="AMD Ryzen 5 3600 (Matisse) [6]" u="1"/>
-        <s v="Intel i7 1065G (IceLake) [7]" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PES ST" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="45.76" maxValue="153.88"/>
     </cacheField>
+    <cacheField name="Consumption ST" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9839" maxValue="37274"/>
+    </cacheField>
+    <cacheField name="Duration ST" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="502.43" maxValue="502.43"/>
+    </cacheField>
+    <cacheField name="Average Power ST" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="71.489999999999995" maxValue="71.489999999999995"/>
+    </cacheField>
     <cacheField name="PES MT" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="885.22" maxValue="5760.71"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44370.984763657405" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="8" xr:uid="{77F125F5-FAEA-41C0-B4FE-830A225910E6}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="GeneralTable[[GraphLabel]:[Average Power MT]]"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="GraphLabel" numFmtId="0">
+      <sharedItems count="8">
+        <s v="AMD Ryzen 7 4700U (Renoir) [1]"/>
+        <s v="AMD Ryzen 5 3600 (Matisse) [2]"/>
+        <s v="Intel i7 1065G (IceLake) [3]"/>
+        <s v="AMD Razyen 9 5950X (Vermeer) [4]"/>
+        <s v="AMDRyzen 7 4750G (Renoir) [5]"/>
+        <s v="AMD Razyen 7 3700X (Matisse) [6]"/>
+        <s v="AMD Ryzen 7 4750U (Renoir) [7]"/>
+        <s v="??? [8]"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PES ST" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="45.76" maxValue="153.88"/>
     </cacheField>
     <cacheField name="Consumption ST" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9839" maxValue="37274"/>
     </cacheField>
+    <cacheField name="Duration ST" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="502.43" maxValue="502.43"/>
+    </cacheField>
+    <cacheField name="Average Power ST" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="71.489999999999995" maxValue="71.489999999999995"/>
+    </cacheField>
+    <cacheField name="PES MT" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="885.22" maxValue="5760.71"/>
+    </cacheField>
     <cacheField name="Consumption MT" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2029" maxValue="7223"/>
+    </cacheField>
+    <cacheField name="Duration MT" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="33.520000000000003" maxValue="33.520000000000003"/>
+    </cacheField>
+    <cacheField name="Average Power MT" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="186.22" maxValue="186.22"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5606,75 +5766,190 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
   <r>
     <x v="0"/>
     <n v="133.62"/>
+    <n v="10168"/>
+    <m/>
+    <m/>
     <n v="2586.7600000000002"/>
-    <n v="10168"/>
-    <n v="2649"/>
   </r>
   <r>
     <x v="1"/>
     <n v="45.76"/>
+    <n v="32112"/>
+    <m/>
+    <m/>
     <n v="1386.39"/>
-    <n v="32112"/>
-    <n v="7223"/>
   </r>
   <r>
     <x v="2"/>
     <n v="127.76"/>
+    <n v="9839"/>
+    <m/>
+    <m/>
     <n v="885.22"/>
-    <n v="9839"/>
-    <n v="3912"/>
   </r>
   <r>
     <x v="3"/>
-    <n v="153.88"/>
-    <n v="2637.56"/>
-    <n v="10352"/>
-    <n v="5262"/>
+    <n v="55.41"/>
+    <n v="35920"/>
+    <n v="502.43"/>
+    <n v="71.489999999999995"/>
+    <n v="4779.3"/>
   </r>
   <r>
     <x v="4"/>
-    <n v="51.8"/>
-    <n v="2058.48"/>
-    <n v="30057"/>
-    <n v="6377"/>
+    <n v="153.88"/>
+    <n v="10352"/>
+    <m/>
+    <m/>
+    <n v="2637.56"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="137.88"/>
-    <n v="3599.63"/>
-    <n v="10396"/>
-    <n v="2029"/>
+    <n v="51.8"/>
+    <n v="30057"/>
+    <m/>
+    <m/>
+    <n v="2058.48"/>
   </r>
   <r>
     <x v="6"/>
+    <n v="137.88"/>
+    <n v="10396"/>
+    <m/>
+    <m/>
+    <n v="3599.63"/>
+  </r>
+  <r>
+    <x v="7"/>
     <n v="52.94"/>
+    <n v="37274"/>
+    <m/>
+    <m/>
     <n v="5760.71"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+  <r>
+    <x v="0"/>
+    <n v="133.62"/>
+    <n v="10168"/>
+    <m/>
+    <m/>
+    <n v="2586.7600000000002"/>
+    <n v="2649"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="45.76"/>
+    <n v="32112"/>
+    <m/>
+    <m/>
+    <n v="1386.39"/>
+    <n v="7223"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="127.76"/>
+    <n v="9839"/>
+    <m/>
+    <m/>
+    <n v="885.22"/>
+    <n v="3912"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="55.41"/>
+    <n v="35920"/>
+    <n v="502.43"/>
+    <n v="71.489999999999995"/>
+    <n v="4779.3"/>
+    <n v="6242"/>
+    <n v="33.520000000000003"/>
+    <n v="186.22"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="153.88"/>
+    <n v="10352"/>
+    <m/>
+    <m/>
+    <n v="2637.56"/>
+    <n v="5262"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="51.8"/>
+    <n v="30057"/>
+    <m/>
+    <m/>
+    <n v="2058.48"/>
+    <n v="6377"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="137.88"/>
+    <n v="10396"/>
+    <m/>
+    <m/>
+    <n v="3599.63"/>
+    <n v="2029"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="52.94"/>
     <n v="37274"/>
+    <m/>
+    <m/>
+    <n v="5760.71"/>
     <n v="4507"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53C9821C-4AAD-4B7A-89BF-B6F792D64CD3}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="B2:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53C9821C-4AAD-4B7A-89BF-B6F792D64CD3}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="12">
-        <item m="1" x="9"/>
+      <items count="19">
+        <item m="1" x="11"/>
+        <item m="1" x="17"/>
+        <item m="1" x="10"/>
         <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="14"/>
+        <item m="1" x="16"/>
+        <item m="1" x="9"/>
+        <item m="1" x="13"/>
         <item x="3"/>
+        <item m="1" x="15"/>
+        <item x="5"/>
+        <item m="1" x="12"/>
+        <item x="7"/>
         <item x="4"/>
-        <item x="5"/>
         <item x="6"/>
         <item t="default"/>
       </items>
@@ -5692,19 +5967,23 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="13"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i>
       <x v="6"/>
@@ -5713,10 +5992,10 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="17"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="16"/>
     </i>
     <i t="grand">
       <x/>
@@ -5752,21 +6031,28 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42BB440A-B501-4946-B14C-754D93D31B67}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="B2:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42BB440A-B501-4946-B14C-754D93D31B67}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="12">
-        <item m="1" x="9"/>
+      <items count="19">
+        <item m="1" x="11"/>
+        <item m="1" x="17"/>
+        <item m="1" x="10"/>
         <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="14"/>
+        <item m="1" x="16"/>
+        <item m="1" x="9"/>
+        <item m="1" x="13"/>
         <item x="3"/>
+        <item m="1" x="15"/>
+        <item x="5"/>
+        <item m="1" x="12"/>
+        <item x="7"/>
         <item x="4"/>
-        <item x="5"/>
         <item x="6"/>
         <item t="default"/>
       </items>
@@ -5781,28 +6067,32 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
-      <x v="10"/>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="13"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="17"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="16"/>
     </i>
     <i>
       <x v="4"/>
@@ -5818,7 +6108,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Summe von Consumption ST" fld="3" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="Summe von Consumption ST" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="3" format="5" series="1">
@@ -5844,21 +6134,28 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEB41E7C-5AB2-4580-B381-A37610DCF2EB}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="B2:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEB41E7C-5AB2-4580-B381-A37610DCF2EB}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="12">
-        <item m="1" x="9"/>
+      <items count="19">
+        <item m="1" x="11"/>
+        <item m="1" x="17"/>
+        <item m="1" x="10"/>
         <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="14"/>
+        <item m="1" x="16"/>
+        <item m="1" x="9"/>
+        <item m="1" x="13"/>
         <item x="3"/>
+        <item m="1" x="15"/>
+        <item x="5"/>
+        <item m="1" x="12"/>
+        <item x="7"/>
         <item x="4"/>
-        <item x="5"/>
         <item x="6"/>
         <item t="default"/>
       </items>
@@ -5873,14 +6170,15 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x v="6"/>
     </i>
@@ -5888,19 +6186,22 @@
       <x v="5"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="13"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="16"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="17"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -5910,7 +6211,7 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Summe von PES MT" fld="2" baseField="0" baseItem="1" numFmtId="4"/>
+    <dataField name="Summe von PES MT" fld="5" baseField="0" baseItem="1" numFmtId="4"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="3" format="5" series="1">
@@ -5936,21 +6237,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B0E6F04D-ED3A-40EC-8D2F-503A358EE722}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="B2:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EE254DA-8EFF-4861-8DBF-B2F3ACC4A6C4}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="12">
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
+      <items count="9">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="5"/>
+        <item x="7"/>
         <item x="4"/>
-        <item x="5"/>
         <item x="6"/>
         <item t="default"/>
       </items>
@@ -5967,32 +6265,39 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
-      <x v="5"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="10"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="5"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -6002,28 +6307,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Summe von Consumption MT" fld="4" baseField="0" baseItem="1" numFmtId="4"/>
+    <dataField name="Summe von Consumption MT" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="4" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="6" format="9" series="1">
+  <chartFormats count="1">
+    <chartFormat chart="4" format="8" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6046,9 +6333,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B3:K10" totalsRowShown="0">
-  <autoFilter ref="B3:K10" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B3:O11" totalsRowShown="0">
+  <autoFilter ref="B3:O11" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+  <tableColumns count="14">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Reference-No."/>
     <tableColumn id="1" xr3:uid="{4EB90E3D-8138-420D-9685-23ED5E0CD304}" name="Post-No"/>
     <tableColumn id="2" xr3:uid="{92C57538-460C-4E03-9CB9-83B07236AA32}" name="CPU"/>
@@ -6057,9 +6344,13 @@
       <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DC9686E4-85C0-47F0-8897-2265DDE0051D}" name="PES ST"/>
+    <tableColumn id="6" xr3:uid="{374DB514-59D1-4DD5-9B7D-7CBBDA45F154}" name="Consumption ST"/>
+    <tableColumn id="13" xr3:uid="{10E1BD7B-CAF9-42F5-8914-D1310D8226D9}" name="Duration ST"/>
+    <tableColumn id="14" xr3:uid="{24DAABC1-44C6-41F4-932F-8FE2CC1373D1}" name="Average Power ST"/>
     <tableColumn id="5" xr3:uid="{12E62267-0D7D-4CE4-BBC7-A7856D373EEC}" name="PES MT"/>
-    <tableColumn id="6" xr3:uid="{374DB514-59D1-4DD5-9B7D-7CBBDA45F154}" name="Consumption ST"/>
     <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Consumption MT"/>
+    <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Duration MT"/>
+    <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Average Power MT"/>
     <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code" dataDxfId="0">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</calculatedColumnFormula>
     </tableColumn>
@@ -6331,10 +6622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K10"/>
+  <dimension ref="B2:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6342,22 +6633,26 @@
     <col min="1" max="1" width="5.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -6375,19 +6670,31 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>6</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -6408,20 +6715,20 @@
         <v>133.62</v>
       </c>
       <c r="H4">
+        <v>10168</v>
+      </c>
+      <c r="K4">
         <v>2586.7600000000002</v>
       </c>
-      <c r="I4">
-        <v>10168</v>
-      </c>
-      <c r="J4">
+      <c r="L4">
         <v>2649</v>
       </c>
-      <c r="K4" t="str">
+      <c r="O4" t="str">
         <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
         <v>1|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -6442,20 +6749,20 @@
         <v>45.76</v>
       </c>
       <c r="H5">
+        <v>32112</v>
+      </c>
+      <c r="K5">
         <v>1386.39</v>
       </c>
-      <c r="I5">
-        <v>32112</v>
-      </c>
-      <c r="J5">
+      <c r="L5">
         <v>7223</v>
       </c>
-      <c r="K5" t="str">
+      <c r="O5" t="str">
         <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
         <v>2|AMD Ryzen 5 3600 (Matisse)|Lyka|6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -6476,153 +6783,199 @@
         <v>127.76</v>
       </c>
       <c r="H6">
+        <v>9839</v>
+      </c>
+      <c r="K6">
         <v>885.22</v>
       </c>
-      <c r="I6">
-        <v>9839</v>
-      </c>
-      <c r="J6">
+      <c r="L6">
         <v>3912</v>
       </c>
-      <c r="K6" t="str">
+      <c r="O6" t="str">
         <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
         <v>3|Intel i7 1065G (IceLake)|Naitsabes|7</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="str">
+        <v>25</v>
+      </c>
+      <c r="F7" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>Ryzen 7 4750G (Renoir) [4]</v>
+        <v>AMD Razyen 9 5950X (Vermeer) [4]</v>
       </c>
       <c r="G7">
-        <v>153.88</v>
+        <v>55.41</v>
       </c>
       <c r="H7">
-        <v>2637.56</v>
+        <v>35920</v>
       </c>
       <c r="I7">
-        <v>10352</v>
+        <v>502.43</v>
       </c>
       <c r="J7">
-        <v>5262</v>
-      </c>
-      <c r="K7" t="str">
+        <v>71.489999999999995</v>
+      </c>
+      <c r="K7">
+        <v>4779.3</v>
+      </c>
+      <c r="L7">
+        <v>6242</v>
+      </c>
+      <c r="M7">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="N7">
+        <v>186.22</v>
+      </c>
+      <c r="O7" t="str">
         <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>4|Ryzen 7 4750G (Renoir)|Poekel|18</v>
+        <v>4|AMD Razyen 9 5950X (Vermeer)|dosenfisch24|14</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMD Razyen 7 3700X (Matisse) [5]</v>
+        <v>AMDRyzen 7 4750G (Renoir) [5]</v>
       </c>
       <c r="G8">
-        <v>51.8</v>
+        <v>153.88</v>
       </c>
       <c r="H8">
-        <v>2058.48</v>
-      </c>
-      <c r="I8">
-        <v>30057</v>
-      </c>
-      <c r="J8">
-        <v>6377</v>
-      </c>
-      <c r="K8" s="1" t="str">
+        <v>10352</v>
+      </c>
+      <c r="K8">
+        <v>2637.56</v>
+      </c>
+      <c r="L8">
+        <v>5262</v>
+      </c>
+      <c r="O8" t="str">
         <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>5|AMD Razyen 7 3700X (Matisse)|Tigershark|27</v>
+        <v>5|AMDRyzen 7 4750G (Renoir)|Poekel|18</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 7 4750U [6]</v>
+        <v>AMD Razyen 7 3700X (Matisse) [6]</v>
       </c>
       <c r="G9">
-        <v>137.88</v>
+        <v>51.8</v>
       </c>
       <c r="H9">
-        <v>3599.63</v>
-      </c>
-      <c r="I9">
-        <v>10396</v>
-      </c>
-      <c r="J9">
-        <v>2029</v>
-      </c>
-      <c r="K9" s="1" t="str">
+        <v>30057</v>
+      </c>
+      <c r="K9">
+        <v>2058.48</v>
+      </c>
+      <c r="L9">
+        <v>6377</v>
+      </c>
+      <c r="O9" s="1" t="str">
         <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>6|AMD Ryzen 7 4750U|dosenfisch24|29</v>
+        <v>6|AMD Razyen 7 3700X (Matisse)|Tigershark|27</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>??? [7]</v>
+        <v>AMD Ryzen 7 4750U (Renoir) [7]</v>
       </c>
       <c r="G10">
+        <v>137.88</v>
+      </c>
+      <c r="H10">
+        <v>10396</v>
+      </c>
+      <c r="K10">
+        <v>3599.63</v>
+      </c>
+      <c r="L10">
+        <v>2029</v>
+      </c>
+      <c r="O10" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>7|AMD Ryzen 7 4750U (Renoir)|dosenfisch24|29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
+        <v>??? [8]</v>
+      </c>
+      <c r="G11">
         <v>52.94</v>
       </c>
-      <c r="H10">
+      <c r="H11">
+        <v>37274</v>
+      </c>
+      <c r="K11">
         <v>5760.71</v>
       </c>
-      <c r="I10">
-        <v>37274</v>
-      </c>
-      <c r="J10">
+      <c r="L11">
         <v>4507</v>
       </c>
-      <c r="K10" s="1" t="str">
+      <c r="O11" s="1" t="str">
         <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>7|???|Sweepi|32</v>
+        <v>8|???|Sweepi|32</v>
       </c>
     </row>
   </sheetData>
@@ -6636,16 +6989,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6F6CD-AB6C-41CA-A4F9-5492FC969623}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -6660,7 +7013,7 @@
     </row>
     <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4">
         <v>45.76</v>
@@ -6668,7 +7021,7 @@
     </row>
     <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4">
         <v>51.8</v>
@@ -6676,7 +7029,7 @@
     </row>
     <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4">
         <v>52.94</v>
@@ -6684,42 +7037,50 @@
     </row>
     <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4">
-        <v>127.76</v>
+        <v>55.41</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
-        <v>133.62</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4">
-        <v>137.88</v>
+        <v>133.62</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C9" s="4">
-        <v>153.88</v>
+        <v>137.88</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="4">
+        <v>153.88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
-        <v>703.63999999999987</v>
+      <c r="C11" s="4">
+        <v>759.05</v>
       </c>
     </row>
   </sheetData>
@@ -6730,7 +7091,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B96D4-491E-48C1-A9CD-50F5C88BFD81}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
@@ -6739,7 +7100,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -6749,12 +7110,12 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5">
         <v>37274</v>
@@ -6762,58 +7123,66 @@
     </row>
     <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5">
-        <v>32112</v>
+        <v>35920</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5">
-        <v>30057</v>
+        <v>32112</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5">
-        <v>10396</v>
+        <v>30057</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C7" s="5">
-        <v>10352</v>
+        <v>10396</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5">
-        <v>10168</v>
+        <v>10352</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5">
-        <v>9839</v>
+        <v>10168</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9839</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5">
-        <v>140198</v>
+      <c r="C11" s="5">
+        <v>176118</v>
       </c>
     </row>
   </sheetData>
@@ -6824,7 +7193,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -6833,7 +7202,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -6843,12 +7212,12 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4">
         <v>885.22</v>
@@ -6856,7 +7225,7 @@
     </row>
     <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4">
         <v>1386.39</v>
@@ -6864,7 +7233,7 @@
     </row>
     <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4">
         <v>2058.48</v>
@@ -6872,7 +7241,7 @@
     </row>
     <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4">
         <v>2586.7600000000002</v>
@@ -6880,7 +7249,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4">
         <v>2637.56</v>
@@ -6888,7 +7257,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C8" s="4">
         <v>3599.63</v>
@@ -6896,18 +7265,26 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4">
-        <v>5760.71</v>
+        <v>4779.3</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5760.71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
-        <v>18914.75</v>
+      <c r="C11" s="4">
+        <v>23694.050000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6919,16 +7296,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E4BCF-0D99-422A-A715-C65F85CECA2F}">
-  <dimension ref="B2:C10"/>
+  <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -6938,71 +7315,79 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
         <v>7223</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1">
         <v>6377</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5262</v>
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6242</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4507</v>
+        <v>42</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5262</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4">
-        <v>3912</v>
+      <c r="C7" s="1">
+        <v>4507</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2649</v>
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3912</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2029</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2649</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
-        <v>31959</v>
+      <c r="C11" s="1">
+        <v>38201</v>
       </c>
     </row>
   </sheetData>

--- a/Rankings.xlsx
+++ b/Rankings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4742B216-7335-4487-8BB1-BE53E5EA3D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86D5671-8A20-40E1-87FA-9DB9F2498373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsEntry" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId6"/>
-    <pivotCache cacheId="8" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
   <si>
     <t>CPU</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Sweepi</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>AMD Ryzen 5 3600 (Matisse) [2]</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
   </si>
   <si>
     <t>AMD Razyen 7 3700X (Matisse) [6]</t>
-  </si>
-  <si>
-    <t>??? [8]</t>
   </si>
   <si>
     <t>AMD Razyen 9 5950X (Vermeer) [4]</t>
@@ -171,6 +165,51 @@
   </si>
   <si>
     <t>AMDRyzen 7 4750G (Renoir) [5]</t>
+  </si>
+  <si>
+    <t>Bemerkung</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>Energy saving mode</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5900HS (Cezanne)</t>
+  </si>
+  <si>
+    <t>Battery / Better efficiency / HP: recommended</t>
+  </si>
+  <si>
+    <t>Intel Core i5-8365U (WHL)</t>
+  </si>
+  <si>
+    <t>MD_Enigma</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 PRO 4650G (Renoir)</t>
+  </si>
+  <si>
+    <t>25W</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 PRO 4650G (Renoir) [12]</t>
+  </si>
+  <si>
+    <t>Intel Core i5-8365U (WHL) [11]</t>
+  </si>
+  <si>
+    <t>AMD Razyen 9 5950X (Vermeer) [8]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5900HS (Cezanne) [10]</t>
+  </si>
+  <si>
+    <t>AMDRyzen 7 4750G (Renoir) [13]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5900HS (Cezanne) [9]</t>
   </si>
 </sst>
 </file>
@@ -206,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -215,13 +254,19 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -514,7 +559,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
@@ -586,7 +631,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -628,9 +673,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES ST'!$B$3:$B$11</c:f>
+              <c:f>'PES ST'!$B$3:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>AMD Ryzen 5 3600 (Matisse) [2]</c:v>
                 </c:pt>
@@ -638,32 +683,47 @@
                   <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>??? [8]</c:v>
+                  <c:v>AMD Razyen 9 5950X (Vermeer) [8]</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Intel Core i5-8365U (WHL) [11]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [9]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) [12]</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Intel i7 1065G (IceLake) [3]</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [10]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AMDRyzen 7 4750G (Renoir) [13]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES ST'!$C$3:$C$11</c:f>
+              <c:f>'PES ST'!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>45.76</c:v>
                 </c:pt>
@@ -677,16 +737,31 @@
                   <c:v>55.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>88.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>117.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>127.76</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>133.62</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>137.88</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>153.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>165.09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>173.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,7 +780,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="80"/>
         <c:axId val="2136136704"/>
         <c:axId val="2136137120"/>
       </c:barChart>
@@ -738,7 +813,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -920,7 +995,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>CB23 | Single-Thread | Consumption [J/Ws]</a:t>
+              <a:t>CB23 | Single-Thread | Consumption [J</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> or </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ws]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1268,7 +1351,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
@@ -1340,7 +1423,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1382,11 +1465,11 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption ST'!$B$3:$B$11</c:f>
+              <c:f>'Consumption ST'!$B$3:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>??? [8]</c:v>
+                  <c:v>AMD Razyen 9 5950X (Vermeer) [8]</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
@@ -1398,26 +1481,41 @@
                   <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) [12]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Intel Core i5-8365U (WHL) [11]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [10]</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>Intel i7 1065G (IceLake) [3]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AMDRyzen 7 4750G (Renoir) [13]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [9]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption ST'!$C$3:$C$11</c:f>
+              <c:f>'Consumption ST'!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>37274</c:v>
                 </c:pt>
@@ -1431,16 +1529,31 @@
                   <c:v>30057</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>12968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11657</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10936</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>10396</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>10352</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>10168</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>9839</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9122</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,7 +1572,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="80"/>
         <c:axId val="2136136704"/>
         <c:axId val="2136137120"/>
       </c:barChart>
@@ -1492,7 +1605,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2022,7 +2135,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
@@ -2094,7 +2207,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -2136,64 +2249,94 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES MT'!$B$3:$B$11</c:f>
+              <c:f>'PES MT'!$B$3:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>Intel Core i5-8365U (WHL) [11]</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Intel i7 1065G (IceLake) [3]</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>AMD Ryzen 5 3600 (Matisse) [2]</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) [12]</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [10]</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [9]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AMDRyzen 7 4750G (Renoir) [13]</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>??? [8]</c:v>
+                <c:pt idx="12">
+                  <c:v>AMD Razyen 9 5950X (Vermeer) [8]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES MT'!$C$3:$C$11</c:f>
+              <c:f>'PES MT'!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>656.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>885.22</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1386.39</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>1464.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2058.48</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>2586.7600000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>2637.56</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>3481.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3599.63</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>3815.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4670.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4779.3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>5760.71</c:v>
                 </c:pt>
               </c:numCache>
@@ -2213,7 +2356,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="80"/>
         <c:axId val="2136136704"/>
         <c:axId val="2136137120"/>
       </c:barChart>
@@ -2246,7 +2389,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2434,7 +2577,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Consumption [J/Ws]</a:t>
+              <a:t>Consumption [J or Ws]</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2951,7 +3094,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
@@ -3023,7 +3166,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -3065,65 +3208,95 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption MT'!$B$3:$B$11</c:f>
+              <c:f>'Consumption MT'!$B$3:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>AMD Ryzen 5 3600 (Matisse) [2]</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) [12]</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>??? [8]</c:v>
-                </c:pt>
                 <c:pt idx="5">
+                  <c:v>Intel Core i5-8365U (WHL) [11]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AMD Razyen 9 5950X (Vermeer) [8]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [10]</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>Intel i7 1065G (IceLake) [3]</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>AMDRyzen 7 4750G (Renoir) [13]</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [9]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption MT'!$C$3:$C$11</c:f>
+              <c:f>'Consumption MT'!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>7223</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6591</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6377</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6242</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5262</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>4575</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4507</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>4085</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3912</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>2649</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,7 +3315,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="80"/>
         <c:axId val="2136136704"/>
         <c:axId val="2136137120"/>
       </c:barChart>
@@ -3175,7 +3348,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5502,8 +5675,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5539,14 +5712,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>120</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5582,14 +5755,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>120</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5625,14 +5798,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>120</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>335280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5663,13 +5836,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44370.982344444441" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="8" xr:uid="{1C48AB18-201F-498F-BA2B-FB5C4F62805E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44371.851023495372" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="13" xr:uid="{77F125F5-FAEA-41C0-B4FE-830A225910E6}">
   <cacheSource type="worksheet">
-    <worksheetSource name="GeneralTable[[GraphLabel]:[PES MT]]"/>
+    <worksheetSource name="GeneralTable[[GraphLabel]:[Average Power MT]]"/>
   </cacheSource>
-  <cacheFields count="6">
+  <cacheFields count="9">
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="18">
+      <sharedItems count="14">
         <s v="AMD Ryzen 7 4700U (Renoir) [1]"/>
         <s v="AMD Ryzen 5 3600 (Matisse) [2]"/>
         <s v="Intel i7 1065G (IceLake) [3]"/>
@@ -5677,33 +5850,38 @@
         <s v="AMDRyzen 7 4750G (Renoir) [5]"/>
         <s v="AMD Razyen 7 3700X (Matisse) [6]"/>
         <s v="AMD Ryzen 7 4750U (Renoir) [7]"/>
-        <s v="??? [8]"/>
-        <s v="Ryzen 7 4750G (Renoir) [18]" u="1"/>
-        <s v="AMD Ryzen 7 4750U [6]" u="1"/>
-        <s v="Intel i7 1065G (IceLake) [7]" u="1"/>
-        <s v="AMD Ryzen 5 3600 (Matisse) [6]" u="1"/>
-        <s v="AMD Ryzen 7 4750U [7]" u="1"/>
-        <s v="??? [7]" u="1"/>
-        <s v="Ryzen 7 4750G (Renoir) [4]" u="1"/>
-        <s v="Ryzen 7 4750G (Renoir) [5]" u="1"/>
-        <s v="AMD Razyen 7 3700X (Matisse) [5]" u="1"/>
-        <s v="AMD Ryzen 7 4700U (Renoir) [3]" u="1"/>
+        <s v="AMD Razyen 9 5950X (Vermeer) [8]"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) [9]"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) [10]"/>
+        <s v="Intel Core i5-8365U (WHL) [11]"/>
+        <s v="AMD Ryzen 5 PRO 4650G (Renoir) [12]"/>
+        <s v="AMDRyzen 7 4750G (Renoir) [13]"/>
+        <s v="??? [8]" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PES ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="45.76" maxValue="153.88"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="45.76" maxValue="173.7"/>
     </cacheField>
     <cacheField name="Consumption ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9839" maxValue="37274"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6239" maxValue="37274"/>
     </cacheField>
     <cacheField name="Duration ST" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="502.43" maxValue="502.43"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="502.43" maxValue="1433.91"/>
     </cacheField>
     <cacheField name="Average Power ST" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="71.489999999999995" maxValue="71.489999999999995"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.3499999999999996" maxValue="71.489999999999995"/>
     </cacheField>
     <cacheField name="PES MT" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="885.22" maxValue="5760.71"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="656.66" maxValue="5760.71"/>
+    </cacheField>
+    <cacheField name="Consumption MT" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1738" maxValue="7223"/>
+    </cacheField>
+    <cacheField name="Duration MT" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="33.520000000000003" maxValue="332.85"/>
+    </cacheField>
+    <cacheField name="Average Power MT" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="11.52" maxValue="186.22"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5715,13 +5893,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44370.984763657405" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="8" xr:uid="{77F125F5-FAEA-41C0-B4FE-830A225910E6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44371.851023958334" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="13" xr:uid="{1C48AB18-201F-498F-BA2B-FB5C4F62805E}">
   <cacheSource type="worksheet">
-    <worksheetSource name="GeneralTable[[GraphLabel]:[Average Power MT]]"/>
+    <worksheetSource name="GeneralTable[[GraphLabel]:[PES MT]]"/>
   </cacheSource>
-  <cacheFields count="9">
+  <cacheFields count="6">
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="8">
+      <sharedItems count="24">
         <s v="AMD Ryzen 7 4700U (Renoir) [1]"/>
         <s v="AMD Ryzen 5 3600 (Matisse) [2]"/>
         <s v="Intel i7 1065G (IceLake) [3]"/>
@@ -5729,32 +5907,39 @@
         <s v="AMDRyzen 7 4750G (Renoir) [5]"/>
         <s v="AMD Razyen 7 3700X (Matisse) [6]"/>
         <s v="AMD Ryzen 7 4750U (Renoir) [7]"/>
-        <s v="??? [8]"/>
+        <s v="AMD Razyen 9 5950X (Vermeer) [8]"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) [9]"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) [10]"/>
+        <s v="Intel Core i5-8365U (WHL) [11]"/>
+        <s v="AMD Ryzen 5 PRO 4650G (Renoir) [12]"/>
+        <s v="AMDRyzen 7 4750G (Renoir) [13]"/>
+        <s v="Ryzen 7 4750G (Renoir) [18]" u="1"/>
+        <s v="AMD Ryzen 7 4750U [6]" u="1"/>
+        <s v="Intel i7 1065G (IceLake) [7]" u="1"/>
+        <s v="AMD Ryzen 5 3600 (Matisse) [6]" u="1"/>
+        <s v="AMD Ryzen 7 4750U [7]" u="1"/>
+        <s v="??? [7]" u="1"/>
+        <s v="??? [8]" u="1"/>
+        <s v="Ryzen 7 4750G (Renoir) [4]" u="1"/>
+        <s v="Ryzen 7 4750G (Renoir) [5]" u="1"/>
+        <s v="AMD Razyen 7 3700X (Matisse) [5]" u="1"/>
+        <s v="AMD Ryzen 7 4700U (Renoir) [3]" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PES ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="45.76" maxValue="153.88"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="45.76" maxValue="173.7"/>
     </cacheField>
     <cacheField name="Consumption ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="9839" maxValue="37274"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6239" maxValue="37274"/>
     </cacheField>
     <cacheField name="Duration ST" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="502.43" maxValue="502.43"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="502.43" maxValue="1433.91"/>
     </cacheField>
     <cacheField name="Average Power ST" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="71.489999999999995" maxValue="71.489999999999995"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.3499999999999996" maxValue="71.489999999999995"/>
     </cacheField>
     <cacheField name="PES MT" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="885.22" maxValue="5760.71"/>
-    </cacheField>
-    <cacheField name="Consumption MT" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2029" maxValue="7223"/>
-    </cacheField>
-    <cacheField name="Duration MT" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="33.520000000000003" maxValue="33.520000000000003"/>
-    </cacheField>
-    <cacheField name="Average Power MT" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="186.22" maxValue="186.22"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="656.66" maxValue="5760.71"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5766,76 +5951,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
-  <r>
-    <x v="0"/>
-    <n v="133.62"/>
-    <n v="10168"/>
-    <m/>
-    <m/>
-    <n v="2586.7600000000002"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="45.76"/>
-    <n v="32112"/>
-    <m/>
-    <m/>
-    <n v="1386.39"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="127.76"/>
-    <n v="9839"/>
-    <m/>
-    <m/>
-    <n v="885.22"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="55.41"/>
-    <n v="35920"/>
-    <n v="502.43"/>
-    <n v="71.489999999999995"/>
-    <n v="4779.3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="153.88"/>
-    <n v="10352"/>
-    <m/>
-    <m/>
-    <n v="2637.56"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="51.8"/>
-    <n v="30057"/>
-    <m/>
-    <m/>
-    <n v="2058.48"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="137.88"/>
-    <n v="10396"/>
-    <m/>
-    <m/>
-    <n v="3599.63"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="52.94"/>
-    <n v="37274"/>
-    <m/>
-    <m/>
-    <n v="5760.71"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="8">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
   <r>
     <x v="0"/>
     <n v="133.62"/>
@@ -5924,33 +6040,203 @@
     <m/>
     <m/>
   </r>
+  <r>
+    <x v="8"/>
+    <n v="111.79"/>
+    <n v="6239"/>
+    <n v="1433.91"/>
+    <n v="4.3499999999999996"/>
+    <n v="3815.05"/>
+    <n v="1738"/>
+    <n v="150.85"/>
+    <n v="11.52"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="165.09"/>
+    <n v="10936"/>
+    <n v="553.86"/>
+    <n v="19.75"/>
+    <n v="3481.64"/>
+    <n v="4085"/>
+    <n v="70.3"/>
+    <n v="58.11"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="88.24"/>
+    <n v="11657"/>
+    <n v="972.15"/>
+    <n v="11.99"/>
+    <n v="656.66"/>
+    <n v="4575"/>
+    <n v="332.85"/>
+    <n v="13.75"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="117.42"/>
+    <n v="12968"/>
+    <n v="656.73"/>
+    <n v="19.75"/>
+    <n v="1464.99"/>
+    <n v="6591"/>
+    <n v="103.56"/>
+    <n v="63.65"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="173.7"/>
+    <n v="9122"/>
+    <n v="631.12"/>
+    <n v="14.45"/>
+    <n v="4670.05"/>
+    <n v="2227"/>
+    <n v="96.17"/>
+    <n v="23.15"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
+  <r>
+    <x v="0"/>
+    <n v="133.62"/>
+    <n v="10168"/>
+    <m/>
+    <m/>
+    <n v="2586.7600000000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="45.76"/>
+    <n v="32112"/>
+    <m/>
+    <m/>
+    <n v="1386.39"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="127.76"/>
+    <n v="9839"/>
+    <m/>
+    <m/>
+    <n v="885.22"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="55.41"/>
+    <n v="35920"/>
+    <n v="502.43"/>
+    <n v="71.489999999999995"/>
+    <n v="4779.3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="153.88"/>
+    <n v="10352"/>
+    <m/>
+    <m/>
+    <n v="2637.56"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="51.8"/>
+    <n v="30057"/>
+    <m/>
+    <m/>
+    <n v="2058.48"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="137.88"/>
+    <n v="10396"/>
+    <m/>
+    <m/>
+    <n v="3599.63"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="52.94"/>
+    <n v="37274"/>
+    <m/>
+    <m/>
+    <n v="5760.71"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="111.79"/>
+    <n v="6239"/>
+    <n v="1433.91"/>
+    <n v="4.3499999999999996"/>
+    <n v="3815.05"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="165.09"/>
+    <n v="10936"/>
+    <n v="553.86"/>
+    <n v="19.75"/>
+    <n v="3481.64"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="88.24"/>
+    <n v="11657"/>
+    <n v="972.15"/>
+    <n v="11.99"/>
+    <n v="656.66"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="117.42"/>
+    <n v="12968"/>
+    <n v="656.73"/>
+    <n v="19.75"/>
+    <n v="1464.99"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="173.7"/>
+    <n v="9122"/>
+    <n v="631.12"/>
+    <n v="14.45"/>
+    <n v="4670.05"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53C9821C-4AAD-4B7A-89BF-B6F792D64CD3}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53C9821C-4AAD-4B7A-89BF-B6F792D64CD3}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="B2:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="19">
-        <item m="1" x="11"/>
-        <item m="1" x="17"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
+      <items count="25">
+        <item m="1" x="16"/>
+        <item m="1" x="23"/>
+        <item m="1" x="15"/>
+        <item m="1" x="13"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
         <item m="1" x="14"/>
-        <item m="1" x="16"/>
-        <item m="1" x="9"/>
-        <item m="1" x="13"/>
+        <item m="1" x="18"/>
         <item x="3"/>
-        <item m="1" x="15"/>
+        <item m="1" x="21"/>
         <item x="5"/>
-        <item m="1" x="12"/>
-        <item x="7"/>
+        <item m="1" x="17"/>
+        <item m="1" x="19"/>
         <item x="4"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -5972,7 +6258,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="14">
     <i>
       <x v="5"/>
     </i>
@@ -5980,10 +6266,19 @@
       <x v="13"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="18"/>
     </i>
     <i>
       <x v="11"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i>
       <x v="6"/>
@@ -5996,6 +6291,12 @@
     </i>
     <i>
       <x v="16"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i t="grand">
       <x/>
@@ -6031,29 +6332,35 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42BB440A-B501-4946-B14C-754D93D31B67}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42BB440A-B501-4946-B14C-754D93D31B67}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="B2:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="19">
-        <item m="1" x="11"/>
-        <item m="1" x="17"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
+      <items count="25">
+        <item m="1" x="16"/>
+        <item m="1" x="23"/>
+        <item m="1" x="15"/>
+        <item m="1" x="13"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
         <item m="1" x="14"/>
-        <item m="1" x="16"/>
-        <item m="1" x="9"/>
-        <item m="1" x="13"/>
+        <item m="1" x="18"/>
         <item x="3"/>
-        <item m="1" x="15"/>
+        <item m="1" x="21"/>
         <item x="5"/>
-        <item m="1" x="12"/>
-        <item x="7"/>
+        <item m="1" x="17"/>
+        <item m="1" x="19"/>
         <item x="4"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6075,9 +6382,9 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="14">
     <i>
-      <x v="15"/>
+      <x v="18"/>
     </i>
     <i>
       <x v="11"/>
@@ -6087,6 +6394,15 @@
     </i>
     <i>
       <x v="13"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i>
       <x v="17"/>
@@ -6099,6 +6415,12 @@
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="19"/>
     </i>
     <i t="grand">
       <x/>
@@ -6134,29 +6456,35 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEB41E7C-5AB2-4580-B381-A37610DCF2EB}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEB41E7C-5AB2-4580-B381-A37610DCF2EB}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="B2:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="19">
-        <item m="1" x="11"/>
-        <item m="1" x="17"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
+      <items count="25">
+        <item m="1" x="16"/>
+        <item m="1" x="23"/>
+        <item m="1" x="15"/>
+        <item m="1" x="13"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item m="1" x="20"/>
+        <item m="1" x="22"/>
         <item m="1" x="14"/>
-        <item m="1" x="16"/>
-        <item m="1" x="9"/>
-        <item m="1" x="13"/>
+        <item m="1" x="18"/>
         <item x="3"/>
-        <item m="1" x="15"/>
+        <item m="1" x="21"/>
         <item x="5"/>
-        <item m="1" x="12"/>
-        <item x="7"/>
+        <item m="1" x="17"/>
+        <item m="1" x="19"/>
         <item x="4"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6178,12 +6506,18 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="14">
+    <i>
+      <x v="21"/>
+    </i>
     <i>
       <x v="6"/>
     </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i>
       <x v="13"/>
@@ -6195,13 +6529,22 @@
       <x v="16"/>
     </i>
     <i>
+      <x v="20"/>
+    </i>
+    <i>
       <x v="17"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="23"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="18"/>
     </i>
     <i t="grand">
       <x/>
@@ -6237,19 +6580,25 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EE254DA-8EFF-4861-8DBF-B2F3ACC4A6C4}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="B2:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EE254DA-8EFF-4861-8DBF-B2F3ACC4A6C4}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="B2:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="9">
+      <items count="15">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="5"/>
-        <item x="7"/>
+        <item m="1" x="13"/>
         <item x="4"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6274,9 +6623,12 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="9">
+  <rowItems count="14">
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i>
       <x v="4"/>
@@ -6288,7 +6640,13 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i>
       <x v="2"/>
@@ -6297,7 +6655,13 @@
       <x/>
     </i>
     <i>
+      <x v="13"/>
+    </i>
+    <i>
       <x v="7"/>
+    </i>
+    <i>
+      <x v="9"/>
     </i>
     <i t="grand">
       <x/>
@@ -6333,14 +6697,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B3:O11" totalsRowShown="0">
-  <autoFilter ref="B3:O11" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B3:P16" totalsRowShown="0">
+  <autoFilter ref="B3:P16" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+  <tableColumns count="15">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Reference-No."/>
     <tableColumn id="1" xr3:uid="{4EB90E3D-8138-420D-9685-23ED5E0CD304}" name="Post-No"/>
     <tableColumn id="2" xr3:uid="{92C57538-460C-4E03-9CB9-83B07236AA32}" name="CPU"/>
     <tableColumn id="3" xr3:uid="{F26113B1-1044-4D8E-AAF2-786269A14A78}" name="User"/>
-    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Bemerkung" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="2">
       <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DC9686E4-85C0-47F0-8897-2265DDE0051D}" name="PES ST"/>
@@ -6352,7 +6717,7 @@
     <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Duration MT"/>
     <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Average Power MT"/>
     <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code" dataDxfId="0">
-      <calculatedColumnFormula>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</calculatedColumnFormula>
+      <calculatedColumnFormula>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6622,10 +6987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O11"/>
+  <dimension ref="B3:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6633,24 +6998,25 @@
     <col min="1" max="1" width="5.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -6664,37 +7030,40 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -6707,28 +7076,31 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
         <v>AMD Ryzen 7 4700U (Renoir) [1]</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>133.62</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10168</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2586.7600000000002</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2649</v>
       </c>
-      <c r="O4" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>1|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|3</v>
+      <c r="P4" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>1|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Battery / Better efficiency / HP: recommended|3</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -6741,28 +7113,29 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="6"/>
+      <c r="G5" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
         <v>AMD Ryzen 5 3600 (Matisse) [2]</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>45.76</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>32112</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1386.39</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7223</v>
       </c>
-      <c r="O5" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>2|AMD Ryzen 5 3600 (Matisse)|Lyka|6</v>
+      <c r="P5" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>2|AMD Ryzen 5 3600 (Matisse)|Lyka||6</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -6775,28 +7148,29 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="6"/>
+      <c r="G6" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
         <v>Intel i7 1065G (IceLake) [3]</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>127.76</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9839</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>885.22</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>3912</v>
       </c>
-      <c r="O6" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>3|Intel i7 1065G (IceLake)|Naitsabes|7</v>
+      <c r="P6" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>3|Intel i7 1065G (IceLake)|Naitsabes||7</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -6804,45 +7178,46 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="6"/>
+      <c r="G7" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
         <v>AMD Razyen 9 5950X (Vermeer) [4]</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>55.41</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>35920</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>502.43</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>71.489999999999995</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4779.3</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6242</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>33.520000000000003</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>186.22</v>
       </c>
-      <c r="O7" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>4|AMD Razyen 9 5950X (Vermeer)|dosenfisch24|14</v>
+      <c r="P7" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>4|AMD Razyen 9 5950X (Vermeer)|dosenfisch24||14</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -6850,33 +7225,34 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="str">
+      <c r="F8" s="6"/>
+      <c r="G8" s="1" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
         <v>AMDRyzen 7 4750G (Renoir) [5]</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>153.88</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10352</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2637.56</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5262</v>
       </c>
-      <c r="O8" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>5|AMDRyzen 7 4750G (Renoir)|Poekel|18</v>
+      <c r="P8" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>5|AMDRyzen 7 4750G (Renoir)|Poekel||18</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -6889,28 +7265,29 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="6"/>
+      <c r="G9" s="1" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
         <v>AMD Razyen 7 3700X (Matisse) [6]</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>51.8</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>30057</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2058.48</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>6377</v>
       </c>
-      <c r="O9" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>6|AMD Razyen 7 3700X (Matisse)|Tigershark|27</v>
+      <c r="P9" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>6|AMD Razyen 7 3700X (Matisse)|Tigershark||27</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -6918,33 +7295,34 @@
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="6"/>
+      <c r="G10" s="1" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
         <v>AMD Ryzen 7 4750U (Renoir) [7]</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>137.88</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10396</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3599.63</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2029</v>
       </c>
-      <c r="O10" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>7|AMD Ryzen 7 4750U (Renoir)|dosenfisch24|29</v>
+      <c r="P10" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>7|AMD Ryzen 7 4750U (Renoir)|dosenfisch24||29</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -6952,30 +7330,270 @@
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="1" t="str">
+      <c r="F11" s="6"/>
+      <c r="G11" s="1" t="str">
         <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>??? [8]</v>
-      </c>
-      <c r="G11">
+        <v>AMD Razyen 9 5950X (Vermeer) [8]</v>
+      </c>
+      <c r="H11">
         <v>52.94</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>37274</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5760.71</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4507</v>
       </c>
-      <c r="O11" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>8|???|Sweepi|32</v>
+      <c r="P11" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>8|AMD Razyen 9 5950X (Vermeer)|Sweepi||32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 9 5900HS (Cezanne) [9]</v>
+      </c>
+      <c r="H12">
+        <v>111.79</v>
+      </c>
+      <c r="I12">
+        <v>6239</v>
+      </c>
+      <c r="J12">
+        <v>1433.91</v>
+      </c>
+      <c r="K12">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="L12">
+        <v>3815.05</v>
+      </c>
+      <c r="M12">
+        <v>1738</v>
+      </c>
+      <c r="N12">
+        <v>150.85</v>
+      </c>
+      <c r="O12">
+        <v>11.52</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>9|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Energy saving mode|42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 9 5900HS (Cezanne) [10]</v>
+      </c>
+      <c r="H13">
+        <v>165.09</v>
+      </c>
+      <c r="I13">
+        <v>10936</v>
+      </c>
+      <c r="J13">
+        <v>553.86</v>
+      </c>
+      <c r="K13">
+        <v>19.75</v>
+      </c>
+      <c r="L13">
+        <v>3481.64</v>
+      </c>
+      <c r="M13">
+        <v>4085</v>
+      </c>
+      <c r="N13">
+        <v>70.3</v>
+      </c>
+      <c r="O13">
+        <v>58.11</v>
+      </c>
+      <c r="P13" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>10|AMD Ryzen 9 5900HS (Cezanne)|Monkey||44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
+        <v>Intel Core i5-8365U (WHL) [11]</v>
+      </c>
+      <c r="H14">
+        <v>88.24</v>
+      </c>
+      <c r="I14">
+        <v>11657</v>
+      </c>
+      <c r="J14">
+        <v>972.15</v>
+      </c>
+      <c r="K14">
+        <v>11.99</v>
+      </c>
+      <c r="L14">
+        <v>656.66</v>
+      </c>
+      <c r="M14">
+        <v>4575</v>
+      </c>
+      <c r="N14">
+        <v>332.85</v>
+      </c>
+      <c r="O14">
+        <v>13.75</v>
+      </c>
+      <c r="P14" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>11|Intel Core i5-8365U (WHL)|MD_Enigma||54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 5 PRO 4650G (Renoir) [12]</v>
+      </c>
+      <c r="H15">
+        <v>117.42</v>
+      </c>
+      <c r="I15">
+        <v>12968</v>
+      </c>
+      <c r="J15">
+        <v>656.73</v>
+      </c>
+      <c r="K15">
+        <v>19.75</v>
+      </c>
+      <c r="L15">
+        <v>1464.99</v>
+      </c>
+      <c r="M15">
+        <v>6591</v>
+      </c>
+      <c r="N15">
+        <v>103.56</v>
+      </c>
+      <c r="O15">
+        <v>63.65</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>12|AMD Ryzen 5 PRO 4650G (Renoir)|Tigershark||60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
+        <v>AMDRyzen 7 4750G (Renoir) [13]</v>
+      </c>
+      <c r="H16">
+        <v>173.7</v>
+      </c>
+      <c r="I16">
+        <v>9122</v>
+      </c>
+      <c r="J16">
+        <v>631.12</v>
+      </c>
+      <c r="K16">
+        <v>14.45</v>
+      </c>
+      <c r="L16">
+        <v>4670.05</v>
+      </c>
+      <c r="M16">
+        <v>2227</v>
+      </c>
+      <c r="N16">
+        <v>96.17</v>
+      </c>
+      <c r="O16">
+        <v>23.15</v>
+      </c>
+      <c r="P16" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
+        <v>13|AMDRyzen 7 4750G (Renoir)|Poekel|25W|47</v>
       </c>
     </row>
   </sheetData>
@@ -6989,21 +7607,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6F6CD-AB6C-41CA-A4F9-5492FC969623}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -7011,76 +7629,116 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="4">
         <v>45.76</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4">
         <v>51.8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4">
         <v>52.94</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4">
         <v>55.41</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4">
+        <v>111.79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="4">
+        <v>117.42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4">
+        <v>127.76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="4">
-        <v>127.76</v>
+      <c r="C11" s="4">
+        <v>133.62</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4">
-        <v>133.62</v>
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4">
+        <v>137.88</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="4">
-        <v>137.88</v>
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4">
+        <v>153.88</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="4">
-        <v>153.88</v>
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4">
+        <v>165.09</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4">
+        <v>173.7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4">
-        <v>759.05</v>
+      <c r="C16" s="4">
+        <v>1415.29</v>
       </c>
     </row>
   </sheetData>
@@ -7091,21 +7749,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B96D4-491E-48C1-A9CD-50F5C88BFD81}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -7113,76 +7771,116 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C3" s="5">
         <v>37274</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5">
         <v>35920</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5">
         <v>32112</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5">
         <v>30057</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5">
+        <v>12968</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11657</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10936</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5">
         <v>10396</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="5">
+    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="5">
         <v>10352</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5">
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="5">
         <v>10168</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5">
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5">
         <v>9839</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="5">
+        <v>9122</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="5">
-        <v>176118</v>
+      <c r="C16" s="5">
+        <v>227040</v>
       </c>
     </row>
   </sheetData>
@@ -7193,21 +7891,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -7215,76 +7913,116 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4">
-        <v>885.22</v>
+        <v>656.66</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="4">
+        <v>885.22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4">
         <v>1386.39</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1464.99</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2058.48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2586.7600000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2637.56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3481.64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3599.63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3815.05</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4670.05</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4">
-        <v>2058.48</v>
+      <c r="C14" s="4">
+        <v>4779.3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2586.7600000000002</v>
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5760.71</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2637.56</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3599.63</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4779.3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5760.71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4">
-        <v>23694.050000000003</v>
+      <c r="C16" s="4">
+        <v>37782.44</v>
       </c>
     </row>
   </sheetData>
@@ -7296,21 +8034,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E4BCF-0D99-422A-A715-C65F85CECA2F}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -7318,76 +8056,116 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>7223</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6591</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1">
-        <v>6377</v>
+      <c r="C6" s="1">
+        <v>6242</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6242</v>
+    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5262</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5262</v>
+    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4575</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1">
+    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1">
         <v>4507</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1">
-        <v>3912</v>
+      <c r="C12" s="1">
+        <v>2649</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2649</v>
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2227</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1">
         <v>2029</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1">
-        <v>38201</v>
+      <c r="C16" s="1">
+        <v>57417</v>
       </c>
     </row>
   </sheetData>

--- a/Rankings.xlsx
+++ b/Rankings.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86D5671-8A20-40E1-87FA-9DB9F2498373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C0219A-5F34-47A3-9CBC-778D08CAE668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResultsEntry" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
-    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="50" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
   <si>
     <t>CPU</t>
   </si>
@@ -57,15 +56,6 @@
   </si>
   <si>
     <t>PES MT</t>
-  </si>
-  <si>
-    <t>Consumption ST</t>
-  </si>
-  <si>
-    <t>Consumption MT</t>
-  </si>
-  <si>
-    <t>BB-Code</t>
   </si>
   <si>
     <t>CrazyIvan</t>
@@ -104,18 +94,6 @@
     <t>Summe von PES MT</t>
   </si>
   <si>
-    <t>Summe von Consumption ST</t>
-  </si>
-  <si>
-    <t>Summe von Consumption MT</t>
-  </si>
-  <si>
-    <t>Reference-No.</t>
-  </si>
-  <si>
-    <t>AMD Razyen 7 3700X (Matisse)</t>
-  </si>
-  <si>
     <t>Tigershark</t>
   </si>
   <si>
@@ -125,64 +103,16 @@
     <t>Sweepi</t>
   </si>
   <si>
-    <t>AMD Ryzen 5 3600 (Matisse) [2]</t>
-  </si>
-  <si>
-    <t>Intel i7 1065G (IceLake) [3]</t>
-  </si>
-  <si>
     <t>AMD Ryzen 7 4700U (Renoir) [1]</t>
-  </si>
-  <si>
-    <t>AMD Razyen 9 5950X (Vermeer)</t>
-  </si>
-  <si>
-    <t>AMD Razyen 7 3700X (Matisse) [6]</t>
-  </si>
-  <si>
-    <t>AMD Razyen 9 5950X (Vermeer) [4]</t>
-  </si>
-  <si>
-    <t>Duration ST</t>
-  </si>
-  <si>
-    <t>Average Power ST</t>
-  </si>
-  <si>
-    <t>Duration MT</t>
-  </si>
-  <si>
-    <t>Average Power MT</t>
-  </si>
-  <si>
-    <t>AMDRyzen 7 4750G (Renoir)</t>
   </si>
   <si>
     <t>AMD Ryzen 7 4750U (Renoir)</t>
   </si>
   <si>
-    <t>AMD Ryzen 7 4750U (Renoir) [7]</t>
-  </si>
-  <si>
-    <t>AMDRyzen 7 4750G (Renoir) [5]</t>
-  </si>
-  <si>
-    <t>Bemerkung</t>
-  </si>
-  <si>
     <t>Monkey</t>
   </si>
   <si>
-    <t>Energy saving mode</t>
-  </si>
-  <si>
     <t>AMD Ryzen 9 5900HS (Cezanne)</t>
-  </si>
-  <si>
-    <t>Battery / Better efficiency / HP: recommended</t>
-  </si>
-  <si>
-    <t>Intel Core i5-8365U (WHL)</t>
   </si>
   <si>
     <t>MD_Enigma</t>
@@ -194,29 +124,161 @@
     <t>25W</t>
   </si>
   <si>
-    <t>AMD Ryzen 5 PRO 4650G (Renoir) [12]</t>
+    <t>Version</t>
   </si>
   <si>
-    <t>Intel Core i5-8365U (WHL) [11]</t>
+    <t>v0.5.0</t>
   </si>
   <si>
-    <t>AMD Razyen 9 5950X (Vermeer) [8]</t>
+    <t>v0.3.1</t>
   </si>
   <si>
-    <t>AMD Ryzen 9 5900HS (Cezanne) [10]</t>
+    <t>Win: Best Perf.</t>
   </si>
   <si>
-    <t>AMDRyzen 7 4750G (Renoir) [13]</t>
+    <t>Win: Energy Saving</t>
   </si>
   <si>
-    <t>AMD Ryzen 9 5900HS (Cezanne) [9]</t>
+    <t>Batt. / Win: Better Eff. / HP: Recmd.</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 3 1200 (Summit Ridge)</t>
+  </si>
+  <si>
+    <t>Intel Core i5-8365U (WhiskeyLake)</t>
+  </si>
+  <si>
+    <t>BlackArchon</t>
+  </si>
+  <si>
+    <t>PBO on</t>
+  </si>
+  <si>
+    <t>PBO off</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5950X (Vermeer)</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 3700X (Matisse)</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5900X (Vermeer)</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 4750G (Renoir)</t>
+  </si>
+  <si>
+    <t>Krischi</t>
+  </si>
+  <si>
+    <t>LeiwandEr</t>
+  </si>
+  <si>
+    <t>manual Curve Optimization</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</t>
+  </si>
+  <si>
+    <t>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</t>
+  </si>
+  <si>
+    <t>Intel i7 1065G (IceLake) v0.3.1 [3]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</t>
+  </si>
+  <si>
+    <t>Ref-No.</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Cons. ST</t>
+  </si>
+  <si>
+    <t>Dur. ST</t>
+  </si>
+  <si>
+    <t>Avg. Pwr. ST</t>
+  </si>
+  <si>
+    <t>Cons. MT</t>
+  </si>
+  <si>
+    <t>Dur. MT</t>
+  </si>
+  <si>
+    <t>Avg. Pwr. MT</t>
+  </si>
+  <si>
+    <t>Current Version</t>
+  </si>
+  <si>
+    <t>Summe von Cons. ST</t>
+  </si>
+  <si>
+    <t>Summe von Cons. MT</t>
+  </si>
+  <si>
+    <t>Exclude From Chart</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>(Leer)</t>
+  </si>
+  <si>
+    <t>BB-Code Single-Thread</t>
+  </si>
+  <si>
+    <t>BB-Code Multi-Thread</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,16 +286,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -241,11 +315,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -253,15 +343,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -270,6 +367,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -545,6 +645,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -595,7 +696,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PES ST'!$C$2</c:f>
+              <c:f>'PES ST'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -617,6 +718,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -673,95 +775,119 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES ST'!$B$3:$B$16</c:f>
+              <c:f>'PES ST'!$B$4:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>AMD Ryzen 5 3600 (Matisse) [2]</c:v>
+                  <c:v>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
+                  <c:v>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AMD Razyen 9 5950X (Vermeer) [8]</c:v>
+                  <c:v>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
+                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Intel Core i5-8365U (WHL) [11]</c:v>
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [9]</c:v>
+                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) [12]</c:v>
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Intel i7 1065G (IceLake) [3]</c:v>
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Intel i7 1065G (IceLake) v0.3.1 [3]</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [10]</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>AMDRyzen 7 4750G (Renoir) [13]</c:v>
+                  <c:v>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES ST'!$C$3:$C$16</c:f>
+              <c:f>'PES ST'!$C$4:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>31.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45.76</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>51.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>52.94</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>55.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>55.41</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>88.24</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>111.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>117.42</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>127.76</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>129.46</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>133.62</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
                   <c:v>137.88</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>146.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>153.88</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>165.09</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>173.7</c:v>
+                <c:pt idx="16">
+                  <c:v>169.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,7 +1070,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -1375,6 +1500,63 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1387,7 +1569,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Consumption ST'!$C$2</c:f>
+              <c:f>'Consumption ST'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1409,6 +1591,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1465,102 +1648,126 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption ST'!$B$3:$B$16</c:f>
+              <c:f>'Consumption ST'!$B$4:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>AMD Razyen 9 5950X (Vermeer) [8]</c:v>
+                  <c:v>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AMD Ryzen 5 3600 (Matisse) [2]</c:v>
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) [12]</c:v>
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Intel Core i5-8365U (WHL) [11]</c:v>
+                  <c:v>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [10]</c:v>
+                  <c:v>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
+                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
+                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>Intel i7 1065G (IceLake) [3]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>AMDRyzen 7 4750G (Renoir) [13]</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [9]</c:v>
+                  <c:v>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Intel i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption ST'!$C$3:$C$16</c:f>
+              <c:f>'Consumption ST'!$C$4:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>45942</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>37274</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>35920</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>33870</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32204</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>32112</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>30057</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12968</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
+                  <c:v>23918</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>11657</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>10936</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>10450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10446</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>10396</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
+                  <c:v>10364</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>10352</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>10168</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>9839</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9122</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CD3F-41DC-8B41-6DEDDBFA9F64}"/>
+              <c16:uniqueId val="{00000005-2276-495A-B116-162B1B7014EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1736,7 +1943,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -2121,6 +2327,7 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2171,7 +2378,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'PES MT'!$C$2</c:f>
+              <c:f>'PES MT'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2193,6 +2400,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2249,94 +2457,118 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES MT'!$B$3:$B$16</c:f>
+              <c:f>'PES MT'!$B$4:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>Intel Core i5-8365U (WHL) [11]</c:v>
+                  <c:v>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Intel i7 1065G (IceLake) [3]</c:v>
+                  <c:v>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AMD Ryzen 5 3600 (Matisse) [2]</c:v>
+                  <c:v>Intel i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) [12]</c:v>
+                  <c:v>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
+                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [10]</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
+                  <c:v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [9]</c:v>
+                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>AMDRyzen 7 4750G (Renoir) [13]</c:v>
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
+                  <c:v>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>AMD Razyen 9 5950X (Vermeer) [8]</c:v>
+                  <c:v>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES MT'!$C$3:$C$16</c:f>
+              <c:f>'PES MT'!$C$4:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>262.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>656.66</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>885.22</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1386.39</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1464.99</c:v>
-                </c:pt>
                 <c:pt idx="4">
+                  <c:v>1818.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2058.48</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2586.7600000000002</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>2618.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2637.56</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>3481.64</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>2787.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3498.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3599.63</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3815.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4670.05</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>3983</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>4779.3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>5295.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5578.81</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>5760.71</c:v>
                 </c:pt>
               </c:numCache>
@@ -2520,7 +2752,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -3118,6 +3349,63 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3130,7 +3418,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Consumption MT'!$C$2</c:f>
+              <c:f>'Consumption MT'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3152,6 +3440,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3208,62 +3497,74 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption MT'!$B$3:$B$16</c:f>
+              <c:f>'Consumption MT'!$B$4:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>AMD Ryzen 5 3600 (Matisse) [2]</c:v>
+                  <c:v>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) [12]</c:v>
+                  <c:v>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AMD Razyen 7 3700X (Matisse) [6]</c:v>
+                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AMD Razyen 9 5950X (Vermeer) [4]</c:v>
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AMDRyzen 7 4750G (Renoir) [5]</c:v>
+                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Intel Core i5-8365U (WHL) [11]</c:v>
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AMD Razyen 9 5950X (Vermeer) [8]</c:v>
+                  <c:v>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [10]</c:v>
+                  <c:v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Intel i7 1065G (IceLake) [3]</c:v>
+                  <c:v>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Intel i7 1065G (IceLake) v0.3.1 [3]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>AMDRyzen 7 4750G (Renoir) [13]</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>AMD Ryzen 7 4750U (Renoir) [7]</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) [9]</c:v>
+                <c:pt idx="15">
+                  <c:v>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption MT'!$C$3:$C$16</c:f>
+              <c:f>'Consumption MT'!$C$4:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>13138</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7223</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6591</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6377</c:v>
@@ -3272,38 +3573,50 @@
                   <c:v>6242</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5607</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5262</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>4575</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>4561</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4507</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>4085</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>4404</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>3912</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>3831</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2651</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2649</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>2227</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-38A4-49BE-B1FD-5A7803352B11}"/>
+              <c16:uniqueId val="{00000001-DD9C-4351-9B29-00ACE5E45EE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5836,110 +6149,85 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44371.851023495372" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="13" xr:uid="{77F125F5-FAEA-41C0-B4FE-830A225910E6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44373.504113078707" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="20" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
   <cacheSource type="worksheet">
-    <worksheetSource name="GeneralTable[[GraphLabel]:[Average Power MT]]"/>
+    <worksheetSource name="GeneralTable"/>
   </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="14">
-        <s v="AMD Ryzen 7 4700U (Renoir) [1]"/>
-        <s v="AMD Ryzen 5 3600 (Matisse) [2]"/>
-        <s v="Intel i7 1065G (IceLake) [3]"/>
-        <s v="AMD Razyen 9 5950X (Vermeer) [4]"/>
-        <s v="AMDRyzen 7 4750G (Renoir) [5]"/>
-        <s v="AMD Razyen 7 3700X (Matisse) [6]"/>
-        <s v="AMD Ryzen 7 4750U (Renoir) [7]"/>
-        <s v="AMD Razyen 9 5950X (Vermeer) [8]"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) [9]"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) [10]"/>
-        <s v="Intel Core i5-8365U (WHL) [11]"/>
-        <s v="AMD Ryzen 5 PRO 4650G (Renoir) [12]"/>
-        <s v="AMDRyzen 7 4750G (Renoir) [13]"/>
-        <s v="??? [8]" u="1"/>
+  <cacheFields count="17">
+    <cacheField name="Ref-No." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Version" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Post-No" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="70"/>
+    </cacheField>
+    <cacheField name="CPU" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="User" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Remark" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Exclude From Chart" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <m/>
+        <s v="x"/>
       </sharedItems>
     </cacheField>
     <cacheField name="PES ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="45.76" maxValue="173.7"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="31.1" maxValue="173.7"/>
     </cacheField>
-    <cacheField name="Consumption ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6239" maxValue="37274"/>
+    <cacheField name="Cons. ST" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6239" maxValue="45942"/>
     </cacheField>
-    <cacheField name="Duration ST" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="502.43" maxValue="1433.91"/>
+    <cacheField name="Dur. ST" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="16.03" maxValue="1433.91"/>
     </cacheField>
-    <cacheField name="Average Power ST" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.3499999999999996" maxValue="71.489999999999995"/>
+    <cacheField name="Avg. Pwr. ST" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.3499999999999996" maxValue="87.69"/>
     </cacheField>
     <cacheField name="PES MT" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="656.66" maxValue="5760.71"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="262.60000000000002" maxValue="5760.71"/>
     </cacheField>
-    <cacheField name="Consumption MT" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1738" maxValue="7223"/>
+    <cacheField name="Cons. MT" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1738" maxValue="13138"/>
     </cacheField>
-    <cacheField name="Duration MT" numFmtId="0">
+    <cacheField name="Dur. MT" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="33.520000000000003" maxValue="332.85"/>
     </cacheField>
-    <cacheField name="Average Power MT" numFmtId="0">
+    <cacheField name="Avg. Pwr. MT" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="11.52" maxValue="186.22"/>
     </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44371.851023958334" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="13" xr:uid="{1C48AB18-201F-498F-BA2B-FB5C4F62805E}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="GeneralTable[[GraphLabel]:[PES MT]]"/>
-  </cacheSource>
-  <cacheFields count="6">
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="24">
+      <sharedItems count="20">
         <s v="AMD Ryzen 7 4700U (Renoir) [1]"/>
-        <s v="AMD Ryzen 5 3600 (Matisse) [2]"/>
-        <s v="Intel i7 1065G (IceLake) [3]"/>
-        <s v="AMD Razyen 9 5950X (Vermeer) [4]"/>
-        <s v="AMDRyzen 7 4750G (Renoir) [5]"/>
-        <s v="AMD Razyen 7 3700X (Matisse) [6]"/>
-        <s v="AMD Ryzen 7 4750U (Renoir) [7]"/>
-        <s v="AMD Razyen 9 5950X (Vermeer) [8]"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) [9]"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) [10]"/>
-        <s v="Intel Core i5-8365U (WHL) [11]"/>
-        <s v="AMD Ryzen 5 PRO 4650G (Renoir) [12]"/>
-        <s v="AMDRyzen 7 4750G (Renoir) [13]"/>
-        <s v="Ryzen 7 4750G (Renoir) [18]" u="1"/>
-        <s v="AMD Ryzen 7 4750U [6]" u="1"/>
-        <s v="Intel i7 1065G (IceLake) [7]" u="1"/>
-        <s v="AMD Ryzen 5 3600 (Matisse) [6]" u="1"/>
-        <s v="AMD Ryzen 7 4750U [7]" u="1"/>
-        <s v="??? [7]" u="1"/>
-        <s v="??? [8]" u="1"/>
-        <s v="Ryzen 7 4750G (Renoir) [4]" u="1"/>
-        <s v="Ryzen 7 4750G (Renoir) [5]" u="1"/>
-        <s v="AMD Razyen 7 3700X (Matisse) [5]" u="1"/>
-        <s v="AMD Ryzen 7 4700U (Renoir) [3]" u="1"/>
+        <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]"/>
+        <s v="Intel i7 1065G (IceLake) v0.3.1 [3]"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]"/>
+        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]"/>
+        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]"/>
+        <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]"/>
+        <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]"/>
+        <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]"/>
+        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]"/>
+        <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]"/>
+        <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]"/>
+        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]"/>
+        <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="PES ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="45.76" maxValue="173.7"/>
-    </cacheField>
-    <cacheField name="Consumption ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6239" maxValue="37274"/>
-    </cacheField>
-    <cacheField name="Duration ST" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="502.43" maxValue="1433.91"/>
-    </cacheField>
-    <cacheField name="Average Power ST" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.3499999999999996" maxValue="71.489999999999995"/>
-    </cacheField>
-    <cacheField name="PES MT" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="656.66" maxValue="5760.71"/>
+    <cacheField name="BB-Code" numFmtId="0">
+      <sharedItems/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -5951,8 +6239,261 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
   <r>
+    <n v="1"/>
+    <s v="v0.5.0"/>
+    <n v="3"/>
+    <s v="AMD Ryzen 7 4700U (Renoir)"/>
+    <s v="CrazyIvan"/>
+    <s v="Batt. / Win: Better Eff. / HP: Recmd."/>
+    <x v="0"/>
+    <n v="129.46"/>
+    <n v="10446"/>
+    <n v="739.49"/>
+    <n v="14.13"/>
+    <n v="2618.48"/>
+    <n v="2651"/>
+    <n v="144.08000000000001"/>
+    <n v="18.399999999999999"/>
+    <x v="0"/>
+    <s v="1|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|3"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <s v="v0.3.1"/>
+    <n v="6"/>
+    <s v="AMD Ryzen 5 3600 (Matisse)"/>
+    <s v="Lyka"/>
+    <m/>
+    <x v="0"/>
+    <n v="45.76"/>
+    <n v="32112"/>
+    <m/>
+    <m/>
+    <n v="1386.39"/>
+    <n v="7223"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <s v="2|AMD Ryzen 5 3600 (Matisse)|Lyka||6"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <s v="v0.3.1"/>
+    <n v="7"/>
+    <s v="Intel i7 1065G (IceLake)"/>
+    <s v="Naitsabes"/>
+    <m/>
+    <x v="0"/>
+    <n v="127.76"/>
+    <n v="9839"/>
+    <m/>
+    <m/>
+    <n v="885.22"/>
+    <n v="3912"/>
+    <m/>
+    <m/>
+    <x v="2"/>
+    <s v="3|Intel i7 1065G (IceLake)|Naitsabes||7"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <s v="v0.3.1"/>
+    <n v="14"/>
+    <s v="AMD Ryzen 9 5950X (Vermeer)"/>
+    <s v="dosenfisch24"/>
+    <m/>
+    <x v="0"/>
+    <n v="55.41"/>
+    <n v="35920"/>
+    <n v="502.43"/>
+    <n v="71.489999999999995"/>
+    <n v="4779.3"/>
+    <n v="6242"/>
+    <n v="33.520000000000003"/>
+    <n v="186.22"/>
+    <x v="3"/>
+    <s v="4|AMD Ryzen 9 5950X (Vermeer)|dosenfisch24||14"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <s v="v0.3.1"/>
+    <n v="18"/>
+    <s v="AMD Ryzen 7 4750G (Renoir)"/>
+    <s v="Poekel"/>
+    <m/>
+    <x v="0"/>
+    <n v="153.88"/>
+    <n v="10352"/>
+    <m/>
+    <m/>
+    <n v="2637.56"/>
+    <n v="5262"/>
+    <m/>
+    <m/>
+    <x v="4"/>
+    <s v="5|AMD Ryzen 7 4750G (Renoir)|Poekel||18"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <s v="v0.3.1"/>
+    <n v="27"/>
+    <s v="AMD Ryzen 7 3700X (Matisse)"/>
+    <s v="Tigershark"/>
+    <s v="PBO on"/>
+    <x v="0"/>
+    <n v="51.8"/>
+    <n v="30057"/>
+    <m/>
+    <m/>
+    <n v="2058.48"/>
+    <n v="6377"/>
+    <m/>
+    <m/>
+    <x v="5"/>
+    <s v="6|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO on|27"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <s v="v0.3.1"/>
+    <n v="29"/>
+    <s v="AMD Ryzen 7 4750U (Renoir)"/>
+    <s v="dosenfisch24"/>
+    <m/>
+    <x v="0"/>
+    <n v="137.88"/>
+    <n v="10396"/>
+    <m/>
+    <m/>
+    <n v="3599.63"/>
+    <n v="2029"/>
+    <m/>
+    <m/>
+    <x v="6"/>
+    <s v="7|AMD Ryzen 7 4750U (Renoir)|dosenfisch24||29"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <s v="v0.3.1"/>
+    <n v="32"/>
+    <s v="AMD Ryzen 9 5950X (Vermeer)"/>
+    <s v="Sweepi"/>
+    <m/>
+    <x v="0"/>
+    <n v="52.94"/>
+    <n v="37274"/>
+    <m/>
+    <m/>
+    <n v="5760.71"/>
+    <n v="4507"/>
+    <m/>
+    <m/>
+    <x v="7"/>
+    <s v="8|AMD Ryzen 9 5950X (Vermeer)|Sweepi||32"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <s v="v0.3.1"/>
+    <n v="42"/>
+    <s v="AMD Ryzen 9 5900HS (Cezanne)"/>
+    <s v="Monkey"/>
+    <s v="Win: Energy Saving"/>
+    <x v="1"/>
+    <n v="111.79"/>
+    <n v="6239"/>
+    <n v="1433.91"/>
+    <n v="4.3499999999999996"/>
+    <n v="3815.05"/>
+    <n v="1738"/>
+    <n v="150.85"/>
+    <n v="11.52"/>
+    <x v="8"/>
+    <s v="9|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Energy Saving|42"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <s v="v0.3.1"/>
+    <n v="44"/>
+    <s v="AMD Ryzen 9 5900HS (Cezanne)"/>
+    <s v="Monkey"/>
+    <m/>
+    <x v="1"/>
+    <n v="165.09"/>
+    <n v="10936"/>
+    <n v="553.86"/>
+    <n v="19.75"/>
+    <n v="3481.64"/>
+    <n v="4085"/>
+    <n v="70.3"/>
+    <n v="58.11"/>
+    <x v="9"/>
+    <s v="10|AMD Ryzen 9 5900HS (Cezanne)|Monkey||44"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <s v="v0.3.1"/>
+    <n v="54"/>
+    <s v="Intel Core i5-8365U (WhiskeyLake)"/>
+    <s v="MD_Enigma"/>
+    <m/>
+    <x v="0"/>
+    <n v="88.24"/>
+    <n v="11657"/>
+    <n v="972.15"/>
+    <n v="11.99"/>
+    <n v="656.66"/>
+    <n v="4575"/>
+    <n v="332.85"/>
+    <n v="13.75"/>
+    <x v="10"/>
+    <s v="11|Intel Core i5-8365U (WhiskeyLake)|MD_Enigma||54"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <s v="v0.3.1"/>
+    <n v="69"/>
+    <s v="AMD Ryzen 5 PRO 4650G (Renoir)"/>
+    <s v="Tigershark"/>
+    <m/>
+    <x v="0"/>
+    <n v="146.74"/>
+    <n v="10450"/>
+    <n v="16.03"/>
+    <n v="16.03"/>
+    <n v="1818.77"/>
+    <n v="5785"/>
+    <n v="95.05"/>
+    <n v="60.86"/>
+    <x v="11"/>
+    <s v="12|AMD Ryzen 5 PRO 4650G (Renoir)|Tigershark||69"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <s v="v0.3.1"/>
+    <n v="47"/>
+    <s v="AMD Ryzen 7 4750G (Renoir)"/>
+    <s v="Poekel"/>
+    <s v="25W"/>
+    <x v="1"/>
+    <n v="173.7"/>
+    <n v="9122"/>
+    <n v="631.12"/>
+    <n v="14.45"/>
+    <n v="4670.05"/>
+    <n v="2227"/>
+    <n v="96.17"/>
+    <n v="23.15"/>
+    <x v="12"/>
+    <s v="13|AMD Ryzen 7 4750G (Renoir)|Poekel|25W|47"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <s v="v0.3.1"/>
+    <n v="3"/>
+    <s v="AMD Ryzen 7 4700U (Renoir)"/>
+    <s v="CrazyIvan"/>
+    <s v="Batt. / Win: Better Eff. / HP: Recmd."/>
     <x v="0"/>
     <n v="133.62"/>
     <n v="10168"/>
@@ -5962,274 +6503,159 @@
     <n v="2649"/>
     <m/>
     <m/>
+    <x v="13"/>
+    <s v="14|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|3"/>
   </r>
   <r>
-    <x v="1"/>
-    <n v="45.76"/>
-    <n v="32112"/>
+    <n v="15"/>
+    <s v="v0.3.1"/>
+    <n v="38"/>
+    <s v="AMD Ryzen 9 5950X (Vermeer)"/>
+    <s v="Sweepi"/>
     <m/>
-    <m/>
-    <n v="1386.39"/>
-    <n v="7223"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <n v="59"/>
+    <n v="33870"/>
+    <n v="500.42"/>
+    <n v="67.680000000000007"/>
+    <n v="5578.81"/>
+    <n v="4561"/>
+    <n v="39.299999999999997"/>
+    <n v="116.04"/>
+    <x v="14"/>
+    <s v="15|AMD Ryzen 9 5950X (Vermeer)|Sweepi||38"/>
   </r>
   <r>
-    <x v="2"/>
-    <n v="127.76"/>
-    <n v="9839"/>
-    <m/>
-    <m/>
-    <n v="885.22"/>
-    <n v="3912"/>
-    <m/>
-    <m/>
+    <n v="16"/>
+    <s v="v0.3.1"/>
+    <n v="65"/>
+    <s v="AMD Ryzen 9 5900HS (Cezanne)"/>
+    <s v="Monkey"/>
+    <s v="Win: Best Perf."/>
+    <x v="0"/>
+    <n v="169.55"/>
+    <n v="10364"/>
+    <n v="569.12"/>
+    <n v="18.21"/>
+    <n v="3498.15"/>
+    <n v="3831"/>
+    <n v="74.63"/>
+    <n v="51.33"/>
+    <x v="15"/>
+    <s v="16|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Best Perf.|65"/>
   </r>
   <r>
-    <x v="3"/>
-    <n v="55.41"/>
-    <n v="35920"/>
-    <n v="502.43"/>
-    <n v="71.489999999999995"/>
-    <n v="4779.3"/>
-    <n v="6242"/>
-    <n v="33.520000000000003"/>
-    <n v="186.22"/>
+    <n v="17"/>
+    <s v="v0.3.1"/>
+    <n v="64"/>
+    <s v="AMD Ryzen 3 1200 (Summit Ridge)"/>
+    <s v="BlackArchon"/>
+    <m/>
+    <x v="0"/>
+    <n v="31.1"/>
+    <n v="32204"/>
+    <n v="998.38"/>
+    <n v="32.26"/>
+    <n v="262.60000000000002"/>
+    <n v="13138"/>
+    <n v="289.86"/>
+    <n v="45.32"/>
+    <x v="16"/>
+    <s v="17|AMD Ryzen 3 1200 (Summit Ridge)|BlackArchon||64"/>
   </r>
   <r>
-    <x v="4"/>
-    <n v="153.88"/>
-    <n v="10352"/>
-    <m/>
-    <m/>
-    <n v="2637.56"/>
-    <n v="5262"/>
-    <m/>
-    <m/>
+    <n v="18"/>
+    <s v="v0.3.1"/>
+    <n v="67"/>
+    <s v="AMD Ryzen 7 3700X (Matisse)"/>
+    <s v="Tigershark"/>
+    <s v="PBO off"/>
+    <x v="0"/>
+    <n v="55.08"/>
+    <n v="23918"/>
+    <n v="759.07"/>
+    <n v="31.51"/>
+    <n v="2787.1"/>
+    <n v="4404"/>
+    <n v="81.48"/>
+    <n v="54.05"/>
+    <x v="17"/>
+    <s v="18|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO off|67"/>
   </r>
   <r>
-    <x v="5"/>
-    <n v="51.8"/>
-    <n v="30057"/>
+    <n v="19"/>
+    <s v="v0.3.1"/>
+    <n v="68"/>
+    <s v="AMD Ryzen 9 5900X (Vermeer)"/>
+    <s v="Krischi"/>
     <m/>
-    <m/>
-    <n v="2058.48"/>
-    <n v="6377"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <n v="41.55"/>
+    <n v="45942"/>
+    <n v="523.91"/>
+    <n v="87.69"/>
+    <n v="3983"/>
+    <n v="5607"/>
+    <n v="44.78"/>
+    <n v="125.22"/>
+    <x v="18"/>
+    <s v="19|AMD Ryzen 9 5900X (Vermeer)|Krischi||68"/>
   </r>
   <r>
-    <x v="6"/>
-    <n v="137.88"/>
-    <n v="10396"/>
-    <m/>
-    <m/>
-    <n v="3599.63"/>
-    <n v="2029"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="52.94"/>
-    <n v="37274"/>
-    <m/>
-    <m/>
-    <n v="5760.71"/>
-    <n v="4507"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="111.79"/>
-    <n v="6239"/>
-    <n v="1433.91"/>
-    <n v="4.3499999999999996"/>
-    <n v="3815.05"/>
-    <n v="1738"/>
-    <n v="150.85"/>
-    <n v="11.52"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="165.09"/>
-    <n v="10936"/>
-    <n v="553.86"/>
-    <n v="19.75"/>
-    <n v="3481.64"/>
-    <n v="4085"/>
-    <n v="70.3"/>
-    <n v="58.11"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="88.24"/>
-    <n v="11657"/>
-    <n v="972.15"/>
-    <n v="11.99"/>
-    <n v="656.66"/>
-    <n v="4575"/>
-    <n v="332.85"/>
-    <n v="13.75"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="117.42"/>
-    <n v="12968"/>
-    <n v="656.73"/>
-    <n v="19.75"/>
-    <n v="1464.99"/>
-    <n v="6591"/>
-    <n v="103.56"/>
-    <n v="63.65"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="173.7"/>
-    <n v="9122"/>
-    <n v="631.12"/>
-    <n v="14.45"/>
-    <n v="4670.05"/>
-    <n v="2227"/>
-    <n v="96.17"/>
-    <n v="23.15"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="13">
-  <r>
+    <n v="20"/>
+    <s v="v0.3.1"/>
+    <n v="70"/>
+    <s v="AMD Ryzen 9 5950X (Vermeer)"/>
+    <s v="LeiwandEr"/>
+    <s v="manual Curve Optimization"/>
     <x v="0"/>
-    <n v="133.62"/>
-    <n v="10168"/>
-    <m/>
-    <m/>
-    <n v="2586.7600000000002"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="45.76"/>
-    <n v="32112"/>
-    <m/>
-    <m/>
-    <n v="1386.39"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="127.76"/>
-    <n v="9839"/>
-    <m/>
-    <m/>
-    <n v="885.22"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="55.41"/>
-    <n v="35920"/>
-    <n v="502.43"/>
-    <n v="71.489999999999995"/>
-    <n v="4779.3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="153.88"/>
-    <n v="10352"/>
-    <m/>
-    <m/>
-    <n v="2637.56"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="51.8"/>
-    <n v="30057"/>
-    <m/>
-    <m/>
-    <n v="2058.48"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="137.88"/>
-    <n v="10396"/>
-    <m/>
-    <m/>
-    <n v="3599.63"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="52.94"/>
-    <n v="37274"/>
-    <m/>
-    <m/>
-    <n v="5760.71"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="111.79"/>
-    <n v="6239"/>
-    <n v="1433.91"/>
-    <n v="4.3499999999999996"/>
-    <n v="3815.05"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="165.09"/>
-    <n v="10936"/>
-    <n v="553.86"/>
-    <n v="19.75"/>
-    <n v="3481.64"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="88.24"/>
-    <n v="11657"/>
-    <n v="972.15"/>
-    <n v="11.99"/>
-    <n v="656.66"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="117.42"/>
-    <n v="12968"/>
-    <n v="656.73"/>
-    <n v="19.75"/>
-    <n v="1464.99"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <n v="173.7"/>
-    <n v="9122"/>
-    <n v="631.12"/>
-    <n v="14.45"/>
-    <n v="4670.05"/>
+    <n v="60.29"/>
+    <n v="33002"/>
+    <n v="502.56"/>
+    <n v="65.67"/>
+    <n v="5295.16"/>
+    <n v="5633"/>
+    <n v="33.520000000000003"/>
+    <n v="168.04"/>
+    <x v="19"/>
+    <s v="20|AMD Ryzen 9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|70"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53C9821C-4AAD-4B7A-89BF-B6F792D64CD3}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="B2:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+  <location ref="B3:C21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="25">
-        <item m="1" x="16"/>
-        <item m="1" x="23"/>
-        <item m="1" x="15"/>
-        <item m="1" x="13"/>
+      <items count="21">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="14"/>
-        <item m="1" x="18"/>
         <item x="3"/>
-        <item m="1" x="21"/>
+        <item x="4"/>
         <item x="5"/>
-        <item m="1" x="17"/>
-        <item m="1" x="19"/>
-        <item x="4"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
@@ -6237,6 +6663,13 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6249,54 +6682,62 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="15"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="18">
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x/>
     </i>
     <i>
       <x v="13"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="6"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="23"/>
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -6305,8 +6746,11 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Summe von PES ST" fld="1" baseField="0" baseItem="3" numFmtId="4"/>
+    <dataField name="Summe von PES ST" fld="7" baseField="0" baseItem="3" numFmtId="4"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="2" format="3" series="1">
@@ -6332,28 +6776,38 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{42BB440A-B501-4946-B14C-754D93D31B67}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="B2:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="B3:C21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="25">
-        <item m="1" x="16"/>
-        <item m="1" x="23"/>
-        <item m="1" x="15"/>
-        <item m="1" x="13"/>
+      <items count="21">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="14"/>
-        <item m="1" x="18"/>
         <item x="3"/>
-        <item m="1" x="21"/>
+        <item x="4"/>
         <item x="5"/>
-        <item m="1" x="17"/>
-        <item m="1" x="19"/>
-        <item x="4"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
@@ -6361,6 +6815,13 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6374,53 +6835,61 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="15"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="18">
     <i>
       <x v="18"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="10"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="5"/>
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="4"/>
     </i>
     <i>
       <x v="13"/>
     </i>
     <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="19"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -6429,11 +6898,14 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Summe von Consumption ST" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="Summe von Cons. ST" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="3" format="5" series="1">
+    <chartFormat chart="3" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6456,28 +6928,38 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEB41E7C-5AB2-4580-B381-A37610DCF2EB}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="B2:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="B3:C21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="25">
-        <item m="1" x="16"/>
-        <item m="1" x="23"/>
-        <item m="1" x="15"/>
-        <item m="1" x="13"/>
+      <items count="21">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="20"/>
-        <item m="1" x="22"/>
-        <item m="1" x="14"/>
-        <item m="1" x="18"/>
         <item x="3"/>
-        <item m="1" x="21"/>
+        <item x="4"/>
         <item x="5"/>
-        <item m="1" x="17"/>
-        <item m="1" x="19"/>
-        <item x="4"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
@@ -6485,6 +6967,13 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6498,53 +6987,61 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="15"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="18">
     <i>
-      <x v="21"/>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i>
       <x v="6"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="18"/>
     </i>
     <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="17"/>
+      <x v="3"/>
     </i>
     <i>
       <x v="19"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="14"/>
     </i>
     <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="18"/>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -6553,8 +7050,11 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Summe von PES MT" fld="5" baseField="0" baseItem="1" numFmtId="4"/>
+    <dataField name="Summe von PES MT" fld="11" baseField="0" baseItem="1" numFmtId="4"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="3" format="5" series="1">
@@ -6580,18 +7080,38 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2EE254DA-8EFF-4861-8DBF-B2F3ACC4A6C4}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="B2:C16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="B3:C21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="15">
+      <items count="21">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
         <item x="5"/>
-        <item m="1" x="13"/>
-        <item x="4"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
@@ -6599,6 +7119,13 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6612,44 +7139,52 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="15"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="18">
+    <i>
+      <x v="16"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="18"/>
     </i>
     <i>
       <x v="4"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
       <x v="10"/>
     </i>
     <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i>
       <x/>
@@ -6658,10 +7193,7 @@
       <x v="13"/>
     </i>
     <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -6670,11 +7202,14 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="6" item="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Summe von Consumption MT" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Summe von Cons. MT" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="4" format="8" series="1">
+    <chartFormat chart="4" format="9" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6697,27 +7232,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B3:P16" totalsRowShown="0">
-  <autoFilter ref="B3:P16" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
-  <tableColumns count="15">
-    <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Reference-No."/>
-    <tableColumn id="1" xr3:uid="{4EB90E3D-8138-420D-9685-23ED5E0CD304}" name="Post-No"/>
-    <tableColumn id="2" xr3:uid="{92C57538-460C-4E03-9CB9-83B07236AA32}" name="CPU"/>
-    <tableColumn id="3" xr3:uid="{F26113B1-1044-4D8E-AAF2-786269A14A78}" name="User"/>
-    <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Bemerkung" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="2">
-      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B3:S23" totalsRowShown="0">
+  <autoFilter ref="B3:S23" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+  <tableColumns count="18">
+    <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref-No."/>
+    <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Version" dataCellStyle="Eingabe"/>
+    <tableColumn id="1" xr3:uid="{4EB90E3D-8138-420D-9685-23ED5E0CD304}" name="Post-No" dataCellStyle="Eingabe"/>
+    <tableColumn id="2" xr3:uid="{92C57538-460C-4E03-9CB9-83B07236AA32}" name="CPU" dataCellStyle="Eingabe"/>
+    <tableColumn id="3" xr3:uid="{F26113B1-1044-4D8E-AAF2-786269A14A78}" name="User" dataCellStyle="Eingabe"/>
+    <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Remark" dataDxfId="4" dataCellStyle="Eingabe"/>
+    <tableColumn id="17" xr3:uid="{4676CE90-8D18-4367-92DF-8446949D7324}" name="Exclude From Chart" dataDxfId="2" dataCellStyle="Eingabe"/>
+    <tableColumn id="4" xr3:uid="{DC9686E4-85C0-47F0-8897-2265DDE0051D}" name="PES ST" dataCellStyle="Eingabe"/>
+    <tableColumn id="6" xr3:uid="{374DB514-59D1-4DD5-9B7D-7CBBDA45F154}" name="Cons. ST" dataCellStyle="Eingabe"/>
+    <tableColumn id="13" xr3:uid="{10E1BD7B-CAF9-42F5-8914-D1310D8226D9}" name="Dur. ST" dataCellStyle="Eingabe"/>
+    <tableColumn id="14" xr3:uid="{24DAABC1-44C6-41F4-932F-8FE2CC1373D1}" name="Avg. Pwr. ST" dataCellStyle="Eingabe"/>
+    <tableColumn id="5" xr3:uid="{12E62267-0D7D-4CE4-BBC7-A7856D373EEC}" name="PES MT" dataCellStyle="Eingabe"/>
+    <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Cons. MT" dataCellStyle="Eingabe"/>
+    <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataCellStyle="Eingabe"/>
+    <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataCellStyle="Eingabe"/>
+    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="3">
+      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DC9686E4-85C0-47F0-8897-2265DDE0051D}" name="PES ST"/>
-    <tableColumn id="6" xr3:uid="{374DB514-59D1-4DD5-9B7D-7CBBDA45F154}" name="Consumption ST"/>
-    <tableColumn id="13" xr3:uid="{10E1BD7B-CAF9-42F5-8914-D1310D8226D9}" name="Duration ST"/>
-    <tableColumn id="14" xr3:uid="{24DAABC1-44C6-41F4-932F-8FE2CC1373D1}" name="Average Power ST"/>
-    <tableColumn id="5" xr3:uid="{12E62267-0D7D-4CE4-BBC7-A7856D373EEC}" name="PES MT"/>
-    <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Consumption MT"/>
-    <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Duration MT"/>
-    <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Average Power MT"/>
-    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code" dataDxfId="0">
-      <calculatedColumnFormula>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataDxfId="1">
+      <calculatedColumnFormula>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="BB-Code Multi-Thread" dataDxfId="0" dataCellStyle="Eingabe">
+      <calculatedColumnFormula>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6987,616 +7527,1193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:P16"/>
+  <dimension ref="B1:S23"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="76.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="28.109375" customWidth="1"/>
+    <col min="20" max="20" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
-        <v>5</v>
-      </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
         <v>4</v>
       </c>
-      <c r="M3" t="s">
-        <v>6</v>
-      </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5">
+        <v>129.46</v>
+      </c>
+      <c r="J4" s="5">
+        <v>10446</v>
+      </c>
+      <c r="K4" s="5">
+        <v>739.49</v>
+      </c>
+      <c r="L4" s="5">
+        <v>14.13</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2618.48</v>
+      </c>
+      <c r="N4" s="5">
+        <v>2651</v>
+      </c>
+      <c r="O4" s="5">
+        <v>144.08000000000001</v>
+      </c>
+      <c r="P4" s="5">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 7 4700U (Renoir) [1]</v>
+      </c>
+      <c r="R4" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>1|3|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|129,46|10446|739,49|14,13</v>
+      </c>
+      <c r="S4" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>1|3|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|2618,48|2651|144,08|18,4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5">
+        <v>45.76</v>
+      </c>
+      <c r="J5" s="5">
+        <v>32112</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
+        <v>1386.39</v>
+      </c>
+      <c r="N5" s="5">
+        <v>7223</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</v>
+      </c>
+      <c r="R5" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>2|6|AMD Ryzen 5 3600 (Matisse)|Lyka||v0.3.1|45,76|32112||</v>
+      </c>
+      <c r="S5" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>2|6|AMD Ryzen 5 3600 (Matisse)|Lyka||v0.3.1|1386,39|7223||</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f t="shared" ref="B6:B23" si="0">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5">
+        <v>127.76</v>
+      </c>
+      <c r="J6" s="5">
+        <v>9839</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <v>885.22</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3912</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>Intel i7 1065G (IceLake) v0.3.1 [3]</v>
+      </c>
+      <c r="R6" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>3|7|Intel i7 1065G (IceLake)|Naitsabes||v0.3.1|127,76|9839||</v>
+      </c>
+      <c r="S6" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>3|7|Intel i7 1065G (IceLake)|Naitsabes||v0.3.1|885,22|3912||</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5">
+        <v>55.41</v>
+      </c>
+      <c r="J7" s="5">
+        <v>35920</v>
+      </c>
+      <c r="K7" s="5">
+        <v>502.43</v>
+      </c>
+      <c r="L7" s="5">
+        <v>71.489999999999995</v>
+      </c>
+      <c r="M7" s="5">
+        <v>4779.3</v>
+      </c>
+      <c r="N7" s="5">
+        <v>6242</v>
+      </c>
+      <c r="O7" s="5">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="P7" s="5">
+        <v>186.22</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</v>
+      </c>
+      <c r="R7" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>4|14|AMD Ryzen 9 5950X (Vermeer)|dosenfisch24||v0.3.1|55,41|35920|502,43|71,49</v>
+      </c>
+      <c r="S7" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>4|14|AMD Ryzen 9 5950X (Vermeer)|dosenfisch24||v0.3.1|4779,3|6242|33,52|186,22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5">
+        <v>153.88</v>
+      </c>
+      <c r="J8" s="5">
+        <v>10352</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
+        <v>2637.56</v>
+      </c>
+      <c r="N8" s="5">
+        <v>5262</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</v>
+      </c>
+      <c r="R8" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>5|18|AMD Ryzen 7 4750G (Renoir)|Poekel||v0.3.1|153,88|10352||</v>
+      </c>
+      <c r="S8" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>5|18|AMD Ryzen 7 4750G (Renoir)|Poekel||v0.3.1|2637,56|5262||</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5">
+        <v>51.8</v>
+      </c>
+      <c r="J9" s="5">
+        <v>30057</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
+        <v>2058.48</v>
+      </c>
+      <c r="N9" s="5">
+        <v>6377</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</v>
+      </c>
+      <c r="R9" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>6|27|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|51,8|30057||</v>
+      </c>
+      <c r="S9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>6|27|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|2058,48|6377||</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5">
+        <v>137.88</v>
+      </c>
+      <c r="J10" s="5">
+        <v>10396</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
+        <v>3599.63</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2029</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</v>
+      </c>
+      <c r="R10" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>7|29|AMD Ryzen 7 4750U (Renoir)|dosenfisch24||v0.3.1|137,88|10396||</v>
+      </c>
+      <c r="S10" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>7|29|AMD Ryzen 7 4750U (Renoir)|dosenfisch24||v0.3.1|3599,63|2029||</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="5">
+        <v>52.94</v>
+      </c>
+      <c r="J11" s="5">
+        <v>37274</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
+        <v>5760.71</v>
+      </c>
+      <c r="N11" s="5">
+        <v>4507</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</v>
+      </c>
+      <c r="R11" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>8|32|AMD Ryzen 9 5950X (Vermeer)|Sweepi||v0.3.1|52,94|37274||</v>
+      </c>
+      <c r="S11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>8|32|AMD Ryzen 9 5950X (Vermeer)|Sweepi||v0.3.1|5760,71|4507||</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="5">
+        <v>111.79</v>
+      </c>
+      <c r="J12" s="5">
+        <v>6239</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1433.91</v>
+      </c>
+      <c r="L12" s="5">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3815.05</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1738</v>
+      </c>
+      <c r="O12" s="5">
+        <v>150.85</v>
+      </c>
+      <c r="P12" s="5">
+        <v>11.52</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]</v>
+      </c>
+      <c r="R12" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>9|42|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|111,79|6239|1433,91|4,35</v>
+      </c>
+      <c r="S12" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>9|42|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|3815,05|1738|150,85|11,52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="5">
+        <v>165.09</v>
+      </c>
+      <c r="J13" s="5">
+        <v>10936</v>
+      </c>
+      <c r="K13" s="5">
+        <v>553.86</v>
+      </c>
+      <c r="L13" s="5">
+        <v>19.75</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3481.64</v>
+      </c>
+      <c r="N13" s="5">
+        <v>4085</v>
+      </c>
+      <c r="O13" s="5">
+        <v>70.3</v>
+      </c>
+      <c r="P13" s="5">
+        <v>58.11</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]</v>
+      </c>
+      <c r="R13" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>10|44|AMD Ryzen 9 5900HS (Cezanne)|Monkey||v0.3.1|165,09|10936|553,86|19,75</v>
+      </c>
+      <c r="S13" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>10|44|AMD Ryzen 9 5900HS (Cezanne)|Monkey||v0.3.1|3481,64|4085|70,3|58,11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5">
+        <v>54</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5">
+        <v>88.24</v>
+      </c>
+      <c r="J14" s="5">
+        <v>11657</v>
+      </c>
+      <c r="K14" s="5">
+        <v>972.15</v>
+      </c>
+      <c r="L14" s="5">
+        <v>11.99</v>
+      </c>
+      <c r="M14" s="5">
+        <v>656.66</v>
+      </c>
+      <c r="N14" s="5">
+        <v>4575</v>
+      </c>
+      <c r="O14" s="5">
+        <v>332.85</v>
+      </c>
+      <c r="P14" s="5">
+        <v>13.75</v>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</v>
+      </c>
+      <c r="R14" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>11|54|Intel Core i5-8365U (WhiskeyLake)|MD_Enigma||v0.3.1|88,24|11657|972,15|11,99</v>
+      </c>
+      <c r="S14" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>11|54|Intel Core i5-8365U (WhiskeyLake)|MD_Enigma||v0.3.1|656,66|4575|332,85|13,75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 7 4700U (Renoir) [1]</v>
-      </c>
-      <c r="H4">
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5">
+        <v>69</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5">
+        <v>146.74</v>
+      </c>
+      <c r="J15" s="5">
+        <v>10450</v>
+      </c>
+      <c r="K15" s="5">
+        <v>16.03</v>
+      </c>
+      <c r="L15" s="5">
+        <v>16.03</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1818.77</v>
+      </c>
+      <c r="N15" s="5">
+        <v>5785</v>
+      </c>
+      <c r="O15" s="5">
+        <v>95.05</v>
+      </c>
+      <c r="P15" s="5">
+        <v>60.86</v>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</v>
+      </c>
+      <c r="R15" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>12|69|AMD Ryzen 5 PRO 4650G (Renoir)|Tigershark||v0.3.1|146,74|10450|16,03|16,03</v>
+      </c>
+      <c r="S15" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>12|69|AMD Ryzen 5 PRO 4650G (Renoir)|Tigershark||v0.3.1|1818,77|5785|95,05|60,86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5">
+        <v>47</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="5">
+        <v>173.7</v>
+      </c>
+      <c r="J16" s="5">
+        <v>9122</v>
+      </c>
+      <c r="K16" s="5">
+        <v>631.12</v>
+      </c>
+      <c r="L16" s="5">
+        <v>14.45</v>
+      </c>
+      <c r="M16" s="5">
+        <v>4670.05</v>
+      </c>
+      <c r="N16" s="5">
+        <v>2227</v>
+      </c>
+      <c r="O16" s="5">
+        <v>96.17</v>
+      </c>
+      <c r="P16" s="5">
+        <v>23.15</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]</v>
+      </c>
+      <c r="R16" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>13|47|AMD Ryzen 7 4750G (Renoir)|Poekel|25W|v0.3.1|173,7|9122|631,12|14,45</v>
+      </c>
+      <c r="S16" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>13|47|AMD Ryzen 7 4750G (Renoir)|Poekel|25W|v0.3.1|4670,05|2227|96,17|23,15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="5">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="5">
         <v>133.62</v>
       </c>
-      <c r="I4">
+      <c r="J17" s="5">
         <v>10168</v>
       </c>
-      <c r="L4">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
         <v>2586.7600000000002</v>
       </c>
-      <c r="M4">
+      <c r="N17" s="5">
         <v>2649</v>
       </c>
-      <c r="P4" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>1|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Battery / Better efficiency / HP: recommended|3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 5 3600 (Matisse) [2]</v>
-      </c>
-      <c r="H5">
-        <v>45.76</v>
-      </c>
-      <c r="I5">
-        <v>32112</v>
-      </c>
-      <c r="L5">
-        <v>1386.39</v>
-      </c>
-      <c r="M5">
-        <v>7223</v>
-      </c>
-      <c r="P5" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>2|AMD Ryzen 5 3600 (Matisse)|Lyka||6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>Intel i7 1065G (IceLake) [3]</v>
-      </c>
-      <c r="H6">
-        <v>127.76</v>
-      </c>
-      <c r="I6">
-        <v>9839</v>
-      </c>
-      <c r="L6">
-        <v>885.22</v>
-      </c>
-      <c r="M6">
-        <v>3912</v>
-      </c>
-      <c r="P6" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>3|Intel i7 1065G (IceLake)|Naitsabes||7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</v>
+      </c>
+      <c r="R17" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>14|3|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|133,62|10168||</v>
+      </c>
+      <c r="S17" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>14|3|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|2586,76|2649||</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5">
+        <v>38</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="5">
+        <v>59</v>
+      </c>
+      <c r="J18" s="5">
+        <v>33870</v>
+      </c>
+      <c r="K18" s="5">
+        <v>500.42</v>
+      </c>
+      <c r="L18" s="5">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="M18" s="5">
+        <v>5578.81</v>
+      </c>
+      <c r="N18" s="5">
+        <v>4561</v>
+      </c>
+      <c r="O18" s="5">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="P18" s="5">
+        <v>116.04</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</v>
+      </c>
+      <c r="R18" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>15|38|AMD Ryzen 9 5950X (Vermeer)|Sweepi||v0.3.1|59|33870|500,42|67,68</v>
+      </c>
+      <c r="S18" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>15|38|AMD Ryzen 9 5950X (Vermeer)|Sweepi||v0.3.1|5578,81|4561|39,3|116,04</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5">
+        <v>65</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMD Razyen 9 5950X (Vermeer) [4]</v>
-      </c>
-      <c r="H7">
-        <v>55.41</v>
-      </c>
-      <c r="I7">
-        <v>35920</v>
-      </c>
-      <c r="J7">
-        <v>502.43</v>
-      </c>
-      <c r="K7">
-        <v>71.489999999999995</v>
-      </c>
-      <c r="L7">
-        <v>4779.3</v>
-      </c>
-      <c r="M7">
-        <v>6242</v>
-      </c>
-      <c r="N7">
+      <c r="H19" s="6"/>
+      <c r="I19" s="5">
+        <v>169.55</v>
+      </c>
+      <c r="J19" s="5">
+        <v>10364</v>
+      </c>
+      <c r="K19" s="5">
+        <v>569.12</v>
+      </c>
+      <c r="L19" s="5">
+        <v>18.21</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3498.15</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3831</v>
+      </c>
+      <c r="O19" s="5">
+        <v>74.63</v>
+      </c>
+      <c r="P19" s="5">
+        <v>51.33</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</v>
+      </c>
+      <c r="R19" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>16|65|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|169,55|10364|569,12|18,21</v>
+      </c>
+      <c r="S19" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>16|65|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|3498,15|3831|74,63|51,33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5">
+        <v>64</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5">
+        <v>31.1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>32204</v>
+      </c>
+      <c r="K20" s="5">
+        <v>998.38</v>
+      </c>
+      <c r="L20" s="5">
+        <v>32.26</v>
+      </c>
+      <c r="M20" s="5">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="N20" s="5">
+        <v>13138</v>
+      </c>
+      <c r="O20" s="5">
+        <v>289.86</v>
+      </c>
+      <c r="P20" s="5">
+        <v>45.32</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</v>
+      </c>
+      <c r="R20" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>17|64|AMD Ryzen 3 1200 (Summit Ridge)|BlackArchon||v0.3.1|31,1|32204|998,38|32,26</v>
+      </c>
+      <c r="S20" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>17|64|AMD Ryzen 3 1200 (Summit Ridge)|BlackArchon||v0.3.1|262,6|13138|289,86|45,32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5">
+        <v>67</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5">
+        <v>55.08</v>
+      </c>
+      <c r="J21" s="5">
+        <v>23918</v>
+      </c>
+      <c r="K21" s="5">
+        <v>759.07</v>
+      </c>
+      <c r="L21" s="5">
+        <v>31.51</v>
+      </c>
+      <c r="M21" s="5">
+        <v>2787.1</v>
+      </c>
+      <c r="N21" s="5">
+        <v>4404</v>
+      </c>
+      <c r="O21" s="5">
+        <v>81.48</v>
+      </c>
+      <c r="P21" s="5">
+        <v>54.05</v>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</v>
+      </c>
+      <c r="R21" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>18|67|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|55,08|23918|759,07|31,51</v>
+      </c>
+      <c r="S21" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>18|67|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|2787,1|4404|81,48|54,05</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5">
+        <v>68</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5">
+        <v>41.55</v>
+      </c>
+      <c r="J22" s="5">
+        <v>45942</v>
+      </c>
+      <c r="K22" s="5">
+        <v>523.91</v>
+      </c>
+      <c r="L22" s="5">
+        <v>87.69</v>
+      </c>
+      <c r="M22" s="5">
+        <v>3983</v>
+      </c>
+      <c r="N22" s="5">
+        <v>5607</v>
+      </c>
+      <c r="O22" s="5">
+        <v>44.78</v>
+      </c>
+      <c r="P22" s="5">
+        <v>125.22</v>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</v>
+      </c>
+      <c r="R22" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>19|68|AMD Ryzen 9 5900X (Vermeer)|Krischi||v0.3.1|41,55|45942|523,91|87,69</v>
+      </c>
+      <c r="S22" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>19|68|AMD Ryzen 9 5900X (Vermeer)|Krischi||v0.3.1|3983|5607|44,78|125,22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="5">
+        <v>70</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5">
+        <v>60.29</v>
+      </c>
+      <c r="J23" s="5">
+        <v>33002</v>
+      </c>
+      <c r="K23" s="5">
+        <v>502.56</v>
+      </c>
+      <c r="L23" s="5">
+        <v>65.67</v>
+      </c>
+      <c r="M23" s="5">
+        <v>5295.16</v>
+      </c>
+      <c r="N23" s="5">
+        <v>5633</v>
+      </c>
+      <c r="O23" s="5">
         <v>33.520000000000003</v>
       </c>
-      <c r="O7">
-        <v>186.22</v>
-      </c>
-      <c r="P7" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>4|AMD Razyen 9 5950X (Vermeer)|dosenfisch24||14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMDRyzen 7 4750G (Renoir) [5]</v>
-      </c>
-      <c r="H8">
-        <v>153.88</v>
-      </c>
-      <c r="I8">
-        <v>10352</v>
-      </c>
-      <c r="L8">
-        <v>2637.56</v>
-      </c>
-      <c r="M8">
-        <v>5262</v>
-      </c>
-      <c r="P8" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>5|AMDRyzen 7 4750G (Renoir)|Poekel||18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMD Razyen 7 3700X (Matisse) [6]</v>
-      </c>
-      <c r="H9">
-        <v>51.8</v>
-      </c>
-      <c r="I9">
-        <v>30057</v>
-      </c>
-      <c r="L9">
-        <v>2058.48</v>
-      </c>
-      <c r="M9">
-        <v>6377</v>
-      </c>
-      <c r="P9" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>6|AMD Razyen 7 3700X (Matisse)|Tigershark||27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 7 4750U (Renoir) [7]</v>
-      </c>
-      <c r="H10">
-        <v>137.88</v>
-      </c>
-      <c r="I10">
-        <v>10396</v>
-      </c>
-      <c r="L10">
-        <v>3599.63</v>
-      </c>
-      <c r="M10">
-        <v>2029</v>
-      </c>
-      <c r="P10" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>7|AMD Ryzen 7 4750U (Renoir)|dosenfisch24||29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMD Razyen 9 5950X (Vermeer) [8]</v>
-      </c>
-      <c r="H11">
-        <v>52.94</v>
-      </c>
-      <c r="I11">
-        <v>37274</v>
-      </c>
-      <c r="L11">
-        <v>5760.71</v>
-      </c>
-      <c r="M11">
-        <v>4507</v>
-      </c>
-      <c r="P11" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>8|AMD Razyen 9 5950X (Vermeer)|Sweepi||32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 9 5900HS (Cezanne) [9]</v>
-      </c>
-      <c r="H12">
-        <v>111.79</v>
-      </c>
-      <c r="I12">
-        <v>6239</v>
-      </c>
-      <c r="J12">
-        <v>1433.91</v>
-      </c>
-      <c r="K12">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="L12">
-        <v>3815.05</v>
-      </c>
-      <c r="M12">
-        <v>1738</v>
-      </c>
-      <c r="N12">
-        <v>150.85</v>
-      </c>
-      <c r="O12">
-        <v>11.52</v>
-      </c>
-      <c r="P12" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>9|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Energy saving mode|42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 9 5900HS (Cezanne) [10]</v>
-      </c>
-      <c r="H13">
-        <v>165.09</v>
-      </c>
-      <c r="I13">
-        <v>10936</v>
-      </c>
-      <c r="J13">
-        <v>553.86</v>
-      </c>
-      <c r="K13">
-        <v>19.75</v>
-      </c>
-      <c r="L13">
-        <v>3481.64</v>
-      </c>
-      <c r="M13">
-        <v>4085</v>
-      </c>
-      <c r="N13">
-        <v>70.3</v>
-      </c>
-      <c r="O13">
-        <v>58.11</v>
-      </c>
-      <c r="P13" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>10|AMD Ryzen 9 5900HS (Cezanne)|Monkey||44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>Intel Core i5-8365U (WHL) [11]</v>
-      </c>
-      <c r="H14">
-        <v>88.24</v>
-      </c>
-      <c r="I14">
-        <v>11657</v>
-      </c>
-      <c r="J14">
-        <v>972.15</v>
-      </c>
-      <c r="K14">
-        <v>11.99</v>
-      </c>
-      <c r="L14">
-        <v>656.66</v>
-      </c>
-      <c r="M14">
-        <v>4575</v>
-      </c>
-      <c r="N14">
-        <v>332.85</v>
-      </c>
-      <c r="O14">
-        <v>13.75</v>
-      </c>
-      <c r="P14" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>11|Intel Core i5-8365U (WHL)|MD_Enigma||54</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 5 PRO 4650G (Renoir) [12]</v>
-      </c>
-      <c r="H15">
-        <v>117.42</v>
-      </c>
-      <c r="I15">
-        <v>12968</v>
-      </c>
-      <c r="J15">
-        <v>656.73</v>
-      </c>
-      <c r="K15">
-        <v>19.75</v>
-      </c>
-      <c r="L15">
-        <v>1464.99</v>
-      </c>
-      <c r="M15">
-        <v>6591</v>
-      </c>
-      <c r="N15">
-        <v>103.56</v>
-      </c>
-      <c r="O15">
-        <v>63.65</v>
-      </c>
-      <c r="P15" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>12|AMD Ryzen 5 PRO 4650G (Renoir)|Tigershark||60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; " [" &amp;GeneralTable[[#This Row],[Reference-No.]] &amp; "]"</f>
-        <v>AMDRyzen 7 4750G (Renoir) [13]</v>
-      </c>
-      <c r="H16">
-        <v>173.7</v>
-      </c>
-      <c r="I16">
-        <v>9122</v>
-      </c>
-      <c r="J16">
-        <v>631.12</v>
-      </c>
-      <c r="K16">
-        <v>14.45</v>
-      </c>
-      <c r="L16">
-        <v>4670.05</v>
-      </c>
-      <c r="M16">
-        <v>2227</v>
-      </c>
-      <c r="N16">
-        <v>96.17</v>
-      </c>
-      <c r="O16">
-        <v>23.15</v>
-      </c>
-      <c r="P16" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Reference-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Bemerkung]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]</f>
-        <v>13|AMDRyzen 7 4750G (Renoir)|Poekel|25W|47</v>
+      <c r="P23" s="5">
+        <v>168.04</v>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</v>
+      </c>
+      <c r="R23" s="1" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>20|70|AMD Ryzen 9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|60,29|33002|502,56|65,67</v>
+      </c>
+      <c r="S23" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>20|70|AMD Ryzen 9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|5295,16|5633|33,52|168,04</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -7607,74 +8724,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6F6CD-AB6C-41CA-A4F9-5492FC969623}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
+    <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="4">
-        <v>45.76</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4">
-        <v>51.8</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4">
-        <v>52.94</v>
+        <v>41.55</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4">
-        <v>55.41</v>
+        <v>45.76</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4">
-        <v>88.24</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4">
-        <v>111.79</v>
+        <v>52.94</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -7682,63 +8799,103 @@
         <v>50</v>
       </c>
       <c r="C9" s="4">
-        <v>117.42</v>
+        <v>55.08</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4">
-        <v>127.76</v>
+        <v>55.41</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4">
-        <v>133.62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4">
-        <v>137.88</v>
+        <v>60.29</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4">
-        <v>153.88</v>
+        <v>88.24</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4">
-        <v>165.09</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>173.7</v>
+        <v>129.46</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4">
-        <v>1415.29</v>
+        <v>133.62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="4">
+        <v>137.88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="4">
+        <v>146.74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="4">
+        <v>153.88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4">
+        <v>169.55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1540.0599999999995</v>
       </c>
     </row>
   </sheetData>
@@ -7749,138 +8906,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B96D4-491E-48C1-A9CD-50F5C88BFD81}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
+    <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="5">
-        <v>37274</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5">
-        <v>35920</v>
+        <v>46</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45942</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="5">
-        <v>32112</v>
+        <v>49</v>
+      </c>
+      <c r="C5" s="1">
+        <v>37274</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5">
-        <v>30057</v>
+        <v>51</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35920</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5">
-        <v>12968</v>
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>33870</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="5">
-        <v>11657</v>
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <v>33002</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10936</v>
+        <v>45</v>
+      </c>
+      <c r="C9" s="1">
+        <v>32204</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5">
-        <v>10396</v>
+        <v>47</v>
+      </c>
+      <c r="C10" s="1">
+        <v>32112</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10352</v>
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30057</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="5">
-        <v>10168</v>
+        <v>50</v>
+      </c>
+      <c r="C12" s="1">
+        <v>23918</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="5">
-        <v>9839</v>
+        <v>54</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11657</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="5">
-        <v>9122</v>
+        <v>58</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10450</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="5">
-        <v>6239</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10446</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5">
-        <v>227040</v>
+        <v>57</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10396</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10364</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10352</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10168</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="1">
+        <v>9839</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>387971</v>
       </c>
     </row>
   </sheetData>
@@ -7891,138 +9088,178 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
+    <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="4">
-        <v>656.66</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4">
-        <v>885.22</v>
+        <v>262.60000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4">
-        <v>1386.39</v>
+        <v>656.66</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4">
-        <v>1464.99</v>
+        <v>885.22</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4">
-        <v>2058.48</v>
+        <v>1386.39</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4">
-        <v>2586.7600000000002</v>
+        <v>1818.77</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4">
-        <v>2637.56</v>
+        <v>2058.48</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4">
-        <v>3481.64</v>
+        <v>2586.7600000000002</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4">
-        <v>3599.63</v>
+        <v>2618.48</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4">
-        <v>3815.05</v>
+        <v>2637.56</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4">
-        <v>4670.05</v>
+        <v>2787.1</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4">
-        <v>4779.3</v>
+        <v>3498.15</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C15" s="4">
-        <v>5760.71</v>
+        <v>3599.63</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4">
-        <v>37782.44</v>
+        <v>3983</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4779.3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5295.16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5578.81</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5760.71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4">
+        <v>50192.78</v>
       </c>
     </row>
   </sheetData>
@@ -8034,138 +9271,178 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E4BCF-0D99-422A-A715-C65F85CECA2F}">
-  <dimension ref="B2:C16"/>
+  <dimension ref="B1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
+    <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7223</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1">
-        <v>6591</v>
+        <v>13138</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
-        <v>6377</v>
+        <v>7223</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
-        <v>6242</v>
+        <v>6377</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
-        <v>5262</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1">
-        <v>4575</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1">
-        <v>4507</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1">
-        <v>4085</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1">
-        <v>3912</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1">
-        <v>2649</v>
+        <v>4575</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1">
-        <v>2227</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
-        <v>2029</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
-        <v>1738</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1">
-        <v>57417</v>
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>88386</v>
       </c>
     </row>
   </sheetData>

--- a/Rankings.xlsx
+++ b/Rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C0219A-5F34-47A3-9CBC-778D08CAE668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C2E89-6050-4AD6-83B3-18499F92FD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="50" r:id="rId6"/>
+    <pivotCache cacheId="16" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>CPU</t>
   </si>
@@ -65,15 +65,6 @@
   </si>
   <si>
     <t>Naitsabes</t>
-  </si>
-  <si>
-    <t>Intel i7 1065G (IceLake)</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 4700U (Renoir)</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 5 3600 (Matisse)</t>
   </si>
   <si>
     <t>GraphLabel</t>
@@ -103,22 +94,10 @@
     <t>Sweepi</t>
   </si>
   <si>
-    <t>AMD Ryzen 7 4700U (Renoir) [1]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 4750U (Renoir)</t>
-  </si>
-  <si>
     <t>Monkey</t>
   </si>
   <si>
-    <t>AMD Ryzen 9 5900HS (Cezanne)</t>
-  </si>
-  <si>
     <t>MD_Enigma</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 5 PRO 4650G (Renoir)</t>
   </si>
   <si>
     <t>25W</t>
@@ -142,12 +121,6 @@
     <t>Batt. / Win: Better Eff. / HP: Recmd.</t>
   </si>
   <si>
-    <t>AMD Ryzen 3 1200 (Summit Ridge)</t>
-  </si>
-  <si>
-    <t>Intel Core i5-8365U (WhiskeyLake)</t>
-  </si>
-  <si>
     <t>BlackArchon</t>
   </si>
   <si>
@@ -157,18 +130,6 @@
     <t>PBO off</t>
   </si>
   <si>
-    <t>AMD Ryzen 9 5950X (Vermeer)</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 3700X (Matisse)</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 5900X (Vermeer)</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 4750G (Renoir)</t>
-  </si>
-  <si>
     <t>Krischi</t>
   </si>
   <si>
@@ -176,54 +137,6 @@
   </si>
   <si>
     <t>manual Curve Optimization</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</t>
-  </si>
-  <si>
-    <t>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</t>
-  </si>
-  <si>
-    <t>Intel i7 1065G (IceLake) v0.3.1 [3]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</t>
   </si>
   <si>
     <t>Ref-No.</t>
@@ -273,6 +186,138 @@
   <si>
     <t>BB-Code Multi-Thread</t>
   </si>
+  <si>
+    <t>R7 4700U (Renoir)</t>
+  </si>
+  <si>
+    <t>R5 3600 (Matisse)</t>
+  </si>
+  <si>
+    <t>R9 5950X (Vermeer)</t>
+  </si>
+  <si>
+    <t>R7 4750G (Renoir)</t>
+  </si>
+  <si>
+    <t>R7 3700X (Matisse)</t>
+  </si>
+  <si>
+    <t>R7 4750U (Renoir)</t>
+  </si>
+  <si>
+    <t>R9 5900HS (Cezanne)</t>
+  </si>
+  <si>
+    <t>R5 PRO 4650G (Renoir)</t>
+  </si>
+  <si>
+    <t>R3 1200 (Summit Ridge)</t>
+  </si>
+  <si>
+    <t>R9 5900X (Vermeer)</t>
+  </si>
+  <si>
+    <t>i7 1065G (IceLake)</t>
+  </si>
+  <si>
+    <t>i5 8365U (WhiskeyLake)</t>
+  </si>
+  <si>
+    <t>Lowkey</t>
+  </si>
+  <si>
+    <t>misterh</t>
+  </si>
+  <si>
+    <t>Platos</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>i7 1165G7 (TigerLake)</t>
+  </si>
+  <si>
+    <t>Chart-Remark</t>
+  </si>
+  <si>
+    <t>@25W</t>
+  </si>
+  <si>
+    <t>@ESM</t>
+  </si>
+  <si>
+    <t>@-0,1V</t>
+  </si>
+  <si>
+    <t>-0,1V Curve Optimization</t>
+  </si>
+  <si>
+    <t>R3 1200 (Summit Ridge) v0.3.1 [17]</t>
+  </si>
+  <si>
+    <t>R9 5900X (Vermeer) v0.3.1 [19]</t>
+  </si>
+  <si>
+    <t>R5 3600 (Matisse) v0.3.1 [2]</t>
+  </si>
+  <si>
+    <t>R7 3700X (Matisse) v0.3.1 [6]</t>
+  </si>
+  <si>
+    <t>R7 3700X (Matisse) v0.3.1 [18]</t>
+  </si>
+  <si>
+    <t>R9 5950X (Vermeer) v0.3.1 [4]</t>
+  </si>
+  <si>
+    <t>R9 5950X (Vermeer) [26]</t>
+  </si>
+  <si>
+    <t>R9 5950X (Vermeer) v0.3.1 [20]</t>
+  </si>
+  <si>
+    <t>R9 5950X (Vermeer) [21]</t>
+  </si>
+  <si>
+    <t>R9 5950X (Vermeer)@-0,1V [25]</t>
+  </si>
+  <si>
+    <t>R9 5950X (Vermeer) [22]</t>
+  </si>
+  <si>
+    <t>i5 8365U (WhiskeyLake) v0.3.1 [11]</t>
+  </si>
+  <si>
+    <t>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</t>
+  </si>
+  <si>
+    <t>i7 1165G7 (TigerLake) [24]</t>
+  </si>
+  <si>
+    <t>i7 1065G (IceLake) v0.3.1 [3]</t>
+  </si>
+  <si>
+    <t>R7 4700U (Renoir) [1]</t>
+  </si>
+  <si>
+    <t>R7 4700U (Renoir) v0.3.1 [14]</t>
+  </si>
+  <si>
+    <t>R7 4750U (Renoir) v0.3.1 [7]</t>
+  </si>
+  <si>
+    <t>R5 PRO 4650G (Renoir) v0.3.1 [12]</t>
+  </si>
+  <si>
+    <t>R7 4750G (Renoir) v0.3.1 [5]</t>
+  </si>
+  <si>
+    <t>R9 5900HS (Cezanne) v0.3.1 [16]</t>
+  </si>
+  <si>
+    <t>R7 4750G (Renoir)@25W v0.3.1 [13]</t>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -330,18 +375,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -350,23 +405,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF7F7F7F"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -775,69 +857,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES ST'!$B$4:$B$21</c:f>
+              <c:f>'PES ST'!$B$4:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
+                  <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</c:v>
+                  <c:v>R9 5900X (Vermeer) v0.3.1 [19]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</c:v>
+                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</c:v>
+                  <c:v>R7 3700X (Matisse) v0.3.1 [6]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</c:v>
+                  <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [4]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</c:v>
+                  <c:v>R9 5950X (Vermeer) [26]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [20]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</c:v>
+                  <c:v>R9 5950X (Vermeer) [21]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</c:v>
+                  <c:v>R9 5950X (Vermeer)@-0,1V [25]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Intel i7 1065G (IceLake) v0.3.1 [3]</c:v>
+                  <c:v>R9 5950X (Vermeer) [22]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
+                  <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</c:v>
+                  <c:v>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</c:v>
+                  <c:v>i7 1165G7 (TigerLake) [24]</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
+                  <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</c:v>
+                  <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</c:v>
+                  <c:v>R7 4700U (Renoir) v0.3.1 [14]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R9 5900HS (Cezanne) v0.3.1 [16]</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>R7 4750G (Renoir)@25W v0.3.1 [13]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES ST'!$C$4:$C$21</c:f>
+              <c:f>'PES ST'!$C$4:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>31.1</c:v>
                 </c:pt>
@@ -851,43 +948,58 @@
                   <c:v>51.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.94</c:v>
+                  <c:v>55.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.08</c:v>
+                  <c:v>55.41</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.41</c:v>
+                  <c:v>59.97</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>60.29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.29</c:v>
+                  <c:v>62.61</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>63.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>88.24</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
+                  <c:v>111.79</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>121.52</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>127.76</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>129.46</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>133.62</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>137.88</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
                   <c:v>146.74</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="19">
                   <c:v>153.88</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="20">
                   <c:v>169.55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>173.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1648,119 +1760,149 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption ST'!$B$4:$B$21</c:f>
+              <c:f>'Consumption ST'!$B$4:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</c:v>
+                  <c:v>R9 5900X (Vermeer) v0.3.1 [19]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [4]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</c:v>
+                  <c:v>R9 5950X (Vermeer) [26]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [20]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</c:v>
+                  <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
+                  <c:v>R9 5950X (Vermeer) [21]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</c:v>
+                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</c:v>
+                  <c:v>R9 5950X (Vermeer) [22]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</c:v>
+                  <c:v>R7 3700X (Matisse) v0.3.1 [6]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</c:v>
+                  <c:v>R9 5950X (Vermeer)@-0,1V [25]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
+                  <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
+                  <c:v>i7 1165G7 (TigerLake) [24]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</c:v>
+                  <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</c:v>
+                  <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</c:v>
+                  <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</c:v>
+                  <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Intel i7 1065G (IceLake) v0.3.1 [3]</c:v>
+                  <c:v>R9 5900HS (Cezanne) v0.3.1 [16]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>R7 4700U (Renoir) v0.3.1 [14]</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R7 4750G (Renoir)@25W v0.3.1 [13]</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption ST'!$C$4:$C$21</c:f>
+              <c:f>'Consumption ST'!$C$4:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>45942</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37274</c:v>
+                  <c:v>35920</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35920</c:v>
+                  <c:v>33184.629999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33870</c:v>
+                  <c:v>33002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33002</c:v>
+                  <c:v>32204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32204</c:v>
+                  <c:v>32182</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>32112</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>30783</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>30057</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>28707</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>23918</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>14243</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>11657</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>10450</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>10446</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>10396</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>10364</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>10352</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>10168</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>9839</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9122</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2457,69 +2599,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES MT'!$B$4:$B$21</c:f>
+              <c:f>'PES MT'!$B$4:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
+                  <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</c:v>
+                  <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Intel i7 1065G (IceLake) v0.3.1 [3]</c:v>
+                  <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</c:v>
+                  <c:v>i7 1165G7 (TigerLake) [24]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
+                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</c:v>
+                  <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</c:v>
+                  <c:v>R7 3700X (Matisse) v0.3.1 [6]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
+                  <c:v>R7 4700U (Renoir) v0.3.1 [14]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</c:v>
+                  <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</c:v>
+                  <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</c:v>
+                  <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</c:v>
+                  <c:v>R9 5900HS (Cezanne) v0.3.1 [16]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</c:v>
+                  <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</c:v>
+                  <c:v>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</c:v>
+                  <c:v>R9 5900X (Vermeer) v0.3.1 [19]</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</c:v>
+                  <c:v>R7 4750G (Renoir)@25W v0.3.1 [13]</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [4]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R9 5950X (Vermeer) [22]</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>R9 5950X (Vermeer)@-0,1V [25]</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [20]</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R9 5950X (Vermeer) [21]</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>R9 5950X (Vermeer) [26]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES MT'!$C$4:$C$21</c:f>
+              <c:f>'PES MT'!$C$4:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>262.60000000000002</c:v>
                 </c:pt>
@@ -2530,46 +2687,61 @@
                   <c:v>885.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1314.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1386.39</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1818.77</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2058.48</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2586.7600000000002</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2618.48</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2637.56</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>2787.1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>3498.15</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>3599.63</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>3815.05</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3983</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
+                  <c:v>4670.05</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4779.3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
+                  <c:v>4834.1899999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5167.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>5295.16</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>5578.81</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5760.71</c:v>
+                <c:pt idx="20">
+                  <c:v>5945.36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6103.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,69 +3669,84 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption MT'!$B$4:$B$21</c:f>
+              <c:f>'Consumption MT'!$B$4:$B$26</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
+                  <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</c:v>
+                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</c:v>
+                  <c:v>R7 3700X (Matisse) v0.3.1 [6]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [4]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
+                  <c:v>R9 5950X (Vermeer) [22]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</c:v>
+                  <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.3.1 [20]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</c:v>
+                  <c:v>R9 5900X (Vermeer) v0.3.1 [19]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</c:v>
+                  <c:v>R9 5950X (Vermeer)@-0,1V [25]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</c:v>
+                  <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</c:v>
+                  <c:v>i7 1165G7 (TigerLake) [24]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</c:v>
+                  <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Intel i7 1065G (IceLake) v0.3.1 [3]</c:v>
+                  <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</c:v>
+                  <c:v>R9 5950X (Vermeer) [21]</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>AMD Ryzen 7 4700U (Renoir) [1]</c:v>
+                  <c:v>R9 5950X (Vermeer) [26]</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</c:v>
+                  <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</c:v>
+                  <c:v>R9 5900HS (Cezanne) v0.3.1 [16]</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R7 4700U (Renoir) [1]</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>R7 4700U (Renoir) v0.3.1 [14]</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>R7 4750G (Renoir)@25W v0.3.1 [13]</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption MT'!$C$4:$C$21</c:f>
+              <c:f>'Consumption MT'!$C$4:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>13138</c:v>
                 </c:pt>
@@ -3573,43 +3760,58 @@
                   <c:v>6242</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>5902</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>5785</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>5633</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5607</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>5332</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5262</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
+                  <c:v>5212</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4575</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>4561</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4507</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>4404</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>4356</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4353.5600000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>3912</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>3831</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>2651</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>2649</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
+                  <c:v>2227</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3792,7 +3994,6 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -5986,10 +6187,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>147780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>342000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6029,10 +6230,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>147780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>342000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6072,10 +6273,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>147780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>342000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6115,10 +6316,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>335280</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>147780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>342000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6149,19 +6350,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44373.504113078707" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="20" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44374.410342592593" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="26" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
   <cacheSource type="worksheet">
     <worksheetSource name="GeneralTable"/>
   </cacheSource>
-  <cacheFields count="17">
+  <cacheFields count="19">
     <cacheField name="Ref-No." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="26"/>
     </cacheField>
     <cacheField name="Version" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Post-No" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="70"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="96"/>
     </cacheField>
     <cacheField name="CPU" numFmtId="0">
       <sharedItems/>
@@ -6172,6 +6373,9 @@
     <cacheField name="Remark" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
+    <cacheField name="Chart-Remark" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
     <cacheField name="Exclude From Chart" numFmtId="0">
       <sharedItems containsBlank="1" count="2">
         <m/>
@@ -6179,22 +6383,22 @@
       </sharedItems>
     </cacheField>
     <cacheField name="PES ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="31.1" maxValue="173.7"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.28" maxValue="173.7"/>
     </cacheField>
     <cacheField name="Cons. ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6239" maxValue="45942"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6239" maxValue="57948"/>
     </cacheField>
     <cacheField name="Dur. ST" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="16.03" maxValue="1433.91"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="16.03" maxValue="1678.77"/>
     </cacheField>
     <cacheField name="Avg. Pwr. ST" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.3499999999999996" maxValue="87.69"/>
     </cacheField>
     <cacheField name="PES MT" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="262.60000000000002" maxValue="5760.71"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="240.62" maxValue="6103.75"/>
     </cacheField>
     <cacheField name="Cons. MT" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1738" maxValue="13138"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1738" maxValue="20261"/>
     </cacheField>
     <cacheField name="Dur. MT" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="33.520000000000003" maxValue="332.85"/>
@@ -6203,30 +6407,59 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="11.52" maxValue="186.22"/>
     </cacheField>
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="20">
-        <s v="AMD Ryzen 7 4700U (Renoir) [1]"/>
-        <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]"/>
-        <s v="Intel i7 1065G (IceLake) v0.3.1 [3]"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]"/>
-        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]"/>
-        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]"/>
-        <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]"/>
-        <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]"/>
-        <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]"/>
-        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]"/>
-        <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]"/>
-        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]"/>
-        <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]"/>
-        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]"/>
-        <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]"/>
-        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]"/>
+      <sharedItems count="46">
+        <s v="R7 4700U (Renoir) [1]"/>
+        <s v="R5 3600 (Matisse) v0.3.1 [2]"/>
+        <s v="i7 1065G (IceLake) v0.3.1 [3]"/>
+        <s v="R9 5950X (Vermeer) v0.3.1 [4]"/>
+        <s v="R7 4750G (Renoir) v0.3.1 [5]"/>
+        <s v="R7 3700X (Matisse) v0.3.1 [6]"/>
+        <s v="R7 4750U (Renoir) v0.3.1 [7]"/>
+        <s v="R9 5950X (Vermeer) v0.3.1 [8]"/>
+        <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]"/>
+        <s v="R9 5900HS (Cezanne) v0.3.1 [10]"/>
+        <s v="i5 8365U (WhiskeyLake) v0.3.1 [11]"/>
+        <s v="R5 PRO 4650G (Renoir) v0.3.1 [12]"/>
+        <s v="R7 4750G (Renoir)@25W v0.3.1 [13]"/>
+        <s v="R7 4700U (Renoir) v0.3.1 [14]"/>
+        <s v="R9 5950X (Vermeer) v0.3.1 [15]"/>
+        <s v="R9 5900HS (Cezanne) v0.3.1 [16]"/>
+        <s v="R3 1200 (Summit Ridge) v0.3.1 [17]"/>
+        <s v="R7 3700X (Matisse) v0.3.1 [18]"/>
+        <s v="R9 5900X (Vermeer) v0.3.1 [19]"/>
+        <s v="R9 5950X (Vermeer) v0.3.1 [20]"/>
+        <s v="R9 5950X (Vermeer) [21]"/>
+        <s v="R9 5950X (Vermeer) [22]"/>
+        <s v="??? v0.3.1 [23]"/>
+        <s v="i7 1165G7 (TigerLake) [24]"/>
+        <s v="R9 5950X (Vermeer)@-0,1V [25]"/>
+        <s v="R9 5950X (Vermeer) [26]"/>
+        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]" u="1"/>
+        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]" u="1"/>
+        <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]" u="1"/>
+        <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]" u="1"/>
+        <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]" u="1"/>
+        <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]" u="1"/>
+        <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]" u="1"/>
+        <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]" u="1"/>
+        <s v="Intel i7 1065G (IceLake) v0.3.1 [3]" u="1"/>
+        <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]" u="1"/>
+        <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]" u="1"/>
+        <s v="AMD Ryzen 7 4700U (Renoir) [1]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]" u="1"/>
+        <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]" u="1"/>
+        <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]" u="1"/>
+        <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="BB-Code" numFmtId="0">
+    <cacheField name="BB-Code Single-Thread" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="BB-Code Multi-Thread" numFmtId="0">
       <sharedItems/>
     </cacheField>
   </cacheFields>
@@ -6239,14 +6472,15 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
   <r>
     <n v="1"/>
     <s v="v0.5.0"/>
     <n v="3"/>
-    <s v="AMD Ryzen 7 4700U (Renoir)"/>
+    <s v="R7 4700U (Renoir)"/>
     <s v="CrazyIvan"/>
     <s v="Batt. / Win: Better Eff. / HP: Recmd."/>
+    <m/>
     <x v="0"/>
     <n v="129.46"/>
     <n v="10446"/>
@@ -6257,14 +6491,16 @@
     <n v="144.08000000000001"/>
     <n v="18.399999999999999"/>
     <x v="0"/>
-    <s v="1|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|3"/>
+    <s v="1|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|129,46|10446|739,49|14,13"/>
+    <s v="1|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|2618,48|2651|144,08|18,4"/>
   </r>
   <r>
     <n v="2"/>
     <s v="v0.3.1"/>
     <n v="6"/>
-    <s v="AMD Ryzen 5 3600 (Matisse)"/>
+    <s v="R5 3600 (Matisse)"/>
     <s v="Lyka"/>
+    <m/>
     <m/>
     <x v="0"/>
     <n v="45.76"/>
@@ -6276,14 +6512,16 @@
     <m/>
     <m/>
     <x v="1"/>
-    <s v="2|AMD Ryzen 5 3600 (Matisse)|Lyka||6"/>
+    <s v="2|6|R5 3600 (Matisse)|Lyka||v0.3.1|45,76|32112||"/>
+    <s v="2|6|R5 3600 (Matisse)|Lyka||v0.3.1|1386,39|7223||"/>
   </r>
   <r>
     <n v="3"/>
     <s v="v0.3.1"/>
     <n v="7"/>
-    <s v="Intel i7 1065G (IceLake)"/>
+    <s v="i7 1065G (IceLake)"/>
     <s v="Naitsabes"/>
+    <m/>
     <m/>
     <x v="0"/>
     <n v="127.76"/>
@@ -6295,14 +6533,16 @@
     <m/>
     <m/>
     <x v="2"/>
-    <s v="3|Intel i7 1065G (IceLake)|Naitsabes||7"/>
+    <s v="3|7|i7 1065G (IceLake)|Naitsabes||v0.3.1|127,76|9839||"/>
+    <s v="3|7|i7 1065G (IceLake)|Naitsabes||v0.3.1|885,22|3912||"/>
   </r>
   <r>
     <n v="4"/>
     <s v="v0.3.1"/>
     <n v="14"/>
-    <s v="AMD Ryzen 9 5950X (Vermeer)"/>
+    <s v="R9 5950X (Vermeer)"/>
     <s v="dosenfisch24"/>
+    <m/>
     <m/>
     <x v="0"/>
     <n v="55.41"/>
@@ -6314,14 +6554,16 @@
     <n v="33.520000000000003"/>
     <n v="186.22"/>
     <x v="3"/>
-    <s v="4|AMD Ryzen 9 5950X (Vermeer)|dosenfisch24||14"/>
+    <s v="4|14|R9 5950X (Vermeer)|dosenfisch24||v0.3.1|55,41|35920|502,43|71,49"/>
+    <s v="4|14|R9 5950X (Vermeer)|dosenfisch24||v0.3.1|4779,3|6242|33,52|186,22"/>
   </r>
   <r>
     <n v="5"/>
     <s v="v0.3.1"/>
     <n v="18"/>
-    <s v="AMD Ryzen 7 4750G (Renoir)"/>
+    <s v="R7 4750G (Renoir)"/>
     <s v="Poekel"/>
+    <m/>
     <m/>
     <x v="0"/>
     <n v="153.88"/>
@@ -6333,15 +6575,17 @@
     <m/>
     <m/>
     <x v="4"/>
-    <s v="5|AMD Ryzen 7 4750G (Renoir)|Poekel||18"/>
+    <s v="5|18|R7 4750G (Renoir)|Poekel||v0.3.1|153,88|10352||"/>
+    <s v="5|18|R7 4750G (Renoir)|Poekel||v0.3.1|2637,56|5262||"/>
   </r>
   <r>
     <n v="6"/>
     <s v="v0.3.1"/>
     <n v="27"/>
-    <s v="AMD Ryzen 7 3700X (Matisse)"/>
+    <s v="R7 3700X (Matisse)"/>
     <s v="Tigershark"/>
     <s v="PBO on"/>
+    <m/>
     <x v="0"/>
     <n v="51.8"/>
     <n v="30057"/>
@@ -6352,14 +6596,16 @@
     <m/>
     <m/>
     <x v="5"/>
-    <s v="6|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO on|27"/>
+    <s v="6|27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|51,8|30057||"/>
+    <s v="6|27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|2058,48|6377||"/>
   </r>
   <r>
     <n v="7"/>
     <s v="v0.3.1"/>
     <n v="29"/>
-    <s v="AMD Ryzen 7 4750U (Renoir)"/>
+    <s v="R7 4750U (Renoir)"/>
     <s v="dosenfisch24"/>
+    <m/>
     <m/>
     <x v="0"/>
     <n v="137.88"/>
@@ -6371,16 +6617,18 @@
     <m/>
     <m/>
     <x v="6"/>
-    <s v="7|AMD Ryzen 7 4750U (Renoir)|dosenfisch24||29"/>
+    <s v="7|29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|137,88|10396||"/>
+    <s v="7|29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|3599,63|2029||"/>
   </r>
   <r>
     <n v="8"/>
     <s v="v0.3.1"/>
     <n v="32"/>
-    <s v="AMD Ryzen 9 5950X (Vermeer)"/>
+    <s v="R9 5950X (Vermeer)"/>
     <s v="Sweepi"/>
     <m/>
-    <x v="0"/>
+    <m/>
+    <x v="1"/>
     <n v="52.94"/>
     <n v="37274"/>
     <m/>
@@ -6390,16 +6638,18 @@
     <m/>
     <m/>
     <x v="7"/>
-    <s v="8|AMD Ryzen 9 5950X (Vermeer)|Sweepi||32"/>
+    <s v="8|32|R9 5950X (Vermeer)|Sweepi||v0.3.1|52,94|37274||"/>
+    <s v="8|32|R9 5950X (Vermeer)|Sweepi||v0.3.1|5760,71|4507||"/>
   </r>
   <r>
     <n v="9"/>
     <s v="v0.3.1"/>
     <n v="42"/>
-    <s v="AMD Ryzen 9 5900HS (Cezanne)"/>
+    <s v="R9 5900HS (Cezanne)"/>
     <s v="Monkey"/>
     <s v="Win: Energy Saving"/>
-    <x v="1"/>
+    <s v="@ESM"/>
+    <x v="0"/>
     <n v="111.79"/>
     <n v="6239"/>
     <n v="1433.91"/>
@@ -6409,14 +6659,16 @@
     <n v="150.85"/>
     <n v="11.52"/>
     <x v="8"/>
-    <s v="9|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Energy Saving|42"/>
+    <s v="9|42|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|111,79|6239|1433,91|4,35"/>
+    <s v="9|42|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|3815,05|1738|150,85|11,52"/>
   </r>
   <r>
     <n v="10"/>
     <s v="v0.3.1"/>
     <n v="44"/>
-    <s v="AMD Ryzen 9 5900HS (Cezanne)"/>
+    <s v="R9 5900HS (Cezanne)"/>
     <s v="Monkey"/>
+    <m/>
     <m/>
     <x v="1"/>
     <n v="165.09"/>
@@ -6428,14 +6680,16 @@
     <n v="70.3"/>
     <n v="58.11"/>
     <x v="9"/>
-    <s v="10|AMD Ryzen 9 5900HS (Cezanne)|Monkey||44"/>
+    <s v="10|44|R9 5900HS (Cezanne)|Monkey||v0.3.1|165,09|10936|553,86|19,75"/>
+    <s v="10|44|R9 5900HS (Cezanne)|Monkey||v0.3.1|3481,64|4085|70,3|58,11"/>
   </r>
   <r>
     <n v="11"/>
     <s v="v0.3.1"/>
     <n v="54"/>
-    <s v="Intel Core i5-8365U (WhiskeyLake)"/>
+    <s v="i5 8365U (WhiskeyLake)"/>
     <s v="MD_Enigma"/>
+    <m/>
     <m/>
     <x v="0"/>
     <n v="88.24"/>
@@ -6447,14 +6701,16 @@
     <n v="332.85"/>
     <n v="13.75"/>
     <x v="10"/>
-    <s v="11|Intel Core i5-8365U (WhiskeyLake)|MD_Enigma||54"/>
+    <s v="11|54|i5 8365U (WhiskeyLake)|MD_Enigma||v0.3.1|88,24|11657|972,15|11,99"/>
+    <s v="11|54|i5 8365U (WhiskeyLake)|MD_Enigma||v0.3.1|656,66|4575|332,85|13,75"/>
   </r>
   <r>
     <n v="12"/>
     <s v="v0.3.1"/>
     <n v="69"/>
-    <s v="AMD Ryzen 5 PRO 4650G (Renoir)"/>
+    <s v="R5 PRO 4650G (Renoir)"/>
     <s v="Tigershark"/>
+    <m/>
     <m/>
     <x v="0"/>
     <n v="146.74"/>
@@ -6466,16 +6722,18 @@
     <n v="95.05"/>
     <n v="60.86"/>
     <x v="11"/>
-    <s v="12|AMD Ryzen 5 PRO 4650G (Renoir)|Tigershark||69"/>
+    <s v="12|69|R5 PRO 4650G (Renoir)|Tigershark||v0.3.1|146,74|10450|16,03|16,03"/>
+    <s v="12|69|R5 PRO 4650G (Renoir)|Tigershark||v0.3.1|1818,77|5785|95,05|60,86"/>
   </r>
   <r>
     <n v="13"/>
     <s v="v0.3.1"/>
     <n v="47"/>
-    <s v="AMD Ryzen 7 4750G (Renoir)"/>
+    <s v="R7 4750G (Renoir)"/>
     <s v="Poekel"/>
     <s v="25W"/>
-    <x v="1"/>
+    <s v="@25W"/>
+    <x v="0"/>
     <n v="173.7"/>
     <n v="9122"/>
     <n v="631.12"/>
@@ -6485,15 +6743,17 @@
     <n v="96.17"/>
     <n v="23.15"/>
     <x v="12"/>
-    <s v="13|AMD Ryzen 7 4750G (Renoir)|Poekel|25W|47"/>
+    <s v="13|47|R7 4750G (Renoir)|Poekel|25W|v0.3.1|173,7|9122|631,12|14,45"/>
+    <s v="13|47|R7 4750G (Renoir)|Poekel|25W|v0.3.1|4670,05|2227|96,17|23,15"/>
   </r>
   <r>
     <n v="14"/>
     <s v="v0.3.1"/>
     <n v="3"/>
-    <s v="AMD Ryzen 7 4700U (Renoir)"/>
+    <s v="R7 4700U (Renoir)"/>
     <s v="CrazyIvan"/>
     <s v="Batt. / Win: Better Eff. / HP: Recmd."/>
+    <m/>
     <x v="0"/>
     <n v="133.62"/>
     <n v="10168"/>
@@ -6504,16 +6764,18 @@
     <m/>
     <m/>
     <x v="13"/>
-    <s v="14|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|3"/>
+    <s v="14|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|133,62|10168||"/>
+    <s v="14|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|2586,76|2649||"/>
   </r>
   <r>
     <n v="15"/>
     <s v="v0.3.1"/>
     <n v="38"/>
-    <s v="AMD Ryzen 9 5950X (Vermeer)"/>
+    <s v="R9 5950X (Vermeer)"/>
     <s v="Sweepi"/>
     <m/>
-    <x v="0"/>
+    <m/>
+    <x v="1"/>
     <n v="59"/>
     <n v="33870"/>
     <n v="500.42"/>
@@ -6523,15 +6785,17 @@
     <n v="39.299999999999997"/>
     <n v="116.04"/>
     <x v="14"/>
-    <s v="15|AMD Ryzen 9 5950X (Vermeer)|Sweepi||38"/>
+    <s v="15|38|R9 5950X (Vermeer)|Sweepi||v0.3.1|59|33870|500,42|67,68"/>
+    <s v="15|38|R9 5950X (Vermeer)|Sweepi||v0.3.1|5578,81|4561|39,3|116,04"/>
   </r>
   <r>
     <n v="16"/>
     <s v="v0.3.1"/>
     <n v="65"/>
-    <s v="AMD Ryzen 9 5900HS (Cezanne)"/>
+    <s v="R9 5900HS (Cezanne)"/>
     <s v="Monkey"/>
     <s v="Win: Best Perf."/>
+    <m/>
     <x v="0"/>
     <n v="169.55"/>
     <n v="10364"/>
@@ -6542,14 +6806,16 @@
     <n v="74.63"/>
     <n v="51.33"/>
     <x v="15"/>
-    <s v="16|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Best Perf.|65"/>
+    <s v="16|65|R9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|169,55|10364|569,12|18,21"/>
+    <s v="16|65|R9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|3498,15|3831|74,63|51,33"/>
   </r>
   <r>
     <n v="17"/>
     <s v="v0.3.1"/>
     <n v="64"/>
-    <s v="AMD Ryzen 3 1200 (Summit Ridge)"/>
+    <s v="R3 1200 (Summit Ridge)"/>
     <s v="BlackArchon"/>
+    <m/>
     <m/>
     <x v="0"/>
     <n v="31.1"/>
@@ -6561,15 +6827,17 @@
     <n v="289.86"/>
     <n v="45.32"/>
     <x v="16"/>
-    <s v="17|AMD Ryzen 3 1200 (Summit Ridge)|BlackArchon||64"/>
+    <s v="17|64|R3 1200 (Summit Ridge)|BlackArchon||v0.3.1|31,1|32204|998,38|32,26"/>
+    <s v="17|64|R3 1200 (Summit Ridge)|BlackArchon||v0.3.1|262,6|13138|289,86|45,32"/>
   </r>
   <r>
     <n v="18"/>
     <s v="v0.3.1"/>
     <n v="67"/>
-    <s v="AMD Ryzen 7 3700X (Matisse)"/>
+    <s v="R7 3700X (Matisse)"/>
     <s v="Tigershark"/>
     <s v="PBO off"/>
+    <m/>
     <x v="0"/>
     <n v="55.08"/>
     <n v="23918"/>
@@ -6580,14 +6848,16 @@
     <n v="81.48"/>
     <n v="54.05"/>
     <x v="17"/>
-    <s v="18|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO off|67"/>
+    <s v="18|67|R7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|55,08|23918|759,07|31,51"/>
+    <s v="18|67|R7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|2787,1|4404|81,48|54,05"/>
   </r>
   <r>
     <n v="19"/>
     <s v="v0.3.1"/>
     <n v="68"/>
-    <s v="AMD Ryzen 9 5900X (Vermeer)"/>
+    <s v="R9 5900X (Vermeer)"/>
     <s v="Krischi"/>
+    <m/>
     <m/>
     <x v="0"/>
     <n v="41.55"/>
@@ -6599,15 +6869,17 @@
     <n v="44.78"/>
     <n v="125.22"/>
     <x v="18"/>
-    <s v="19|AMD Ryzen 9 5900X (Vermeer)|Krischi||68"/>
+    <s v="19|68|R9 5900X (Vermeer)|Krischi||v0.3.1|41,55|45942|523,91|87,69"/>
+    <s v="19|68|R9 5900X (Vermeer)|Krischi||v0.3.1|3983|5607|44,78|125,22"/>
   </r>
   <r>
     <n v="20"/>
     <s v="v0.3.1"/>
     <n v="70"/>
-    <s v="AMD Ryzen 9 5950X (Vermeer)"/>
+    <s v="R9 5950X (Vermeer)"/>
     <s v="LeiwandEr"/>
     <s v="manual Curve Optimization"/>
+    <m/>
     <x v="0"/>
     <n v="60.29"/>
     <n v="33002"/>
@@ -6618,15 +6890,143 @@
     <n v="33.520000000000003"/>
     <n v="168.04"/>
     <x v="19"/>
-    <s v="20|AMD Ryzen 9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|70"/>
+    <s v="20|70|R9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|60,29|33002|502,56|65,67"/>
+    <s v="20|70|R9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|5295,16|5633|33,52|168,04"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <s v="v0.5.0"/>
+    <n v="88"/>
+    <s v="R9 5950X (Vermeer)"/>
+    <s v="Lowkey"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="62.61"/>
+    <n v="32182"/>
+    <n v="496.32"/>
+    <n v="64.84"/>
+    <n v="5945.36"/>
+    <n v="4356"/>
+    <n v="38.61"/>
+    <n v="112.84"/>
+    <x v="20"/>
+    <s v="21|88|R9 5950X (Vermeer)|Lowkey||v0.5.0|62,61|32182|496,32|64,84"/>
+    <s v="21|88|R9 5950X (Vermeer)|Lowkey||v0.5.0|5945,36|4356|38,61|112,84"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <s v="v0.5.0"/>
+    <n v="90"/>
+    <s v="R9 5950X (Vermeer)"/>
+    <s v="misterh"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="63.92"/>
+    <n v="30783"/>
+    <n v="508.2"/>
+    <n v="60.57"/>
+    <n v="4834.1899999999996"/>
+    <n v="5902"/>
+    <n v="35.049999999999997"/>
+    <n v="168.38"/>
+    <x v="21"/>
+    <s v="22|90|R9 5950X (Vermeer)|misterh||v0.5.0|63,92|30783|508,2|60,57"/>
+    <s v="22|90|R9 5950X (Vermeer)|misterh||v0.5.0|4834,19|5902|35,05|168,38"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <s v="v0.3.1"/>
+    <n v="91"/>
+    <s v="???"/>
+    <s v="Platos"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="10.28"/>
+    <n v="57948"/>
+    <n v="1678.77"/>
+    <n v="34.520000000000003"/>
+    <n v="240.62"/>
+    <n v="20261"/>
+    <n v="205.12"/>
+    <n v="98.78"/>
+    <x v="22"/>
+    <s v="23|91|???|Platos||v0.3.1|10,28|57948|1678,77|34,52"/>
+    <s v="23|91|???|Platos||v0.3.1|240,62|20261|205,12|98,78"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <s v="v0.5.0"/>
+    <n v="94"/>
+    <s v="i7 1165G7 (TigerLake)"/>
+    <s v="misterh"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="121.52"/>
+    <n v="14243"/>
+    <n v="577.78"/>
+    <n v="24.65"/>
+    <n v="1314.72"/>
+    <n v="5212"/>
+    <n v="145.93"/>
+    <n v="35.72"/>
+    <x v="23"/>
+    <s v="24|94|i7 1165G7 (TigerLake)|misterh||v0.5.0|121,52|14243|577,78|24,65"/>
+    <s v="24|94|i7 1165G7 (TigerLake)|misterh||v0.5.0|1314,72|5212|145,93|35,72"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <s v="v0.5.0"/>
+    <n v="94"/>
+    <s v="R9 5950X (Vermeer)"/>
+    <s v="misterh"/>
+    <s v="-0,1V Curve Optimization"/>
+    <s v="@-0,1V"/>
+    <x v="0"/>
+    <n v="63.04"/>
+    <n v="28707"/>
+    <n v="552.55999999999995"/>
+    <n v="51.95"/>
+    <n v="5167.0600000000004"/>
+    <n v="5332"/>
+    <n v="36.299999999999997"/>
+    <n v="146.87"/>
+    <x v="24"/>
+    <s v="25|94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|63,04|28707|552,56|51,95"/>
+    <s v="25|94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|5167,06|5332|36,3|146,87"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <s v="v0.5.0"/>
+    <n v="96"/>
+    <s v="R9 5950X (Vermeer)"/>
+    <s v="Sweepi"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="59.97"/>
+    <n v="33184.629999999997"/>
+    <n v="502.51"/>
+    <n v="66.040000000000006"/>
+    <n v="6103.75"/>
+    <n v="4353.5600000000004"/>
+    <n v="37.630000000000003"/>
+    <n v="115.69"/>
+    <x v="25"/>
+    <s v="26|96|R9 5950X (Vermeer)|Sweepi||v0.5.0|59,97|33184,63|502,51|66,04"/>
+    <s v="26|96|R9 5950X (Vermeer)|Sweepi||v0.5.0|6103,75|4353,56|37,63|115,69"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
-  <location ref="B3:C21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+  <location ref="B3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6649,7 +7049,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="21">
+      <items count="47">
+        <item m="1" x="41"/>
+        <item m="1" x="35"/>
+        <item m="1" x="38"/>
+        <item m="1" x="45"/>
+        <item m="1" x="43"/>
+        <item m="1" x="26"/>
+        <item m="1" x="32"/>
+        <item m="1" x="27"/>
+        <item m="1" x="33"/>
+        <item m="1" x="31"/>
+        <item m="1" x="44"/>
+        <item m="1" x="34"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="42"/>
+        <item m="1" x="40"/>
+        <item m="1" x="39"/>
+        <item m="1" x="30"/>
+        <item m="1" x="37"/>
+        <item m="1" x="36"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6670,6 +7090,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6683,61 +7109,77 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="15"/>
+    <field x="16"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="23">
     <i>
-      <x v="16"/>
+      <x v="36"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="38"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="21"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="25"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="23"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="45"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="39"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="40"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="44"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="41"/>
     </i>
     <i>
-      <x/>
+      <x v="30"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="28"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="43"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="22"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="32"/>
     </i>
     <i t="grand">
       <x/>
@@ -6747,10 +7189,10 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="1" hier="-1"/>
+    <pageField fld="7" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Summe von PES ST" fld="7" baseField="0" baseItem="3" numFmtId="4"/>
+    <dataField name="Summe von PES ST" fld="8" baseField="0" baseItem="3" numFmtId="4"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="2" format="3" series="1">
@@ -6776,9 +7218,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="B3:C21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+  <location ref="B3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6801,7 +7244,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="21">
+      <items count="47">
+        <item m="1" x="41"/>
+        <item m="1" x="35"/>
+        <item m="1" x="38"/>
+        <item m="1" x="45"/>
+        <item m="1" x="43"/>
+        <item m="1" x="26"/>
+        <item m="1" x="32"/>
+        <item m="1" x="27"/>
+        <item m="1" x="33"/>
+        <item m="1" x="31"/>
+        <item m="1" x="44"/>
+        <item m="1" x="34"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="42"/>
+        <item m="1" x="40"/>
+        <item m="1" x="39"/>
+        <item m="1" x="30"/>
+        <item m="1" x="37"/>
+        <item m="1" x="36"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6822,6 +7285,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6835,61 +7304,77 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="15"/>
+    <field x="16"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="23">
     <i>
-      <x v="18"/>
+      <x v="38"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="23"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="45"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="39"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="36"/>
     </i>
     <i>
-      <x v="16"/>
+      <x v="40"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="21"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="41"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="25"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="44"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="37"/>
     </i>
     <i>
-      <x/>
+      <x v="43"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="30"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="31"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="26"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="28"/>
     </i>
     <i t="grand">
       <x/>
@@ -6899,10 +7384,10 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="1" hier="-1"/>
+    <pageField fld="7" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Summe von Cons. ST" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Summe von Cons. ST" fld="9" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="3" format="6" series="1">
@@ -6928,9 +7413,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="B3:C21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="B3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6953,7 +7439,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="21">
+      <items count="47">
+        <item m="1" x="41"/>
+        <item m="1" x="35"/>
+        <item m="1" x="38"/>
+        <item m="1" x="45"/>
+        <item m="1" x="43"/>
+        <item m="1" x="26"/>
+        <item m="1" x="32"/>
+        <item m="1" x="27"/>
+        <item m="1" x="33"/>
+        <item m="1" x="31"/>
+        <item m="1" x="44"/>
+        <item m="1" x="34"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="42"/>
+        <item m="1" x="40"/>
+        <item m="1" x="39"/>
+        <item m="1" x="30"/>
+        <item m="1" x="37"/>
+        <item m="1" x="36"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -6974,6 +7480,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -6987,61 +7499,77 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="15"/>
+    <field x="16"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="23">
     <i>
-      <x v="16"/>
+      <x v="36"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="30"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="22"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="43"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="21"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="31"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="25"/>
     </i>
     <i>
-      <x/>
+      <x v="33"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="24"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="35"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="26"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="28"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="38"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="32"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="45"/>
     </i>
     <i t="grand">
       <x/>
@@ -7051,10 +7579,10 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="1" hier="-1"/>
+    <pageField fld="7" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Summe von PES MT" fld="11" baseField="0" baseItem="1" numFmtId="4"/>
+    <dataField name="Summe von PES MT" fld="12" baseField="0" baseItem="1" numFmtId="4"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="3" format="5" series="1">
@@ -7080,9 +7608,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="50" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="B3:C21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="17">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="B3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7105,7 +7634,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="21">
+      <items count="47">
+        <item m="1" x="41"/>
+        <item m="1" x="35"/>
+        <item m="1" x="38"/>
+        <item m="1" x="45"/>
+        <item m="1" x="43"/>
+        <item m="1" x="26"/>
+        <item m="1" x="32"/>
+        <item m="1" x="27"/>
+        <item m="1" x="33"/>
+        <item m="1" x="31"/>
+        <item m="1" x="44"/>
+        <item m="1" x="34"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="42"/>
+        <item m="1" x="40"/>
+        <item m="1" x="39"/>
+        <item m="1" x="30"/>
+        <item m="1" x="37"/>
+        <item m="1" x="36"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -7126,6 +7675,12 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -7139,61 +7694,77 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="15"/>
+    <field x="16"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="23">
     <i>
-      <x v="16"/>
+      <x v="36"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="21"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="25"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="23"/>
     </i>
     <i>
-      <x v="11"/>
+      <x v="41"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="31"/>
     </i>
     <i>
-      <x v="18"/>
+      <x v="39"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="38"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="44"/>
     </i>
     <i>
-      <x v="14"/>
+      <x v="24"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="43"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="30"/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="37"/>
     </i>
     <i>
-      <x v="15"/>
+      <x v="40"/>
     </i>
     <i>
-      <x/>
+      <x v="45"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="22"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="28"/>
     </i>
     <i t="grand">
       <x/>
@@ -7203,10 +7774,10 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="6" item="1" hier="-1"/>
+    <pageField fld="7" item="1" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Summe von Cons. MT" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Summe von Cons. MT" fld="13" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="4" format="9" series="1">
@@ -7232,15 +7803,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B3:S23" totalsRowShown="0">
-  <autoFilter ref="B3:S23" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
-  <tableColumns count="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B3:T29" totalsRowShown="0">
+  <autoFilter ref="B3:T29" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+  <tableColumns count="19">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref-No."/>
     <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Version" dataCellStyle="Eingabe"/>
     <tableColumn id="1" xr3:uid="{4EB90E3D-8138-420D-9685-23ED5E0CD304}" name="Post-No" dataCellStyle="Eingabe"/>
     <tableColumn id="2" xr3:uid="{92C57538-460C-4E03-9CB9-83B07236AA32}" name="CPU" dataCellStyle="Eingabe"/>
     <tableColumn id="3" xr3:uid="{F26113B1-1044-4D8E-AAF2-786269A14A78}" name="User" dataCellStyle="Eingabe"/>
-    <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Remark" dataDxfId="4" dataCellStyle="Eingabe"/>
+    <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Remark" dataDxfId="3" dataCellStyle="Eingabe"/>
+    <tableColumn id="19" xr3:uid="{94C794A9-6812-467E-9A80-159F40002F47}" name="Chart-Remark" dataDxfId="1" dataCellStyle="Eingabe"/>
     <tableColumn id="17" xr3:uid="{4676CE90-8D18-4367-92DF-8446949D7324}" name="Exclude From Chart" dataDxfId="2" dataCellStyle="Eingabe"/>
     <tableColumn id="4" xr3:uid="{DC9686E4-85C0-47F0-8897-2265DDE0051D}" name="PES ST" dataCellStyle="Eingabe"/>
     <tableColumn id="6" xr3:uid="{374DB514-59D1-4DD5-9B7D-7CBBDA45F154}" name="Cons. ST" dataCellStyle="Eingabe"/>
@@ -7250,13 +7822,13 @@
     <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Cons. MT" dataCellStyle="Eingabe"/>
     <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataCellStyle="Eingabe"/>
     <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataCellStyle="Eingabe"/>
-    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="3">
-      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="0" dataCellStyle="Standard">
+      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="BB-Code Multi-Thread" dataDxfId="0" dataCellStyle="Eingabe">
+    <tableColumn id="18" xr3:uid="{2DDA031F-8F7E-48A0-98C8-72FBF60A28CF}" name="BB-Code Multi-Thread" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7527,10 +8099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S23"/>
+  <dimension ref="B1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7541,38 +8113,39 @@
     <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" customWidth="1"/>
-    <col min="19" max="19" width="28.109375" customWidth="1"/>
-    <col min="20" max="20" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" customWidth="1"/>
+    <col min="20" max="20" width="28.109375" customWidth="1"/>
+    <col min="21" max="21" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -7584,1318 +8157,1710 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" t="s">
-        <v>66</v>
-      </c>
       <c r="O3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="S3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4">
+        <v>129.46</v>
+      </c>
+      <c r="K4" s="4">
+        <v>10446</v>
+      </c>
+      <c r="L4" s="4">
+        <v>739.49</v>
+      </c>
+      <c r="M4" s="4">
+        <v>14.13</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2618.48</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2651</v>
+      </c>
+      <c r="P4" s="4">
+        <v>144.08000000000001</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="R4" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 4700U (Renoir) [1]</v>
+      </c>
+      <c r="S4" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>1|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|129,46|10446|739,49|14,13</v>
+      </c>
+      <c r="T4" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>1|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|2618,48|2651|144,08|18,4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4">
+        <v>45.76</v>
+      </c>
+      <c r="K5" s="4">
+        <v>32112</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>1386.39</v>
+      </c>
+      <c r="O5" s="4">
+        <v>7223</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R5 3600 (Matisse) v0.3.1 [2]</v>
+      </c>
+      <c r="S5" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>2|6|R5 3600 (Matisse)|Lyka||v0.3.1|45,76|32112||</v>
+      </c>
+      <c r="T5" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>2|6|R5 3600 (Matisse)|Lyka||v0.3.1|1386,39|7223||</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4">
+        <v>127.76</v>
+      </c>
+      <c r="K6" s="4">
+        <v>9839</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4">
+        <v>885.22</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3912</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 1065G (IceLake) v0.3.1 [3]</v>
+      </c>
+      <c r="S6" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>3|7|i7 1065G (IceLake)|Naitsabes||v0.3.1|127,76|9839||</v>
+      </c>
+      <c r="T6" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>3|7|i7 1065G (IceLake)|Naitsabes||v0.3.1|885,22|3912||</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4">
+        <v>55.41</v>
+      </c>
+      <c r="K7" s="4">
+        <v>35920</v>
+      </c>
+      <c r="L7" s="4">
+        <v>502.43</v>
+      </c>
+      <c r="M7" s="4">
+        <v>71.489999999999995</v>
+      </c>
+      <c r="N7" s="4">
+        <v>4779.3</v>
+      </c>
+      <c r="O7" s="4">
+        <v>6242</v>
+      </c>
+      <c r="P7" s="4">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>186.22</v>
+      </c>
+      <c r="R7" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.3.1 [4]</v>
+      </c>
+      <c r="S7" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>4|14|R9 5950X (Vermeer)|dosenfisch24||v0.3.1|55,41|35920|502,43|71,49</v>
+      </c>
+      <c r="T7" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>4|14|R9 5950X (Vermeer)|dosenfisch24||v0.3.1|4779,3|6242|33,52|186,22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4">
+        <v>153.88</v>
+      </c>
+      <c r="K8" s="4">
+        <v>10352</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4">
+        <v>2637.56</v>
+      </c>
+      <c r="O8" s="4">
+        <v>5262</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 4750G (Renoir) v0.3.1 [5]</v>
+      </c>
+      <c r="S8" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>5|18|R7 4750G (Renoir)|Poekel||v0.3.1|153,88|10352||</v>
+      </c>
+      <c r="T8" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>5|18|R7 4750G (Renoir)|Poekel||v0.3.1|2637,56|5262||</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4">
+        <v>51.8</v>
+      </c>
+      <c r="K9" s="4">
+        <v>30057</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4">
+        <v>2058.48</v>
+      </c>
+      <c r="O9" s="4">
+        <v>6377</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) v0.3.1 [6]</v>
+      </c>
+      <c r="S9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>6|27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|51,8|30057||</v>
+      </c>
+      <c r="T9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>6|27|R7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|2058,48|6377||</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4">
+        <v>137.88</v>
+      </c>
+      <c r="K10" s="4">
+        <v>10396</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4">
+        <v>3599.63</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2029</v>
+      </c>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 4750U (Renoir) v0.3.1 [7]</v>
+      </c>
+      <c r="S10" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>7|29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|137,88|10396||</v>
+      </c>
+      <c r="T10" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>7|29|R7 4750U (Renoir)|dosenfisch24||v0.3.1|3599,63|2029||</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="4">
+        <v>52.94</v>
+      </c>
+      <c r="K11" s="4">
+        <v>37274</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4">
+        <v>5760.71</v>
+      </c>
+      <c r="O11" s="4">
+        <v>4507</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.3.1 [8]</v>
+      </c>
+      <c r="S11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>8|32|R9 5950X (Vermeer)|Sweepi||v0.3.1|52,94|37274||</v>
+      </c>
+      <c r="T11" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>8|32|R9 5950X (Vermeer)|Sweepi||v0.3.1|5760,71|4507||</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4">
+        <v>42</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="4">
+        <v>111.79</v>
+      </c>
+      <c r="K12" s="4">
+        <v>6239</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1433.91</v>
+      </c>
+      <c r="M12" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="N12" s="4">
+        <v>3815.05</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1738</v>
+      </c>
+      <c r="P12" s="4">
+        <v>150.85</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>11.52</v>
+      </c>
+      <c r="R12" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</v>
+      </c>
+      <c r="S12" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>9|42|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|111,79|6239|1433,91|4,35</v>
+      </c>
+      <c r="T12" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>9|42|R9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|3815,05|1738|150,85|11,52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="4">
+        <v>165.09</v>
+      </c>
+      <c r="K13" s="4">
+        <v>10936</v>
+      </c>
+      <c r="L13" s="4">
+        <v>553.86</v>
+      </c>
+      <c r="M13" s="4">
+        <v>19.75</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3481.64</v>
+      </c>
+      <c r="O13" s="4">
+        <v>4085</v>
+      </c>
+      <c r="P13" s="4">
+        <v>70.3</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>58.11</v>
+      </c>
+      <c r="R13" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5900HS (Cezanne) v0.3.1 [10]</v>
+      </c>
+      <c r="S13" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>10|44|R9 5900HS (Cezanne)|Monkey||v0.3.1|165,09|10936|553,86|19,75</v>
+      </c>
+      <c r="T13" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>10|44|R9 5900HS (Cezanne)|Monkey||v0.3.1|3481,64|4085|70,3|58,11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4">
+        <v>54</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4">
+        <v>88.24</v>
+      </c>
+      <c r="K14" s="4">
+        <v>11657</v>
+      </c>
+      <c r="L14" s="4">
+        <v>972.15</v>
+      </c>
+      <c r="M14" s="4">
+        <v>11.99</v>
+      </c>
+      <c r="N14" s="4">
+        <v>656.66</v>
+      </c>
+      <c r="O14" s="4">
+        <v>4575</v>
+      </c>
+      <c r="P14" s="4">
+        <v>332.85</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="R14" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i5 8365U (WhiskeyLake) v0.3.1 [11]</v>
+      </c>
+      <c r="S14" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>11|54|i5 8365U (WhiskeyLake)|MD_Enigma||v0.3.1|88,24|11657|972,15|11,99</v>
+      </c>
+      <c r="T14" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>11|54|i5 8365U (WhiskeyLake)|MD_Enigma||v0.3.1|656,66|4575|332,85|13,75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="4">
+        <v>69</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4">
+        <v>146.74</v>
+      </c>
+      <c r="K15" s="4">
+        <v>10450</v>
+      </c>
+      <c r="L15" s="4">
+        <v>16.03</v>
+      </c>
+      <c r="M15" s="4">
+        <v>16.03</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1818.77</v>
+      </c>
+      <c r="O15" s="4">
+        <v>5785</v>
+      </c>
+      <c r="P15" s="4">
+        <v>95.05</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>60.86</v>
+      </c>
+      <c r="R15" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R5 PRO 4650G (Renoir) v0.3.1 [12]</v>
+      </c>
+      <c r="S15" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>12|69|R5 PRO 4650G (Renoir)|Tigershark||v0.3.1|146,74|10450|16,03|16,03</v>
+      </c>
+      <c r="T15" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>12|69|R5 PRO 4650G (Renoir)|Tigershark||v0.3.1|1818,77|5785|95,05|60,86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4">
+        <v>173.7</v>
+      </c>
+      <c r="K16" s="4">
+        <v>9122</v>
+      </c>
+      <c r="L16" s="4">
+        <v>631.12</v>
+      </c>
+      <c r="M16" s="4">
+        <v>14.45</v>
+      </c>
+      <c r="N16" s="4">
+        <v>4670.05</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2227</v>
+      </c>
+      <c r="P16" s="4">
+        <v>96.17</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>23.15</v>
+      </c>
+      <c r="R16" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 4750G (Renoir)@25W v0.3.1 [13]</v>
+      </c>
+      <c r="S16" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>13|47|R7 4750G (Renoir)|Poekel|25W|v0.3.1|173,7|9122|631,12|14,45</v>
+      </c>
+      <c r="T16" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>13|47|R7 4750G (Renoir)|Poekel|25W|v0.3.1|4670,05|2227|96,17|23,15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4">
+        <v>133.62</v>
+      </c>
+      <c r="K17" s="4">
+        <v>10168</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4">
+        <v>2586.7600000000002</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2649</v>
+      </c>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 4700U (Renoir) v0.3.1 [14]</v>
+      </c>
+      <c r="S17" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>14|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|133,62|10168||</v>
+      </c>
+      <c r="T17" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>14|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|2586,76|2649||</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="4">
+        <v>59</v>
+      </c>
+      <c r="K18" s="4">
+        <v>33870</v>
+      </c>
+      <c r="L18" s="4">
+        <v>500.42</v>
+      </c>
+      <c r="M18" s="4">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="N18" s="4">
+        <v>5578.81</v>
+      </c>
+      <c r="O18" s="4">
+        <v>4561</v>
+      </c>
+      <c r="P18" s="4">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>116.04</v>
+      </c>
+      <c r="R18" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.3.1 [15]</v>
+      </c>
+      <c r="S18" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>15|38|R9 5950X (Vermeer)|Sweepi||v0.3.1|59|33870|500,42|67,68</v>
+      </c>
+      <c r="T18" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>15|38|R9 5950X (Vermeer)|Sweepi||v0.3.1|5578,81|4561|39,3|116,04</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4">
+        <v>65</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4">
+        <v>169.55</v>
+      </c>
+      <c r="K19" s="4">
+        <v>10364</v>
+      </c>
+      <c r="L19" s="4">
+        <v>569.12</v>
+      </c>
+      <c r="M19" s="4">
+        <v>18.21</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3498.15</v>
+      </c>
+      <c r="O19" s="4">
+        <v>3831</v>
+      </c>
+      <c r="P19" s="4">
+        <v>74.63</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>51.33</v>
+      </c>
+      <c r="R19" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5900HS (Cezanne) v0.3.1 [16]</v>
+      </c>
+      <c r="S19" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>16|65|R9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|169,55|10364|569,12|18,21</v>
+      </c>
+      <c r="T19" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>16|65|R9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|3498,15|3831|74,63|51,33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>32204</v>
+      </c>
+      <c r="L20" s="4">
+        <v>998.38</v>
+      </c>
+      <c r="M20" s="4">
+        <v>32.26</v>
+      </c>
+      <c r="N20" s="4">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="O20" s="4">
+        <v>13138</v>
+      </c>
+      <c r="P20" s="4">
+        <v>289.86</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>45.32</v>
+      </c>
+      <c r="R20" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R3 1200 (Summit Ridge) v0.3.1 [17]</v>
+      </c>
+      <c r="S20" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>17|64|R3 1200 (Summit Ridge)|BlackArchon||v0.3.1|31,1|32204|998,38|32,26</v>
+      </c>
+      <c r="T20" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>17|64|R3 1200 (Summit Ridge)|BlackArchon||v0.3.1|262,6|13138|289,86|45,32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="5">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5">
-        <v>129.46</v>
-      </c>
-      <c r="J4" s="5">
-        <v>10446</v>
-      </c>
-      <c r="K4" s="5">
-        <v>739.49</v>
-      </c>
-      <c r="L4" s="5">
-        <v>14.13</v>
-      </c>
-      <c r="M4" s="5">
-        <v>2618.48</v>
-      </c>
-      <c r="N4" s="5">
-        <v>2651</v>
-      </c>
-      <c r="O4" s="5">
-        <v>144.08000000000001</v>
-      </c>
-      <c r="P4" s="5">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="Q4" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 7 4700U (Renoir) [1]</v>
-      </c>
-      <c r="R4" t="str">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4">
+        <v>55.08</v>
+      </c>
+      <c r="K21" s="4">
+        <v>23918</v>
+      </c>
+      <c r="L21" s="4">
+        <v>759.07</v>
+      </c>
+      <c r="M21" s="4">
+        <v>31.51</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2787.1</v>
+      </c>
+      <c r="O21" s="4">
+        <v>4404</v>
+      </c>
+      <c r="P21" s="4">
+        <v>81.48</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>54.05</v>
+      </c>
+      <c r="R21" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 3700X (Matisse) v0.3.1 [18]</v>
+      </c>
+      <c r="S21" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>1|3|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|129,46|10446|739,49|14,13</v>
-      </c>
-      <c r="S4" t="str">
+        <v>18|67|R7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|55,08|23918|759,07|31,51</v>
+      </c>
+      <c r="T21" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>1|3|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|2618,48|2651|144,08|18,4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <f>B4+1</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="s">
+        <v>18|67|R7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|2787,1|4404|81,48|54,05</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="4">
+        <v>68</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5">
-        <v>45.76</v>
-      </c>
-      <c r="J5" s="5">
-        <v>32112</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5">
-        <v>1386.39</v>
-      </c>
-      <c r="N5" s="5">
-        <v>7223</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]</v>
-      </c>
-      <c r="R5" t="str">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4">
+        <v>41.55</v>
+      </c>
+      <c r="K22" s="4">
+        <v>45942</v>
+      </c>
+      <c r="L22" s="4">
+        <v>523.91</v>
+      </c>
+      <c r="M22" s="4">
+        <v>87.69</v>
+      </c>
+      <c r="N22" s="4">
+        <v>3983</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5607</v>
+      </c>
+      <c r="P22" s="4">
+        <v>44.78</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>125.22</v>
+      </c>
+      <c r="R22" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5900X (Vermeer) v0.3.1 [19]</v>
+      </c>
+      <c r="S22" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>2|6|AMD Ryzen 5 3600 (Matisse)|Lyka||v0.3.1|45,76|32112||</v>
-      </c>
-      <c r="S5" t="str">
+        <v>19|68|R9 5900X (Vermeer)|Krischi||v0.3.1|41,55|45942|523,91|87,69</v>
+      </c>
+      <c r="T22" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>2|6|AMD Ryzen 5 3600 (Matisse)|Lyka||v0.3.1|1386,39|7223||</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <f t="shared" ref="B6:B23" si="0">B5+1</f>
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5">
-        <v>127.76</v>
-      </c>
-      <c r="J6" s="5">
-        <v>9839</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5">
-        <v>885.22</v>
-      </c>
-      <c r="N6" s="5">
-        <v>3912</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>Intel i7 1065G (IceLake) v0.3.1 [3]</v>
-      </c>
-      <c r="R6" t="str">
+        <v>19|68|R9 5900X (Vermeer)|Krischi||v0.3.1|3983|5607|44,78|125,22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4">
+        <v>70</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4">
+        <v>60.29</v>
+      </c>
+      <c r="K23" s="4">
+        <v>33002</v>
+      </c>
+      <c r="L23" s="4">
+        <v>502.56</v>
+      </c>
+      <c r="M23" s="4">
+        <v>65.67</v>
+      </c>
+      <c r="N23" s="4">
+        <v>5295.16</v>
+      </c>
+      <c r="O23" s="4">
+        <v>5633</v>
+      </c>
+      <c r="P23" s="4">
+        <v>33.520000000000003</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>168.04</v>
+      </c>
+      <c r="R23" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.3.1 [20]</v>
+      </c>
+      <c r="S23" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>3|7|Intel i7 1065G (IceLake)|Naitsabes||v0.3.1|127,76|9839||</v>
-      </c>
-      <c r="S6" t="str">
+        <v>20|70|R9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|60,29|33002|502,56|65,67</v>
+      </c>
+      <c r="T23" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>3|7|Intel i7 1065G (IceLake)|Naitsabes||v0.3.1|885,22|3912||</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5">
-        <v>55.41</v>
-      </c>
-      <c r="J7" s="5">
-        <v>35920</v>
-      </c>
-      <c r="K7" s="5">
-        <v>502.43</v>
-      </c>
-      <c r="L7" s="5">
-        <v>71.489999999999995</v>
-      </c>
-      <c r="M7" s="5">
-        <v>4779.3</v>
-      </c>
-      <c r="N7" s="5">
-        <v>6242</v>
-      </c>
-      <c r="O7" s="5">
-        <v>33.520000000000003</v>
-      </c>
-      <c r="P7" s="5">
-        <v>186.22</v>
-      </c>
-      <c r="Q7" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]</v>
-      </c>
-      <c r="R7" t="str">
+        <v>20|70|R9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|5295,16|5633|33,52|168,04</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="9">
+        <v>88</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="9">
+        <v>62.61</v>
+      </c>
+      <c r="K24" s="9">
+        <v>32182</v>
+      </c>
+      <c r="L24" s="9">
+        <v>496.32</v>
+      </c>
+      <c r="M24" s="9">
+        <v>64.84</v>
+      </c>
+      <c r="N24" s="9">
+        <v>5945.36</v>
+      </c>
+      <c r="O24" s="9">
+        <v>4356</v>
+      </c>
+      <c r="P24" s="9">
+        <v>38.61</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>112.84</v>
+      </c>
+      <c r="R24" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) [21]</v>
+      </c>
+      <c r="S24" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>4|14|AMD Ryzen 9 5950X (Vermeer)|dosenfisch24||v0.3.1|55,41|35920|502,43|71,49</v>
-      </c>
-      <c r="S7" t="str">
+        <v>21|88|R9 5950X (Vermeer)|Lowkey||v0.5.0|62,61|32182|496,32|64,84</v>
+      </c>
+      <c r="T24" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>4|14|AMD Ryzen 9 5950X (Vermeer)|dosenfisch24||v0.3.1|4779,3|6242|33,52|186,22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5">
-        <v>153.88</v>
-      </c>
-      <c r="J8" s="5">
-        <v>10352</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5">
-        <v>2637.56</v>
-      </c>
-      <c r="N8" s="5">
-        <v>5262</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]</v>
-      </c>
-      <c r="R8" t="str">
+        <v>21|88|R9 5950X (Vermeer)|Lowkey||v0.5.0|5945,36|4356|38,61|112,84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="9">
+        <v>90</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="9">
+        <v>63.92</v>
+      </c>
+      <c r="K25" s="9">
+        <v>30783</v>
+      </c>
+      <c r="L25" s="9">
+        <v>508.2</v>
+      </c>
+      <c r="M25" s="9">
+        <v>60.57</v>
+      </c>
+      <c r="N25" s="9">
+        <v>4834.1899999999996</v>
+      </c>
+      <c r="O25" s="9">
+        <v>5902</v>
+      </c>
+      <c r="P25" s="9">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>168.38</v>
+      </c>
+      <c r="R25" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) [22]</v>
+      </c>
+      <c r="S25" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>5|18|AMD Ryzen 7 4750G (Renoir)|Poekel||v0.3.1|153,88|10352||</v>
-      </c>
-      <c r="S8" t="str">
+        <v>22|90|R9 5950X (Vermeer)|misterh||v0.5.0|63,92|30783|508,2|60,57</v>
+      </c>
+      <c r="T25" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>5|18|AMD Ryzen 7 4750G (Renoir)|Poekel||v0.3.1|2637,56|5262||</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5">
-        <v>27</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5">
-        <v>51.8</v>
-      </c>
-      <c r="J9" s="5">
-        <v>30057</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
-        <v>2058.48</v>
-      </c>
-      <c r="N9" s="5">
-        <v>6377</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]</v>
-      </c>
-      <c r="R9" s="1" t="str">
+        <v>22|90|R9 5950X (Vermeer)|misterh||v0.5.0|4834,19|5902|35,05|168,38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B26" s="8">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="9">
+        <v>91</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="9">
+        <v>10.28</v>
+      </c>
+      <c r="K26" s="9">
+        <v>57948</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1678.77</v>
+      </c>
+      <c r="M26" s="9">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="N26" s="9">
+        <v>240.62</v>
+      </c>
+      <c r="O26" s="9">
+        <v>20261</v>
+      </c>
+      <c r="P26" s="9">
+        <v>205.12</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>98.78</v>
+      </c>
+      <c r="R26" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>??? v0.3.1 [23]</v>
+      </c>
+      <c r="S26" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>6|27|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|51,8|30057||</v>
-      </c>
-      <c r="S9" t="str">
+        <v>23|91|???|Platos||v0.3.1|10,28|57948|1678,77|34,52</v>
+      </c>
+      <c r="T26" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>6|27|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO on|v0.3.1|2058,48|6377||</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5" t="s">
+        <v>23|91|???|Platos||v0.3.1|240,62|20261|205,12|98,78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B27" s="8">
+        <v>24</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5">
-        <v>137.88</v>
-      </c>
-      <c r="J10" s="5">
-        <v>10396</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5">
-        <v>3599.63</v>
-      </c>
-      <c r="N10" s="5">
-        <v>2029</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]</v>
-      </c>
-      <c r="R10" s="1" t="str">
+      <c r="D27" s="4">
+        <v>94</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="9">
+        <v>121.52</v>
+      </c>
+      <c r="K27" s="9">
+        <v>14243</v>
+      </c>
+      <c r="L27" s="9">
+        <v>577.78</v>
+      </c>
+      <c r="M27" s="9">
+        <v>24.65</v>
+      </c>
+      <c r="N27" s="9">
+        <v>1314.72</v>
+      </c>
+      <c r="O27" s="9">
+        <v>5212</v>
+      </c>
+      <c r="P27" s="9">
+        <v>145.93</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>35.72</v>
+      </c>
+      <c r="R27" s="11" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 1165G7 (TigerLake) [24]</v>
+      </c>
+      <c r="S27" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>7|29|AMD Ryzen 7 4750U (Renoir)|dosenfisch24||v0.3.1|137,88|10396||</v>
-      </c>
-      <c r="S10" t="str">
+        <v>24|94|i7 1165G7 (TigerLake)|misterh||v0.5.0|121,52|14243|577,78|24,65</v>
+      </c>
+      <c r="T27" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>7|29|AMD Ryzen 7 4750U (Renoir)|dosenfisch24||v0.3.1|3599,63|2029||</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="5">
-        <v>52.94</v>
-      </c>
-      <c r="J11" s="5">
-        <v>37274</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5">
-        <v>5760.71</v>
-      </c>
-      <c r="N11" s="5">
-        <v>4507</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]</v>
-      </c>
-      <c r="R11" s="1" t="str">
+        <v>24|94|i7 1165G7 (TigerLake)|misterh||v0.5.0|1314,72|5212|145,93|35,72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B28" s="8">
+        <v>25</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="9">
+        <v>94</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9">
+        <v>63.04</v>
+      </c>
+      <c r="K28" s="9">
+        <v>28707</v>
+      </c>
+      <c r="L28" s="9">
+        <v>552.55999999999995</v>
+      </c>
+      <c r="M28" s="9">
+        <v>51.95</v>
+      </c>
+      <c r="N28" s="9">
+        <v>5167.0600000000004</v>
+      </c>
+      <c r="O28" s="9">
+        <v>5332</v>
+      </c>
+      <c r="P28" s="9">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>146.87</v>
+      </c>
+      <c r="R28" s="13" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer)@-0,1V [25]</v>
+      </c>
+      <c r="S28" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>8|32|AMD Ryzen 9 5950X (Vermeer)|Sweepi||v0.3.1|52,94|37274||</v>
-      </c>
-      <c r="S11" t="str">
+        <v>25|94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|63,04|28707|552,56|51,95</v>
+      </c>
+      <c r="T28" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>8|32|AMD Ryzen 9 5950X (Vermeer)|Sweepi||v0.3.1|5760,71|4507||</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5">
-        <v>42</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" s="5">
-        <v>111.79</v>
-      </c>
-      <c r="J12" s="5">
-        <v>6239</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1433.91</v>
-      </c>
-      <c r="L12" s="5">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="M12" s="5">
-        <v>3815.05</v>
-      </c>
-      <c r="N12" s="5">
-        <v>1738</v>
-      </c>
-      <c r="O12" s="5">
-        <v>150.85</v>
-      </c>
-      <c r="P12" s="5">
-        <v>11.52</v>
-      </c>
-      <c r="Q12" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]</v>
-      </c>
-      <c r="R12" s="1" t="str">
+        <v>25|94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|5167,06|5332|36,3|146,87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B29" s="8">
+        <v>26</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="9">
+        <v>96</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="9">
+        <v>59.97</v>
+      </c>
+      <c r="K29" s="9">
+        <v>33184.629999999997</v>
+      </c>
+      <c r="L29" s="9">
+        <v>502.51</v>
+      </c>
+      <c r="M29" s="9">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="N29" s="9">
+        <v>6103.75</v>
+      </c>
+      <c r="O29" s="9">
+        <v>4353.5600000000004</v>
+      </c>
+      <c r="P29" s="9">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>115.69</v>
+      </c>
+      <c r="R29" s="13" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) [26]</v>
+      </c>
+      <c r="S29" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>9|42|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|111,79|6239|1433,91|4,35</v>
-      </c>
-      <c r="S12" t="str">
+        <v>26|96|R9 5950X (Vermeer)|Sweepi||v0.5.0|59,97|33184,63|502,51|66,04</v>
+      </c>
+      <c r="T29" s="11" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>9|42|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Energy Saving|v0.3.1|3815,05|1738|150,85|11,52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5">
-        <v>44</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="5">
-        <v>165.09</v>
-      </c>
-      <c r="J13" s="5">
-        <v>10936</v>
-      </c>
-      <c r="K13" s="5">
-        <v>553.86</v>
-      </c>
-      <c r="L13" s="5">
-        <v>19.75</v>
-      </c>
-      <c r="M13" s="5">
-        <v>3481.64</v>
-      </c>
-      <c r="N13" s="5">
-        <v>4085</v>
-      </c>
-      <c r="O13" s="5">
-        <v>70.3</v>
-      </c>
-      <c r="P13" s="5">
-        <v>58.11</v>
-      </c>
-      <c r="Q13" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]</v>
-      </c>
-      <c r="R13" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>10|44|AMD Ryzen 9 5900HS (Cezanne)|Monkey||v0.3.1|165,09|10936|553,86|19,75</v>
-      </c>
-      <c r="S13" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>10|44|AMD Ryzen 9 5900HS (Cezanne)|Monkey||v0.3.1|3481,64|4085|70,3|58,11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5">
-        <v>54</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5">
-        <v>88.24</v>
-      </c>
-      <c r="J14" s="5">
-        <v>11657</v>
-      </c>
-      <c r="K14" s="5">
-        <v>972.15</v>
-      </c>
-      <c r="L14" s="5">
-        <v>11.99</v>
-      </c>
-      <c r="M14" s="5">
-        <v>656.66</v>
-      </c>
-      <c r="N14" s="5">
-        <v>4575</v>
-      </c>
-      <c r="O14" s="5">
-        <v>332.85</v>
-      </c>
-      <c r="P14" s="5">
-        <v>13.75</v>
-      </c>
-      <c r="Q14" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]</v>
-      </c>
-      <c r="R14" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>11|54|Intel Core i5-8365U (WhiskeyLake)|MD_Enigma||v0.3.1|88,24|11657|972,15|11,99</v>
-      </c>
-      <c r="S14" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>11|54|Intel Core i5-8365U (WhiskeyLake)|MD_Enigma||v0.3.1|656,66|4575|332,85|13,75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="5">
-        <v>69</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5">
-        <v>146.74</v>
-      </c>
-      <c r="J15" s="5">
-        <v>10450</v>
-      </c>
-      <c r="K15" s="5">
-        <v>16.03</v>
-      </c>
-      <c r="L15" s="5">
-        <v>16.03</v>
-      </c>
-      <c r="M15" s="5">
-        <v>1818.77</v>
-      </c>
-      <c r="N15" s="5">
-        <v>5785</v>
-      </c>
-      <c r="O15" s="5">
-        <v>95.05</v>
-      </c>
-      <c r="P15" s="5">
-        <v>60.86</v>
-      </c>
-      <c r="Q15" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]</v>
-      </c>
-      <c r="R15" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>12|69|AMD Ryzen 5 PRO 4650G (Renoir)|Tigershark||v0.3.1|146,74|10450|16,03|16,03</v>
-      </c>
-      <c r="S15" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>12|69|AMD Ryzen 5 PRO 4650G (Renoir)|Tigershark||v0.3.1|1818,77|5785|95,05|60,86</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5">
-        <v>47</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="5">
-        <v>173.7</v>
-      </c>
-      <c r="J16" s="5">
-        <v>9122</v>
-      </c>
-      <c r="K16" s="5">
-        <v>631.12</v>
-      </c>
-      <c r="L16" s="5">
-        <v>14.45</v>
-      </c>
-      <c r="M16" s="5">
-        <v>4670.05</v>
-      </c>
-      <c r="N16" s="5">
-        <v>2227</v>
-      </c>
-      <c r="O16" s="5">
-        <v>96.17</v>
-      </c>
-      <c r="P16" s="5">
-        <v>23.15</v>
-      </c>
-      <c r="Q16" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]</v>
-      </c>
-      <c r="R16" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>13|47|AMD Ryzen 7 4750G (Renoir)|Poekel|25W|v0.3.1|173,7|9122|631,12|14,45</v>
-      </c>
-      <c r="S16" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>13|47|AMD Ryzen 7 4750G (Renoir)|Poekel|25W|v0.3.1|4670,05|2227|96,17|23,15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5">
-        <v>133.62</v>
-      </c>
-      <c r="J17" s="5">
-        <v>10168</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5">
-        <v>2586.7600000000002</v>
-      </c>
-      <c r="N17" s="5">
-        <v>2649</v>
-      </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]</v>
-      </c>
-      <c r="R17" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>14|3|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|133,62|10168||</v>
-      </c>
-      <c r="S17" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>14|3|AMD Ryzen 7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.3.1|2586,76|2649||</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="5">
-        <v>38</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="5">
-        <v>59</v>
-      </c>
-      <c r="J18" s="5">
-        <v>33870</v>
-      </c>
-      <c r="K18" s="5">
-        <v>500.42</v>
-      </c>
-      <c r="L18" s="5">
-        <v>67.680000000000007</v>
-      </c>
-      <c r="M18" s="5">
-        <v>5578.81</v>
-      </c>
-      <c r="N18" s="5">
-        <v>4561</v>
-      </c>
-      <c r="O18" s="5">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="P18" s="5">
-        <v>116.04</v>
-      </c>
-      <c r="Q18" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]</v>
-      </c>
-      <c r="R18" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>15|38|AMD Ryzen 9 5950X (Vermeer)|Sweepi||v0.3.1|59|33870|500,42|67,68</v>
-      </c>
-      <c r="S18" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>15|38|AMD Ryzen 9 5950X (Vermeer)|Sweepi||v0.3.1|5578,81|4561|39,3|116,04</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="5">
-        <v>65</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5">
-        <v>169.55</v>
-      </c>
-      <c r="J19" s="5">
-        <v>10364</v>
-      </c>
-      <c r="K19" s="5">
-        <v>569.12</v>
-      </c>
-      <c r="L19" s="5">
-        <v>18.21</v>
-      </c>
-      <c r="M19" s="5">
-        <v>3498.15</v>
-      </c>
-      <c r="N19" s="5">
-        <v>3831</v>
-      </c>
-      <c r="O19" s="5">
-        <v>74.63</v>
-      </c>
-      <c r="P19" s="5">
-        <v>51.33</v>
-      </c>
-      <c r="Q19" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]</v>
-      </c>
-      <c r="R19" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>16|65|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|169,55|10364|569,12|18,21</v>
-      </c>
-      <c r="S19" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>16|65|AMD Ryzen 9 5900HS (Cezanne)|Monkey|Win: Best Perf.|v0.3.1|3498,15|3831|74,63|51,33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5">
-        <v>64</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="5">
-        <v>31.1</v>
-      </c>
-      <c r="J20" s="5">
-        <v>32204</v>
-      </c>
-      <c r="K20" s="5">
-        <v>998.38</v>
-      </c>
-      <c r="L20" s="5">
-        <v>32.26</v>
-      </c>
-      <c r="M20" s="5">
-        <v>262.60000000000002</v>
-      </c>
-      <c r="N20" s="5">
-        <v>13138</v>
-      </c>
-      <c r="O20" s="5">
-        <v>289.86</v>
-      </c>
-      <c r="P20" s="5">
-        <v>45.32</v>
-      </c>
-      <c r="Q20" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]</v>
-      </c>
-      <c r="R20" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>17|64|AMD Ryzen 3 1200 (Summit Ridge)|BlackArchon||v0.3.1|31,1|32204|998,38|32,26</v>
-      </c>
-      <c r="S20" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>17|64|AMD Ryzen 3 1200 (Summit Ridge)|BlackArchon||v0.3.1|262,6|13138|289,86|45,32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="5">
-        <v>67</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="5">
-        <v>55.08</v>
-      </c>
-      <c r="J21" s="5">
-        <v>23918</v>
-      </c>
-      <c r="K21" s="5">
-        <v>759.07</v>
-      </c>
-      <c r="L21" s="5">
-        <v>31.51</v>
-      </c>
-      <c r="M21" s="5">
-        <v>2787.1</v>
-      </c>
-      <c r="N21" s="5">
-        <v>4404</v>
-      </c>
-      <c r="O21" s="5">
-        <v>81.48</v>
-      </c>
-      <c r="P21" s="5">
-        <v>54.05</v>
-      </c>
-      <c r="Q21" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]</v>
-      </c>
-      <c r="R21" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>18|67|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|55,08|23918|759,07|31,51</v>
-      </c>
-      <c r="S21" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>18|67|AMD Ryzen 7 3700X (Matisse)|Tigershark|PBO off|v0.3.1|2787,1|4404|81,48|54,05</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="5">
-        <v>68</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="5">
-        <v>41.55</v>
-      </c>
-      <c r="J22" s="5">
-        <v>45942</v>
-      </c>
-      <c r="K22" s="5">
-        <v>523.91</v>
-      </c>
-      <c r="L22" s="5">
-        <v>87.69</v>
-      </c>
-      <c r="M22" s="5">
-        <v>3983</v>
-      </c>
-      <c r="N22" s="5">
-        <v>5607</v>
-      </c>
-      <c r="O22" s="5">
-        <v>44.78</v>
-      </c>
-      <c r="P22" s="5">
-        <v>125.22</v>
-      </c>
-      <c r="Q22" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]</v>
-      </c>
-      <c r="R22" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>19|68|AMD Ryzen 9 5900X (Vermeer)|Krischi||v0.3.1|41,55|45942|523,91|87,69</v>
-      </c>
-      <c r="S22" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>19|68|AMD Ryzen 9 5900X (Vermeer)|Krischi||v0.3.1|3983|5607|44,78|125,22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="5">
-        <v>70</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5">
-        <v>60.29</v>
-      </c>
-      <c r="J23" s="5">
-        <v>33002</v>
-      </c>
-      <c r="K23" s="5">
-        <v>502.56</v>
-      </c>
-      <c r="L23" s="5">
-        <v>65.67</v>
-      </c>
-      <c r="M23" s="5">
-        <v>5295.16</v>
-      </c>
-      <c r="N23" s="5">
-        <v>5633</v>
-      </c>
-      <c r="O23" s="5">
-        <v>33.520000000000003</v>
-      </c>
-      <c r="P23" s="5">
-        <v>168.04</v>
-      </c>
-      <c r="Q23" s="1" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]</v>
-      </c>
-      <c r="R23" s="1" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>20|70|AMD Ryzen 9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|60,29|33002|502,56|65,67</v>
-      </c>
-      <c r="S23" t="str">
-        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>20|70|AMD Ryzen 9 5950X (Vermeer)|LeiwandEr|manual Curve Optimization|v0.3.1|5295,16|5633|33,52|168,04</v>
+        <v>26|96|R9 5950X (Vermeer)|Sweepi||v0.5.0|6103,75|4353,56|37,63|115,69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F27" r:id="rId1" display="https://www.forum-3dcenter.org/vbulletin/member.php?u=9072" xr:uid="{88633189-35CB-42F8-9FD4-567025EE54D9}"/>
+    <hyperlink ref="F28" r:id="rId2" display="https://www.forum-3dcenter.org/vbulletin/member.php?u=9072" xr:uid="{5DE3216B-5AF9-4587-BCFF-0DB645E87253}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6F6CD-AB6C-41CA-A4F9-5492FC969623}">
-  <dimension ref="B1:C21"/>
+  <dimension ref="B1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3">
         <v>31.1</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3">
         <v>41.55</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="3">
         <v>45.76</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3">
         <v>51.8</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4">
-        <v>52.94</v>
+      <c r="B8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3">
+        <v>55.08</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4">
-        <v>55.08</v>
+      <c r="B9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3">
+        <v>55.41</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="4">
-        <v>55.41</v>
+      <c r="B10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3">
+        <v>59.97</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4">
-        <v>59</v>
+      <c r="B11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="3">
+        <v>60.29</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4">
-        <v>60.29</v>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3">
+        <v>62.61</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3">
+        <v>63.04</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3">
+        <v>63.92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="3">
         <v>88.24</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="4">
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="3">
+        <v>111.79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="3">
+        <v>121.52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3">
         <v>127.76</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4">
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="3">
         <v>129.46</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="4">
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="3">
         <v>133.62</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="4">
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="3">
         <v>137.88</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="4">
+    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="3">
         <v>146.74</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="4">
+    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="3">
         <v>153.88</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4">
+    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="3">
         <v>169.55</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1540.0599999999995</v>
+    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="3">
+        <v>173.7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2084.6699999999996</v>
       </c>
     </row>
   </sheetData>
@@ -8906,7 +9871,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B96D4-491E-48C1-A9CD-50F5C88BFD81}">
-  <dimension ref="B1:C21"/>
+  <dimension ref="B1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -8915,169 +9880,209 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>46</v>
+      <c r="B4" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C4" s="1">
         <v>45942</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>49</v>
+      <c r="B5" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C5" s="1">
-        <v>37274</v>
+        <v>35920</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>51</v>
+      <c r="B6" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C6" s="1">
-        <v>35920</v>
+        <v>33184.629999999997</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>52</v>
+      <c r="B7" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C7" s="1">
-        <v>33870</v>
+        <v>33002</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>53</v>
+      <c r="B8" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="1">
-        <v>33002</v>
+        <v>32204</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+      <c r="B9" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="1">
-        <v>32204</v>
+        <v>32182</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+      <c r="B10" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C10" s="1">
         <v>32112</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+      <c r="B11" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C11" s="1">
+        <v>30783</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1">
         <v>30057</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1">
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="1">
+        <v>28707</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1">
         <v>23918</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="1">
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14243</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1">
         <v>11657</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="1">
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="1">
         <v>10450</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1">
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1">
         <v>10446</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1">
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1">
         <v>10396</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1">
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1">
         <v>10364</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="1">
         <v>10352</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1">
+    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1">
         <v>10168</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="1">
+    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1">
         <v>9839</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1">
-        <v>387971</v>
+    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>471287.63</v>
       </c>
     </row>
   </sheetData>
@@ -9088,178 +10093,218 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
-  <dimension ref="B1:C21"/>
+  <dimension ref="B1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3">
         <v>262.60000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3">
         <v>656.66</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3">
         <v>885.22</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1314.72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="3">
         <v>1386.39</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4">
+    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="3">
         <v>1818.77</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4">
+    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3">
         <v>2058.48</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="4">
+    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="3">
         <v>2586.7600000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4">
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3">
         <v>2618.48</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4">
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="3">
         <v>2637.56</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="4">
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3">
         <v>2787.1</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4">
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3">
         <v>3498.15</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="4">
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="3">
         <v>3599.63</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="4">
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3815.05</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3">
         <v>3983</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="4">
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4670.05</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3">
         <v>4779.3</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="4">
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4834.1899999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5167.0600000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3">
         <v>5295.16</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="4">
-        <v>5578.81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4">
-        <v>5760.71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4">
-        <v>50192.78</v>
+    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5945.36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="3">
+        <v>6103.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3">
+        <v>70703.44</v>
       </c>
     </row>
   </sheetData>
@@ -9271,178 +10316,218 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E4BCF-0D99-422A-A715-C65F85CECA2F}">
-  <dimension ref="B1:C21"/>
+  <dimension ref="B1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>45</v>
+      <c r="B4" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <v>13138</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>47</v>
+      <c r="B5" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="C5" s="1">
         <v>7223</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>48</v>
+      <c r="B6" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C6" s="1">
         <v>6377</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>51</v>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C7" s="1">
         <v>6242</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>58</v>
+      <c r="B8" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C8" s="1">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1">
         <v>5785</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1">
+    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1">
         <v>5633</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1">
         <v>5607</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1">
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="1">
         <v>5262</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1">
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="1">
         <v>4575</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4561</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4507</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1">
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="1">
         <v>4404</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1">
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4353.5600000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="1">
         <v>3912</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1">
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1">
         <v>3831</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="1">
         <v>2651</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="1">
+    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1">
         <v>2649</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="1">
+    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1">
         <v>2029</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1">
-        <v>88386</v>
+    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>108438.56</v>
       </c>
     </row>
   </sheetData>

--- a/Rankings.xlsx
+++ b/Rankings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\BrsVgl\PerformanceEfficiencySuite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C2E89-6050-4AD6-83B3-18499F92FD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E875161A-83D4-4CB6-A06C-AEDC74F46E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId6"/>
+    <pivotCache cacheId="20" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="123">
   <si>
     <t>CPU</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Platos</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>i7 1165G7 (TigerLake)</t>
   </si>
   <si>
@@ -256,52 +253,19 @@
     <t>R3 1200 (Summit Ridge) v0.3.1 [17]</t>
   </si>
   <si>
-    <t>R9 5900X (Vermeer) v0.3.1 [19]</t>
-  </si>
-  <si>
     <t>R5 3600 (Matisse) v0.3.1 [2]</t>
-  </si>
-  <si>
-    <t>R7 3700X (Matisse) v0.3.1 [6]</t>
   </si>
   <si>
     <t>R7 3700X (Matisse) v0.3.1 [18]</t>
   </si>
   <si>
-    <t>R9 5950X (Vermeer) v0.3.1 [4]</t>
-  </si>
-  <si>
-    <t>R9 5950X (Vermeer) [26]</t>
-  </si>
-  <si>
-    <t>R9 5950X (Vermeer) v0.3.1 [20]</t>
-  </si>
-  <si>
-    <t>R9 5950X (Vermeer) [21]</t>
-  </si>
-  <si>
-    <t>R9 5950X (Vermeer)@-0,1V [25]</t>
-  </si>
-  <si>
-    <t>R9 5950X (Vermeer) [22]</t>
-  </si>
-  <si>
     <t>i5 8365U (WhiskeyLake) v0.3.1 [11]</t>
-  </si>
-  <si>
-    <t>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</t>
-  </si>
-  <si>
-    <t>i7 1165G7 (TigerLake) [24]</t>
   </si>
   <si>
     <t>i7 1065G (IceLake) v0.3.1 [3]</t>
   </si>
   <si>
     <t>R7 4700U (Renoir) [1]</t>
-  </si>
-  <si>
-    <t>R7 4700U (Renoir) v0.3.1 [14]</t>
   </si>
   <si>
     <t>R7 4750U (Renoir) v0.3.1 [7]</t>
@@ -313,17 +277,152 @@
     <t>R7 4750G (Renoir) v0.3.1 [5]</t>
   </si>
   <si>
-    <t>R9 5900HS (Cezanne) v0.3.1 [16]</t>
+    <t>v0.5.1</t>
   </si>
   <si>
-    <t>R7 4750G (Renoir)@25W v0.3.1 [13]</t>
+    <t>i7 4820K (Ivy Bridge)</t>
+  </si>
+  <si>
+    <t>@4,5Ghz</t>
+  </si>
+  <si>
+    <t>AC / Win: Best Perf. / HP: Recmd.</t>
+  </si>
+  <si>
+    <t>last 3DC post:</t>
+  </si>
+  <si>
+    <t>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</t>
+  </si>
+  <si>
+    <t>R9 5950X (Vermeer) v0.5.0 [21]</t>
+  </si>
+  <si>
+    <t>i7 1165G7 (TigerLake) v0.5.0 [24]</t>
+  </si>
+  <si>
+    <t>@20W</t>
+  </si>
+  <si>
+    <t>20W</t>
+  </si>
+  <si>
+    <t>i7 5775C (Broadwell)</t>
+  </si>
+  <si>
+    <t>R5 4500U (Renoir)</t>
+  </si>
+  <si>
+    <t>Win: Better Eff.</t>
+  </si>
+  <si>
+    <t>harzer_knaller</t>
+  </si>
+  <si>
+    <t>Balanced Power Plan</t>
+  </si>
+  <si>
+    <t>Darkearth27</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>Tyrann</t>
+  </si>
+  <si>
+    <t>i7 2600K (Sandy Bridge)</t>
+  </si>
+  <si>
+    <t>@4,4Ghz</t>
+  </si>
+  <si>
+    <t>i7 2600K (Sandy Bridge) @4,4Ghz [34]</t>
+  </si>
+  <si>
+    <t>i7 5775C (Broadwell) [28]</t>
+  </si>
+  <si>
+    <t>R9 5900X (Vermeer) [32]</t>
+  </si>
+  <si>
+    <t>R5 4500U (Renoir) [29]</t>
+  </si>
+  <si>
+    <t>R9 5900HS (Cezanne) v0.5.0 [30]</t>
+  </si>
+  <si>
+    <t>R7 5800X (Vermeer)</t>
+  </si>
+  <si>
+    <t>hq-hq</t>
+  </si>
+  <si>
+    <t>i7 7500U (Kaby Lake)</t>
+  </si>
+  <si>
+    <t>Celeron N3450 (Apollo Lake)</t>
+  </si>
+  <si>
+    <t>patrock84</t>
+  </si>
+  <si>
+    <t>Celeron N3450 (Apollo Lake) [37]</t>
+  </si>
+  <si>
+    <t>R7 5800X (Vermeer) [35]</t>
+  </si>
+  <si>
+    <t>i5 8600k (Coffee Lake)</t>
+  </si>
+  <si>
+    <t>i5 7500 (Kaby Lake)</t>
+  </si>
+  <si>
+    <t>2C/4T</t>
+  </si>
+  <si>
+    <t>4C/4T</t>
+  </si>
+  <si>
+    <t>Bernman</t>
+  </si>
+  <si>
+    <t>@5Ghz</t>
+  </si>
+  <si>
+    <t>i7 8700k (Coffee Lake)</t>
+  </si>
+  <si>
+    <t>R7 5800H (Cezanne)</t>
+  </si>
+  <si>
+    <t>i5 7500 (Kaby Lake) 4C/4T [40]</t>
+  </si>
+  <si>
+    <t>i5 8600k (Coffee Lake) [39]</t>
+  </si>
+  <si>
+    <t>i7 8700k (Coffee Lake) @5Ghz [41]</t>
+  </si>
+  <si>
+    <t>i7 7500U (Kaby Lake) 2C/4T [36]</t>
+  </si>
+  <si>
+    <t>R7 5800H (Cezanne) [42]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +433,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -388,12 +494,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -401,12 +528,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -421,14 +542,128 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -446,9 +681,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -754,7 +986,7 @@
               <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -827,7 +1059,7 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -857,62 +1089,62 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES ST'!$B$4:$B$26</c:f>
+              <c:f>'PES ST'!$B$4:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Celeron N3450 (Apollo Lake) [37]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>i7 2600K (Sandy Bridge) @4,4Ghz [34]</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>R9 5900X (Vermeer) v0.3.1 [19]</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>R7 3700X (Matisse) v0.3.1 [6]</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>i5 7500 (Kaby Lake) 4C/4T [40]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>i7 5775C (Broadwell) [28]</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>R9 5950X (Vermeer) v0.3.1 [4]</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>R9 5950X (Vermeer) [26]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>R9 5950X (Vermeer) v0.3.1 [20]</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>R9 5950X (Vermeer) [21]</c:v>
+                  <c:v>R7 5800X (Vermeer) [35]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>R9 5950X (Vermeer)@-0,1V [25]</c:v>
+                  <c:v>i5 8600k (Coffee Lake) [39]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>R9 5950X (Vermeer) [22]</c:v>
+                  <c:v>i7 8700k (Coffee Lake) @5Ghz [41]</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>R9 5900X (Vermeer) [32]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>i7 7500U (Kaby Lake) 2C/4T [36]</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>i7 1165G7 (TigerLake) [24]</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>R7 4700U (Renoir) v0.3.1 [14]</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
@@ -921,73 +1153,79 @@
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>R9 5900HS (Cezanne) v0.3.1 [16]</c:v>
+                  <c:v>R7 5800H (Cezanne) [42]</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>R7 4750G (Renoir)@25W v0.3.1 [13]</c:v>
+                  <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>R5 4500U (Renoir) [29]</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES ST'!$C$4:$C$26</c:f>
+              <c:f>'PES ST'!$C$4:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>16.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>31.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>41.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>45.76</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>54.74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>55.08</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>55.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>59.97</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>60.29</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>57.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>61.55</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>62.61</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>63.04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>63.92</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>75.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>88.24</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>111.79</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>121.52</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>127.76</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>129.46</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>133.62</c:v>
+                  <c:v>137.88</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>137.88</c:v>
+                  <c:v>141.66999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>146.74</c:v>
@@ -996,10 +1234,16 @@
                   <c:v>153.88</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>169.55</c:v>
+                  <c:v>168.79</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>173.7</c:v>
+                  <c:v>172.46</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>186.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>216.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,7 +1901,7 @@
               <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1730,7 +1974,7 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1760,149 +2004,161 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption ST'!$B$4:$B$26</c:f>
+              <c:f>'Consumption ST'!$B$4:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>R9 5900X (Vermeer) v0.3.1 [19]</c:v>
+                  <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>R9 5950X (Vermeer) v0.3.1 [4]</c:v>
+                  <c:v>i7 2600K (Sandy Bridge) @4,4Ghz [34]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>R9 5950X (Vermeer) [26]</c:v>
+                  <c:v>R7 5800X (Vermeer) [35]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>R9 5950X (Vermeer) v0.3.1 [20]</c:v>
+                  <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
+                  <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>R9 5950X (Vermeer) [21]</c:v>
+                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
+                  <c:v>i5 8600k (Coffee Lake) [39]</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>R9 5950X (Vermeer) [22]</c:v>
+                  <c:v>i7 8700k (Coffee Lake) @5Ghz [41]</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>R7 3700X (Matisse) v0.3.1 [6]</c:v>
+                  <c:v>R9 5900X (Vermeer) [32]</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>R9 5950X (Vermeer)@-0,1V [25]</c:v>
+                  <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
+                  <c:v>i5 7500 (Kaby Lake) 4C/4T [40]</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>i7 1165G7 (TigerLake) [24]</c:v>
+                  <c:v>i7 5775C (Broadwell) [28]</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>Celeron N3450 (Apollo Lake) [37]</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>i7 7500U (Kaby Lake) 2C/4T [36]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
+                  <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>R9 5900HS (Cezanne) v0.3.1 [16]</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>R7 4700U (Renoir) v0.3.1 [14]</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>R7 5800H (Cezanne) [42]</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>R7 4750G (Renoir)@25W v0.3.1 [13]</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</c:v>
+                <c:pt idx="22">
+                  <c:v>R5 4500U (Renoir) [29]</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption ST'!$C$4:$C$26</c:f>
+              <c:f>'Consumption ST'!$C$4:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>45942</c:v>
+                  <c:v>55373</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35920</c:v>
+                  <c:v>38525</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33184.629999999997</c:v>
+                  <c:v>34236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33002</c:v>
+                  <c:v>32204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32204</c:v>
+                  <c:v>32182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32182</c:v>
+                  <c:v>32112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32112</c:v>
+                  <c:v>27864</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30783</c:v>
+                  <c:v>25887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30057</c:v>
+                  <c:v>25543</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28707</c:v>
+                  <c:v>23918</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23918</c:v>
+                  <c:v>20650</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14243</c:v>
+                  <c:v>20078</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>18192</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>11657</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
+                  <c:v>11096</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10777</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>10450</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>10446</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>10396</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>10364</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>10352</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>10168</c:v>
-                </c:pt>
                 <c:pt idx="19">
+                  <c:v>10273</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10124</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>9839</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>9122</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6239</c:v>
+                <c:pt idx="22">
+                  <c:v>7581.59</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7445</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2496,7 +2752,7 @@
               <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2569,7 +2825,7 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2599,149 +2855,161 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'PES MT'!$B$4:$B$26</c:f>
+              <c:f>'PES MT'!$B$4:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Celeron N3450 (Apollo Lake) [37]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>i7 2600K (Sandy Bridge) @4,4Ghz [34]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>i5 7500 (Kaby Lake) 4C/4T [40]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>i7 7500U (Kaby Lake) 2C/4T [36]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>i7 5775C (Broadwell) [28]</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>i5 8600k (Coffee Lake) [39]</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>i7 1165G7 (TigerLake) [24]</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>i7 8700k (Coffee Lake) @5Ghz [41]</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>R7 3700X (Matisse) v0.3.1 [6]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>R7 4700U (Renoir) v0.3.1 [14]</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
+                  <c:v>R5 4500U (Renoir) [29]</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>R7 5800X (Vermeer) [35]</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="18">
                   <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>R9 5900HS (Cezanne) v0.3.1 [16]</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>R7 5800H (Cezanne) [42]</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>R9 5900X (Vermeer) v0.3.1 [19]</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>R7 4750G (Renoir)@25W v0.3.1 [13]</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>R9 5950X (Vermeer) v0.3.1 [4]</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>R9 5950X (Vermeer) [22]</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>R9 5950X (Vermeer)@-0,1V [25]</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>R9 5950X (Vermeer) v0.3.1 [20]</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>R9 5950X (Vermeer) [21]</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>R9 5950X (Vermeer) [26]</c:v>
+                  <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>R9 5900X (Vermeer) [32]</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PES MT'!$C$4:$C$26</c:f>
+              <c:f>'PES MT'!$C$4:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>35.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>237.59</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>262.60000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>269.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>336.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>384.59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>560.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>656.66</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>739.31</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>885.22</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1314.72</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
+                  <c:v>925.56</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1386.39</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>1438.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1818.77</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2058.48</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2586.7600000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2618.48</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
+                  <c:v>1839.93</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2347.02</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>2637.56</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
+                  <c:v>2778.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>2787.1</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>3498.15</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>3171.28</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>3599.63</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>3815.05</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3983</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4670.05</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4779.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4834.1899999999996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5167.0600000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5295.16</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>3936.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4461.2299999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>5945.36</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6103.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3566,7 +3834,7 @@
               <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -3639,7 +3907,7 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="inBase"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3669,149 +3937,161 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Consumption MT'!$B$4:$B$26</c:f>
+              <c:f>'Consumption MT'!$B$4:$B$28</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>i7 2600K (Sandy Bridge) @4,4Ghz [34]</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>R3 1200 (Summit Ridge) v0.3.1 [17]</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>Celeron N3450 (Apollo Lake) [37]</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>i5 8600k (Coffee Lake) [39]</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>i7 8700k (Coffee Lake) @5Ghz [41]</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>i5 7500 (Kaby Lake) 4C/4T [40]</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>i7 5775C (Broadwell) [28]</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R7 5800X (Vermeer) [35]</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>R5 3600 (Matisse) v0.3.1 [2]</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>R7 3700X (Matisse) v0.3.1 [6]</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>R9 5950X (Vermeer) v0.3.1 [4]</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>R9 5950X (Vermeer) [22]</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>R5 PRO 4650G (Renoir) v0.3.1 [12]</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>R9 5950X (Vermeer) v0.3.1 [20]</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>R9 5900X (Vermeer) v0.3.1 [19]</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>R9 5950X (Vermeer)@-0,1V [25]</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>R7 4750G (Renoir) v0.3.1 [5]</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>i7 1165G7 (TigerLake) [24]</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>i7 7500U (Kaby Lake) 2C/4T [36]</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R9 5900X (Vermeer) [32]</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>i5 8365U (WhiskeyLake) v0.3.1 [11]</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>R7 5800H (Cezanne) [42]</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>R7 3700X (Matisse) v0.3.1 [18]</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>R9 5950X (Vermeer) [21]</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>R9 5950X (Vermeer) [26]</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
+                  <c:v>R9 5950X (Vermeer) v0.5.0 [21]</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>i7 1065G (IceLake) v0.3.1 [3]</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>R9 5900HS (Cezanne) v0.3.1 [16]</c:v>
-                </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
+                  <c:v>i7 1165G7 (TigerLake) v0.5.0 [24]</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R5 4500U (Renoir) [29]</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>R9 5900HS (Cezanne) v0.5.0 [30]</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>R7 4700U (Renoir) [1]</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>R7 4700U (Renoir) v0.3.1 [14]</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>R7 4750G (Renoir)@25W v0.3.1 [13]</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>R7 4750U (Renoir) v0.3.1 [7]</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Consumption MT'!$C$4:$C$26</c:f>
+              <c:f>'Consumption MT'!$C$4:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>20531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18669</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>13138</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>12920</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9308</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7508</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7223</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6377</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6242</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5902</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>5785</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5633</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5607</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5332</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>5262</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>5212</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>5226</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5187.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4575</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
+                  <c:v>4516</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4404</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="17">
                   <c:v>4356</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>4353.5600000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>3912</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>3831</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2651</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2649</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>2227</c:v>
+                  <c:v>3774</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>3342.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3010</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6350,19 +6630,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44374.410342592593" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="26" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Boris Vogel" refreshedDate="44388.510275347224" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="42" xr:uid="{C24FFD77-3521-4F02-80D3-24DB3F3B062D}">
   <cacheSource type="worksheet">
     <worksheetSource name="GeneralTable"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="Ref-No." numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="26"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="42"/>
     </cacheField>
     <cacheField name="Version" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Post-No" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="96"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="156"/>
     </cacheField>
     <cacheField name="CPU" numFmtId="0">
       <sharedItems/>
@@ -6382,32 +6662,32 @@
         <s v="x"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="PES ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.28" maxValue="173.7"/>
+    <cacheField name="PES ST" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.690000000000001" maxValue="216.08"/>
     </cacheField>
-    <cacheField name="Cons. ST" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6239" maxValue="57948"/>
+    <cacheField name="Cons. ST" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6239" maxValue="55373"/>
     </cacheField>
-    <cacheField name="Dur. ST" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="16.03" maxValue="1678.77"/>
+    <cacheField name="Dur. ST" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="16.03" maxValue="3293.49"/>
     </cacheField>
-    <cacheField name="Avg. Pwr. ST" numFmtId="0">
+    <cacheField name="Avg. Pwr. ST" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="4.3499999999999996" maxValue="87.69"/>
     </cacheField>
-    <cacheField name="PES MT" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="240.62" maxValue="6103.75"/>
+    <cacheField name="PES MT" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="35.61" maxValue="6103.75"/>
     </cacheField>
-    <cacheField name="Cons. MT" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1738" maxValue="20261"/>
+    <cacheField name="Cons. MT" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1738" maxValue="20531"/>
     </cacheField>
-    <cacheField name="Dur. MT" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="33.520000000000003" maxValue="332.85"/>
+    <cacheField name="Dur. MT" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="33.520000000000003" maxValue="2173.7800000000002"/>
     </cacheField>
-    <cacheField name="Avg. Pwr. MT" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="11.52" maxValue="186.22"/>
+    <cacheField name="Avg. Pwr. MT" numFmtId="164">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.94" maxValue="186.22"/>
     </cacheField>
     <cacheField name="GraphLabel" numFmtId="0">
-      <sharedItems count="46">
+      <sharedItems count="71">
         <s v="R7 4700U (Renoir) [1]"/>
         <s v="R5 3600 (Matisse) v0.3.1 [2]"/>
         <s v="i7 1065G (IceLake) v0.3.1 [3]"/>
@@ -6416,11 +6696,11 @@
         <s v="R7 3700X (Matisse) v0.3.1 [6]"/>
         <s v="R7 4750U (Renoir) v0.3.1 [7]"/>
         <s v="R9 5950X (Vermeer) v0.3.1 [8]"/>
-        <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]"/>
+        <s v="R9 5900HS (Cezanne) @ESM v0.3.1 [9]"/>
         <s v="R9 5900HS (Cezanne) v0.3.1 [10]"/>
         <s v="i5 8365U (WhiskeyLake) v0.3.1 [11]"/>
         <s v="R5 PRO 4650G (Renoir) v0.3.1 [12]"/>
-        <s v="R7 4750G (Renoir)@25W v0.3.1 [13]"/>
+        <s v="R7 4750G (Renoir) @25W v0.3.1 [13]"/>
         <s v="R7 4700U (Renoir) v0.3.1 [14]"/>
         <s v="R9 5950X (Vermeer) v0.3.1 [15]"/>
         <s v="R9 5900HS (Cezanne) v0.3.1 [16]"/>
@@ -6428,30 +6708,55 @@
         <s v="R7 3700X (Matisse) v0.3.1 [18]"/>
         <s v="R9 5900X (Vermeer) v0.3.1 [19]"/>
         <s v="R9 5950X (Vermeer) v0.3.1 [20]"/>
-        <s v="R9 5950X (Vermeer) [21]"/>
-        <s v="R9 5950X (Vermeer) [22]"/>
-        <s v="??? v0.3.1 [23]"/>
-        <s v="i7 1165G7 (TigerLake) [24]"/>
-        <s v="R9 5950X (Vermeer)@-0,1V [25]"/>
-        <s v="R9 5950X (Vermeer) [26]"/>
+        <s v="R9 5950X (Vermeer) v0.5.0 [21]"/>
+        <s v="R9 5950X (Vermeer) v0.5.0 [22]"/>
+        <s v="i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]"/>
+        <s v="i7 1165G7 (TigerLake) v0.5.0 [24]"/>
+        <s v="R9 5950X (Vermeer) @-0,1V v0.5.0 [25]"/>
+        <s v="R9 5950X (Vermeer) v0.3.1 [26]"/>
+        <s v="R7 4750G (Renoir) @20W [27]"/>
+        <s v="i7 5775C (Broadwell) [28]"/>
+        <s v="R5 4500U (Renoir) [29]"/>
+        <s v="R9 5900HS (Cezanne) v0.5.0 [30]"/>
+        <s v="R9 5900X (Vermeer) [31]"/>
+        <s v="R9 5900X (Vermeer) [32]"/>
+        <s v="R9 5900X (Vermeer) [33]"/>
+        <s v="i7 2600K (Sandy Bridge) @4,4Ghz [34]"/>
+        <s v="R7 5800X (Vermeer) [35]"/>
+        <s v="i7 7500U (Kaby Lake) 2C/4T [36]"/>
+        <s v="Celeron N3450 (Apollo Lake) [37]"/>
+        <s v="R7 5800X (Vermeer) [38]"/>
+        <s v="i5 8600k (Coffee Lake) [39]"/>
+        <s v="i5 7500 (Kaby Lake) 4C/4T [40]"/>
+        <s v="i7 8700k (Coffee Lake) @5Ghz [41]"/>
+        <s v="R7 5800H (Cezanne) [42]"/>
         <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [6]" u="1"/>
+        <s v="i7 7500U (Kaby Lake) [36]" u="1"/>
         <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [8]" u="1"/>
         <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [13]" u="1"/>
         <s v="AMD Ryzen 7 4700U (Renoir) v0.3.1 [14]" u="1"/>
         <s v="AMD Ryzen 7 3700X (Matisse) v0.3.1 [18]" u="1"/>
         <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [10]" u="1"/>
+        <s v="R9 5900HS (Cezanne)@ESM v0.3.1 [9]" u="1"/>
         <s v="AMD Ryzen 7 4750U (Renoir) v0.3.1 [7]" u="1"/>
         <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [9]" u="1"/>
         <s v="AMD Ryzen 5 PRO 4650G (Renoir) v0.3.1 [12]" u="1"/>
         <s v="AMD Ryzen 5 3600 (Matisse) v0.3.1 [2]" u="1"/>
+        <s v="R9 5950X (Vermeer) [21]" u="1"/>
         <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [20]" u="1"/>
+        <s v="R9 5950X (Vermeer) [22]" u="1"/>
+        <s v="R9 5950X (Vermeer)@-0,1V [25]" u="1"/>
         <s v="AMD Ryzen 9 5900X (Vermeer) v0.3.1 [19]" u="1"/>
         <s v="Intel i7 1065G (IceLake) v0.3.1 [3]" u="1"/>
         <s v="AMD Ryzen 3 1200 (Summit Ridge) v0.3.1 [17]" u="1"/>
+        <s v="R9 5950X (Vermeer) [26]" u="1"/>
+        <s v="??? v0.3.1 [23]" u="1"/>
         <s v="AMD Ryzen 9 5900HS (Cezanne) v0.3.1 [16]" u="1"/>
         <s v="AMD Ryzen 7 4700U (Renoir) [1]" u="1"/>
+        <s v="i7 1165G7 (TigerLake) [24]" u="1"/>
         <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [15]" u="1"/>
         <s v="AMD Ryzen 7 4750G (Renoir) v0.3.1 [5]" u="1"/>
+        <s v="R7 4750G (Renoir)@25W v0.3.1 [13]" u="1"/>
         <s v="Intel Core i5-8365U (WhiskeyLake) v0.3.1 [11]" u="1"/>
         <s v="AMD Ryzen 9 5950X (Vermeer) v0.3.1 [4]" u="1"/>
       </sharedItems>
@@ -6472,27 +6777,27 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="42">
   <r>
     <n v="1"/>
-    <s v="v0.5.0"/>
+    <s v="v0.5.1"/>
     <n v="3"/>
     <s v="R7 4700U (Renoir)"/>
     <s v="CrazyIvan"/>
-    <s v="Batt. / Win: Better Eff. / HP: Recmd."/>
+    <s v="AC / Win: Best Perf. / HP: Recmd."/>
     <m/>
     <x v="0"/>
-    <n v="129.46"/>
-    <n v="10446"/>
-    <n v="739.49"/>
-    <n v="14.13"/>
-    <n v="2618.48"/>
-    <n v="2651"/>
-    <n v="144.08000000000001"/>
-    <n v="18.399999999999999"/>
+    <n v="141.66999999999999"/>
+    <n v="10273"/>
+    <n v="687.11"/>
+    <n v="14.95"/>
+    <n v="2778.66"/>
+    <n v="2220"/>
+    <n v="162.13"/>
+    <n v="13.69"/>
     <x v="0"/>
-    <s v="1|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|129,46|10446|739,49|14,13"/>
-    <s v="1|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|2618,48|2651|144,08|18,4"/>
+    <s v="1|3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|141,67|10273|687,11|14,95"/>
+    <s v="1|3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|2778,66|2220|162,13|13,69"/>
   </r>
   <r>
     <n v="2"/>
@@ -6544,7 +6849,7 @@
     <s v="dosenfisch24"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="55.41"/>
     <n v="35920"/>
     <n v="502.43"/>
@@ -6586,7 +6891,7 @@
     <s v="Tigershark"/>
     <s v="PBO on"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="51.8"/>
     <n v="30057"/>
     <m/>
@@ -6649,7 +6954,7 @@
     <s v="Monkey"/>
     <s v="Win: Energy Saving"/>
     <s v="@ESM"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="111.79"/>
     <n v="6239"/>
     <n v="1433.91"/>
@@ -6733,7 +7038,7 @@
     <s v="Poekel"/>
     <s v="25W"/>
     <s v="@25W"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="173.7"/>
     <n v="9122"/>
     <n v="631.12"/>
@@ -6754,7 +7059,7 @@
     <s v="CrazyIvan"/>
     <s v="Batt. / Win: Better Eff. / HP: Recmd."/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="133.62"/>
     <n v="10168"/>
     <m/>
@@ -6796,7 +7101,7 @@
     <s v="Monkey"/>
     <s v="Win: Best Perf."/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="169.55"/>
     <n v="10364"/>
     <n v="569.12"/>
@@ -6859,7 +7164,7 @@
     <s v="Krischi"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="41.55"/>
     <n v="45942"/>
     <n v="523.91"/>
@@ -6880,7 +7185,7 @@
     <s v="LeiwandEr"/>
     <s v="manual Curve Optimization"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="60.29"/>
     <n v="33002"/>
     <n v="502.56"/>
@@ -6922,7 +7227,7 @@
     <s v="misterh"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="63.92"/>
     <n v="30783"/>
     <n v="508.2"/>
@@ -6938,44 +7243,44 @@
   <r>
     <n v="23"/>
     <s v="v0.3.1"/>
-    <n v="91"/>
-    <s v="???"/>
+    <n v="108"/>
+    <s v="i7 4820K (Ivy Bridge)"/>
     <s v="Platos"/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <n v="10.28"/>
-    <n v="57948"/>
-    <n v="1678.77"/>
-    <n v="34.520000000000003"/>
-    <n v="240.62"/>
-    <n v="20261"/>
-    <n v="205.12"/>
-    <n v="98.78"/>
+    <s v="@4,5Ghz"/>
+    <s v="@4,5Ghz"/>
+    <x v="0"/>
+    <n v="17.45"/>
+    <n v="55373"/>
+    <n v="1034.6400000000001"/>
+    <n v="53.52"/>
+    <n v="237.59"/>
+    <n v="20531"/>
+    <n v="205"/>
+    <n v="100.15"/>
     <x v="22"/>
-    <s v="23|91|???|Platos||v0.3.1|10,28|57948|1678,77|34,52"/>
-    <s v="23|91|???|Platos||v0.3.1|240,62|20261|205,12|98,78"/>
+    <s v="23|108|i7 4820K (Ivy Bridge)|Platos|@4,5Ghz|v0.3.1|17,45|55373|1034,64|53,52"/>
+    <s v="23|108|i7 4820K (Ivy Bridge)|Platos|@4,5Ghz|v0.3.1|237,59|20531|205|100,15"/>
   </r>
   <r>
     <n v="24"/>
     <s v="v0.5.0"/>
-    <n v="94"/>
+    <n v="102"/>
     <s v="i7 1165G7 (TigerLake)"/>
     <s v="misterh"/>
-    <m/>
+    <s v="Win: Best Perf."/>
     <m/>
     <x v="0"/>
-    <n v="121.52"/>
-    <n v="14243"/>
-    <n v="577.78"/>
-    <n v="24.65"/>
-    <n v="1314.72"/>
-    <n v="5212"/>
-    <n v="145.93"/>
-    <n v="35.72"/>
+    <n v="172.46"/>
+    <n v="10777"/>
+    <n v="538.05999999999995"/>
+    <n v="20.03"/>
+    <n v="1438.78"/>
+    <n v="3774"/>
+    <n v="184.18"/>
+    <n v="20.49"/>
     <x v="23"/>
-    <s v="24|94|i7 1165G7 (TigerLake)|misterh||v0.5.0|121,52|14243|577,78|24,65"/>
-    <s v="24|94|i7 1165G7 (TigerLake)|misterh||v0.5.0|1314,72|5212|145,93|35,72"/>
+    <s v="24|102|i7 1165G7 (TigerLake)|misterh|Win: Best Perf.|v0.5.0|172,46|10777|538,06|20,03"/>
+    <s v="24|102|i7 1165G7 (TigerLake)|misterh|Win: Best Perf.|v0.5.0|1438,78|3774|184,18|20,49"/>
   </r>
   <r>
     <n v="25"/>
@@ -6985,7 +7290,7 @@
     <s v="misterh"/>
     <s v="-0,1V Curve Optimization"/>
     <s v="@-0,1V"/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="63.04"/>
     <n v="28707"/>
     <n v="552.55999999999995"/>
@@ -7000,13 +7305,13 @@
   </r>
   <r>
     <n v="26"/>
-    <s v="v0.5.0"/>
+    <s v="v0.3.1"/>
     <n v="96"/>
     <s v="R9 5950X (Vermeer)"/>
     <s v="Sweepi"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
     <n v="59.97"/>
     <n v="33184.629999999997"/>
     <n v="502.51"/>
@@ -7016,15 +7321,351 @@
     <n v="37.630000000000003"/>
     <n v="115.69"/>
     <x v="25"/>
-    <s v="26|96|R9 5950X (Vermeer)|Sweepi||v0.5.0|59,97|33184,63|502,51|66,04"/>
-    <s v="26|96|R9 5950X (Vermeer)|Sweepi||v0.5.0|6103,75|4353,56|37,63|115,69"/>
+    <s v="26|96|R9 5950X (Vermeer)|Sweepi||v0.3.1|59,97|33184,63|502,51|66,04"/>
+    <s v="26|96|R9 5950X (Vermeer)|Sweepi||v0.3.1|6103,75|4353,56|37,63|115,69"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <s v="v0.5.1"/>
+    <n v="118"/>
+    <s v="R7 4750G (Renoir)"/>
+    <s v="Poekel"/>
+    <s v="20W"/>
+    <s v="@20W"/>
+    <x v="1"/>
+    <n v="164.2"/>
+    <n v="9800.31"/>
+    <n v="621.42999999999995"/>
+    <n v="15.77"/>
+    <n v="4760.57"/>
+    <n v="2004.54"/>
+    <n v="104.79"/>
+    <n v="19.13"/>
+    <x v="26"/>
+    <s v="27|118|R7 4750G (Renoir)|Poekel|20W|v0.5.1|164,2|9800,31|621,43|15,77"/>
+    <s v="27|118|R7 4750G (Renoir)|Poekel|20W|v0.5.1|4760,57|2004,54|104,79|19,13"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <s v="v0.5.1"/>
+    <n v="129"/>
+    <s v="i7 5775C (Broadwell)"/>
+    <s v="MD_Enigma"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="55.06"/>
+    <n v="20078"/>
+    <n v="904.59"/>
+    <n v="22.2"/>
+    <n v="560.07000000000005"/>
+    <n v="9308"/>
+    <n v="191.83"/>
+    <n v="48.52"/>
+    <x v="27"/>
+    <s v="28|129|i7 5775C (Broadwell)|MD_Enigma||v0.5.1|55,06|20078|904,59|22,2"/>
+    <s v="28|129|i7 5775C (Broadwell)|MD_Enigma||v0.5.1|560,07|9308|191,83|48,52"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <s v="v0.5.1"/>
+    <n v="133"/>
+    <s v="R5 4500U (Renoir)"/>
+    <s v="Poekel"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="186.38"/>
+    <n v="7581.59"/>
+    <n v="707.68"/>
+    <n v="10.71"/>
+    <n v="1839.93"/>
+    <n v="3342.48"/>
+    <n v="162.6"/>
+    <n v="20.56"/>
+    <x v="28"/>
+    <s v="29|133|R5 4500U (Renoir)|Poekel||v0.5.1|186,38|7581,59|707,68|10,71"/>
+    <s v="29|133|R5 4500U (Renoir)|Poekel||v0.5.1|1839,93|3342,48|162,6|20,56"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <s v="v0.5.0"/>
+    <n v="134"/>
+    <s v="R9 5900HS (Cezanne)"/>
+    <s v="Monkey"/>
+    <s v="Win: Better Eff."/>
+    <m/>
+    <x v="0"/>
+    <n v="216.08"/>
+    <n v="7445"/>
+    <n v="621.65"/>
+    <n v="11.98"/>
+    <n v="3936.18"/>
+    <n v="3010"/>
+    <n v="84.41"/>
+    <n v="35.659999999999997"/>
+    <x v="29"/>
+    <s v="30|134|R9 5900HS (Cezanne)|Monkey|Win: Better Eff.|v0.5.0|216,08|7445|621,65|11,98"/>
+    <s v="30|134|R9 5900HS (Cezanne)|Monkey|Win: Better Eff.|v0.5.0|3936,18|3010|84,41|35,66"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <s v="v0.5.1"/>
+    <n v="135"/>
+    <s v="R9 5900X (Vermeer)"/>
+    <s v="harzer_knaller"/>
+    <s v="Balanced Power Plan"/>
+    <m/>
+    <x v="1"/>
+    <n v="60.14"/>
+    <n v="24336"/>
+    <n v="683.23"/>
+    <n v="35.619999999999997"/>
+    <n v="4414.66"/>
+    <n v="4151"/>
+    <n v="54.57"/>
+    <n v="76.08"/>
+    <x v="30"/>
+    <s v="31|135|R9 5900X (Vermeer)|harzer_knaller|Balanced Power Plan|v0.5.1|60,14|24336|683,23|35,62"/>
+    <s v="31|135|R9 5900X (Vermeer)|harzer_knaller|Balanced Power Plan|v0.5.1|4414,66|4151|54,57|76,08"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <s v="v0.5.1"/>
+    <n v="136"/>
+    <s v="R9 5900X (Vermeer)"/>
+    <s v="Darkearth27"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="75.569999999999993"/>
+    <n v="25543"/>
+    <n v="518.05999999999995"/>
+    <n v="49.31"/>
+    <n v="4461.2299999999996"/>
+    <n v="5187.88"/>
+    <n v="43.21"/>
+    <n v="120.07"/>
+    <x v="31"/>
+    <s v="32|136|R9 5900X (Vermeer)|Darkearth27||v0.5.1|75,57|25543|518,06|49,31"/>
+    <s v="32|136|R9 5900X (Vermeer)|Darkearth27||v0.5.1|4461,23|5187,88|43,21|120,07"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <s v="v0.5.1"/>
+    <n v="140"/>
+    <s v="R9 5900X (Vermeer)"/>
+    <s v="Krischi"/>
+    <s v="CTR"/>
+    <m/>
+    <x v="1"/>
+    <n v="52.3"/>
+    <n v="38103"/>
+    <n v="501.84"/>
+    <n v="75.930000000000007"/>
+    <n v="3945.77"/>
+    <n v="5760"/>
+    <n v="44"/>
+    <n v="130.91999999999999"/>
+    <x v="32"/>
+    <s v="33|140|R9 5900X (Vermeer)|Krischi|CTR|v0.5.1|52,3|38103|501,84|75,93"/>
+    <s v="33|140|R9 5900X (Vermeer)|Krischi|CTR|v0.5.1|3945,77|5760|44|130,92"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <s v="v0.5.1"/>
+    <n v="141"/>
+    <s v="i7 2600K (Sandy Bridge)"/>
+    <s v="Tyrann"/>
+    <s v="@4,4Ghz"/>
+    <s v="@4,4Ghz"/>
+    <x v="0"/>
+    <n v="26.38"/>
+    <n v="38525"/>
+    <n v="983.86"/>
+    <n v="39.159999999999997"/>
+    <n v="269.61"/>
+    <n v="18669"/>
+    <n v="198.68"/>
+    <n v="93.96"/>
+    <x v="33"/>
+    <s v="34|141|i7 2600K (Sandy Bridge)|Tyrann|@4,4Ghz|v0.5.1|26,38|38525|983,86|39,16"/>
+    <s v="34|141|i7 2600K (Sandy Bridge)|Tyrann|@4,4Ghz|v0.5.1|269,61|18669|198,68|93,96"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="v0.5.1"/>
+    <n v="145"/>
+    <s v="R7 5800X (Vermeer)"/>
+    <s v="hq-hq"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="57.13"/>
+    <n v="34236"/>
+    <n v="511.24"/>
+    <n v="66.97"/>
+    <n v="2347.02"/>
+    <n v="7508"/>
+    <n v="56.75"/>
+    <n v="132.29"/>
+    <x v="34"/>
+    <s v="35|145|R7 5800X (Vermeer)|hq-hq||v0.5.1|57,13|34236|511,24|66,97"/>
+    <s v="35|145|R7 5800X (Vermeer)|hq-hq||v0.5.1|2347,02|7508|56,75|132,29"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="v0.5.1"/>
+    <n v="146"/>
+    <s v="i7 7500U (Kaby Lake)"/>
+    <s v="Tyrann"/>
+    <m/>
+    <s v="2C/4T"/>
+    <x v="0"/>
+    <n v="83.49"/>
+    <n v="11096"/>
+    <n v="1079.3699999999999"/>
+    <n v="10.28"/>
+    <n v="384.59"/>
+    <n v="5226"/>
+    <n v="497.55"/>
+    <n v="10.5"/>
+    <x v="35"/>
+    <s v="36|146|i7 7500U (Kaby Lake)|Tyrann||v0.5.1|83,49|11096|1079,37|10,28"/>
+    <s v="36|146|i7 7500U (Kaby Lake)|Tyrann||v0.5.1|384,59|5226|497,55|10,5"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="v0.5.1"/>
+    <n v="146"/>
+    <s v="Celeron N3450 (Apollo Lake)"/>
+    <s v="Tyrann"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="16.690000000000001"/>
+    <n v="18192"/>
+    <n v="3293.49"/>
+    <n v="5.52"/>
+    <n v="35.61"/>
+    <n v="12920"/>
+    <n v="2173.7800000000002"/>
+    <n v="5.94"/>
+    <x v="36"/>
+    <s v="37|146|Celeron N3450 (Apollo Lake)|Tyrann||v0.5.1|16,69|18192|3293,49|5,52"/>
+    <s v="37|146|Celeron N3450 (Apollo Lake)|Tyrann||v0.5.1|35,61|12920|2173,78|5,94"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <s v="v0.5.1"/>
+    <n v="148"/>
+    <s v="R7 5800X (Vermeer)"/>
+    <s v="patrock84"/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <n v="68.06"/>
+    <n v="28138"/>
+    <n v="522.16999999999996"/>
+    <n v="53.89"/>
+    <n v="1876.01"/>
+    <n v="7902"/>
+    <n v="67.459999999999994"/>
+    <n v="117.13"/>
+    <x v="37"/>
+    <s v="38|148|R7 5800X (Vermeer)|patrock84||v0.5.1|68,06|28138|522,17|53,89"/>
+    <s v="38|148|R7 5800X (Vermeer)|patrock84||v0.5.1|1876,01|7902|67,46|117,13"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <s v="v0.5.1"/>
+    <n v="154"/>
+    <s v="i5 8600k (Coffee Lake)"/>
+    <s v="hq-hq"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="58.25"/>
+    <n v="27864"/>
+    <n v="616.08000000000004"/>
+    <n v="45.23"/>
+    <n v="739.31"/>
+    <n v="12266"/>
+    <n v="110.27"/>
+    <n v="111.24"/>
+    <x v="38"/>
+    <s v="39|154|i5 8600k (Coffee Lake)|hq-hq||v0.5.1|58,25|27864|616,08|45,23"/>
+    <s v="39|154|i5 8600k (Coffee Lake)|hq-hq||v0.5.1|739,31|12266|110,27|111,24"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <s v="v0.5.1"/>
+    <n v="154"/>
+    <s v="i5 7500 (Kaby Lake)"/>
+    <s v="hq-hq"/>
+    <m/>
+    <s v="4C/4T"/>
+    <x v="0"/>
+    <n v="54.74"/>
+    <n v="20650"/>
+    <n v="884.67"/>
+    <n v="23.34"/>
+    <n v="336.42"/>
+    <n v="10055"/>
+    <n v="295.61"/>
+    <n v="34.020000000000003"/>
+    <x v="39"/>
+    <s v="40|154|i5 7500 (Kaby Lake)|hq-hq||v0.5.1|54,74|20650|884,67|23,34"/>
+    <s v="40|154|i5 7500 (Kaby Lake)|hq-hq||v0.5.1|336,42|10055|295,61|34,02"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <s v="v0.5.1"/>
+    <n v="155"/>
+    <s v="i7 8700k (Coffee Lake)"/>
+    <s v="Bernman"/>
+    <s v="@5Ghz"/>
+    <s v="@5Ghz"/>
+    <x v="0"/>
+    <n v="61.55"/>
+    <n v="25887"/>
+    <n v="627.62"/>
+    <n v="41.25"/>
+    <n v="925.56"/>
+    <n v="12017"/>
+    <n v="89.91"/>
+    <n v="133.65"/>
+    <x v="40"/>
+    <s v="41|155|i7 8700k (Coffee Lake)|Bernman|@5Ghz|v0.5.1|61,55|25887|627,62|41,25"/>
+    <s v="41|155|i7 8700k (Coffee Lake)|Bernman|@5Ghz|v0.5.1|925,56|12017|89,91|133,65"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <s v="v0.5.1"/>
+    <n v="156"/>
+    <s v="R7 5800H (Cezanne)"/>
+    <s v="Darkearth27"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="168.79"/>
+    <n v="10124"/>
+    <n v="585.17999999999995"/>
+    <n v="17.3"/>
+    <n v="3171.28"/>
+    <n v="4516"/>
+    <n v="69.83"/>
+    <n v="64.67"/>
+    <x v="41"/>
+    <s v="42|156|R7 5800H (Cezanne)|Darkearth27||v0.5.1|168,79|10124|585,18|17,3"/>
+    <s v="42|156|R7 5800H (Cezanne)|Darkearth27||v0.5.1|3171,28|4516|69,83|64,67"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
-  <location ref="B3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC0BFEFE-A716-4026-A564-144290A7DD0A}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+  <location ref="B3:C28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7049,27 +7690,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="47">
-        <item m="1" x="41"/>
-        <item m="1" x="35"/>
-        <item m="1" x="38"/>
+      <items count="72">
+        <item m="1" x="64"/>
+        <item m="1" x="53"/>
+        <item m="1" x="59"/>
+        <item m="1" x="70"/>
+        <item m="1" x="67"/>
+        <item m="1" x="42"/>
+        <item m="1" x="50"/>
+        <item m="1" x="44"/>
+        <item m="1" x="51"/>
+        <item m="1" x="48"/>
+        <item m="1" x="69"/>
+        <item m="1" x="52"/>
         <item m="1" x="45"/>
-        <item m="1" x="43"/>
-        <item m="1" x="26"/>
-        <item m="1" x="32"/>
-        <item m="1" x="27"/>
-        <item m="1" x="33"/>
-        <item m="1" x="31"/>
-        <item m="1" x="44"/>
-        <item m="1" x="34"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="42"/>
-        <item m="1" x="40"/>
-        <item m="1" x="39"/>
-        <item m="1" x="30"/>
-        <item m="1" x="37"/>
-        <item m="1" x="36"/>
+        <item m="1" x="46"/>
+        <item m="1" x="66"/>
+        <item m="1" x="63"/>
+        <item m="1" x="60"/>
+        <item m="1" x="47"/>
+        <item m="1" x="58"/>
+        <item m="1" x="55"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -7078,11 +7719,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="8"/>
+        <item m="1" x="49"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item x="12"/>
+        <item m="1" x="68"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -7090,12 +7731,37 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item m="1" x="54"/>
+        <item m="1" x="56"/>
+        <item m="1" x="62"/>
+        <item m="1" x="65"/>
+        <item m="1" x="57"/>
+        <item m="1" x="61"/>
+        <item x="8"/>
+        <item x="12"/>
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item m="1" x="43"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -7114,60 +7780,60 @@
   <rowFields count="1">
     <field x="16"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="25">
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
     <i>
       <x v="36"/>
-    </i>
-    <i>
-      <x v="38"/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i>
-      <x v="25"/>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="55"/>
     </i>
     <i>
       <x v="37"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="62"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="67"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="69"/>
     </i>
     <i>
-      <x v="40"/>
+      <x v="48"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="59"/>
     </i>
     <i>
-      <x v="41"/>
+      <x v="66"/>
     </i>
     <i>
       <x v="30"/>
     </i>
     <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
       <x v="22"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="26"/>
     </i>
     <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="26"/>
+      <x v="20"/>
     </i>
     <i>
       <x v="31"/>
@@ -7176,10 +7842,16 @@
       <x v="24"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="70"/>
     </i>
     <i>
-      <x v="32"/>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
     </i>
     <i t="grand">
       <x/>
@@ -7218,8 +7890,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
-  <location ref="B3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{056CE95F-2CE7-42FD-BB6D-DBBA62D051FD}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="22">
+  <location ref="B3:C28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7244,27 +7916,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="47">
-        <item m="1" x="41"/>
-        <item m="1" x="35"/>
-        <item m="1" x="38"/>
+      <items count="72">
+        <item m="1" x="64"/>
+        <item m="1" x="53"/>
+        <item m="1" x="59"/>
+        <item m="1" x="70"/>
+        <item m="1" x="67"/>
+        <item m="1" x="42"/>
+        <item m="1" x="50"/>
+        <item m="1" x="44"/>
+        <item m="1" x="51"/>
+        <item m="1" x="48"/>
+        <item m="1" x="69"/>
+        <item m="1" x="52"/>
         <item m="1" x="45"/>
-        <item m="1" x="43"/>
-        <item m="1" x="26"/>
-        <item m="1" x="32"/>
-        <item m="1" x="27"/>
-        <item m="1" x="33"/>
-        <item m="1" x="31"/>
-        <item m="1" x="44"/>
-        <item m="1" x="34"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="42"/>
-        <item m="1" x="40"/>
-        <item m="1" x="39"/>
-        <item m="1" x="30"/>
-        <item m="1" x="37"/>
-        <item m="1" x="36"/>
+        <item m="1" x="46"/>
+        <item m="1" x="66"/>
+        <item m="1" x="63"/>
+        <item m="1" x="60"/>
+        <item m="1" x="47"/>
+        <item m="1" x="58"/>
+        <item m="1" x="55"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -7273,11 +7945,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="8"/>
+        <item m="1" x="49"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item x="12"/>
+        <item m="1" x="68"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -7285,12 +7957,37 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item m="1" x="54"/>
+        <item m="1" x="56"/>
+        <item m="1" x="62"/>
+        <item m="1" x="65"/>
+        <item m="1" x="57"/>
+        <item m="1" x="61"/>
+        <item x="8"/>
+        <item x="12"/>
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item m="1" x="43"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -7309,72 +8006,78 @@
   <rowFields count="1">
     <field x="16"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="25">
     <i>
-      <x v="38"/>
+      <x v="50"/>
     </i>
     <i>
-      <x v="23"/>
+      <x v="61"/>
     </i>
     <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="39"/>
+      <x v="62"/>
     </i>
     <i>
       <x v="36"/>
     </i>
     <i>
-      <x v="40"/>
+      <x v="48"/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i>
-      <x v="41"/>
+      <x v="67"/>
     </i>
     <i>
-      <x v="25"/>
+      <x v="69"/>
     </i>
     <i>
-      <x v="44"/>
+      <x v="59"/>
     </i>
     <i>
       <x v="37"/>
     </i>
     <i>
-      <x v="43"/>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="64"/>
     </i>
     <i>
       <x v="30"/>
     </i>
     <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
       <x v="31"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="24"/>
     </i>
     <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="33"/>
+      <x v="70"/>
     </i>
     <i>
       <x v="22"/>
     </i>
     <i>
-      <x v="32"/>
+      <x v="56"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="57"/>
     </i>
     <i t="grand">
       <x/>
@@ -7413,8 +8116,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="B3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9BB96FF-3D68-4286-89DF-310DCD70893C}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="B3:C28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7439,27 +8142,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="47">
-        <item m="1" x="41"/>
-        <item m="1" x="35"/>
-        <item m="1" x="38"/>
+      <items count="72">
+        <item m="1" x="64"/>
+        <item m="1" x="53"/>
+        <item m="1" x="59"/>
+        <item m="1" x="70"/>
+        <item m="1" x="67"/>
+        <item m="1" x="42"/>
+        <item m="1" x="50"/>
+        <item m="1" x="44"/>
+        <item m="1" x="51"/>
+        <item m="1" x="48"/>
+        <item m="1" x="69"/>
+        <item m="1" x="52"/>
         <item m="1" x="45"/>
-        <item m="1" x="43"/>
-        <item m="1" x="26"/>
-        <item m="1" x="32"/>
-        <item m="1" x="27"/>
-        <item m="1" x="33"/>
-        <item m="1" x="31"/>
-        <item m="1" x="44"/>
-        <item m="1" x="34"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="42"/>
-        <item m="1" x="40"/>
-        <item m="1" x="39"/>
-        <item m="1" x="30"/>
-        <item m="1" x="37"/>
-        <item m="1" x="36"/>
+        <item m="1" x="46"/>
+        <item m="1" x="66"/>
+        <item m="1" x="63"/>
+        <item m="1" x="60"/>
+        <item m="1" x="47"/>
+        <item m="1" x="58"/>
+        <item m="1" x="55"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -7468,11 +8171,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="8"/>
+        <item m="1" x="49"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item x="12"/>
+        <item m="1" x="68"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -7480,12 +8183,37 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item m="1" x="54"/>
+        <item m="1" x="56"/>
+        <item m="1" x="62"/>
+        <item m="1" x="65"/>
+        <item m="1" x="57"/>
+        <item m="1" x="61"/>
+        <item x="8"/>
+        <item x="12"/>
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item m="1" x="43"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -7504,72 +8232,78 @@
   <rowFields count="1">
     <field x="16"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="25">
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
     <i>
       <x v="36"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="55"/>
     </i>
     <i>
       <x v="30"/>
     </i>
     <i>
+      <x v="67"/>
+    </i>
+    <i>
       <x v="22"/>
     </i>
     <i>
-      <x v="43"/>
+      <x v="69"/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i>
+      <x v="51"/>
+    </i>
+    <i>
       <x v="31"/>
     </i>
     <i>
-      <x v="25"/>
+      <x v="56"/>
     </i>
     <i>
-      <x v="33"/>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="24"/>
     </i>
     <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="24"/>
-    </i>
-    <i>
       <x v="37"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="70"/>
     </i>
     <i>
       <x v="26"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="57"/>
     </i>
     <i>
-      <x v="38"/>
+      <x v="59"/>
     </i>
     <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="45"/>
+      <x v="48"/>
     </i>
     <i t="grand">
       <x/>
@@ -7608,8 +8342,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="B3:C26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{81875018-2FDD-4D02-B5CA-D328CB30719D}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+  <location ref="B3:C28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -7634,27 +8368,27 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="47">
-        <item m="1" x="41"/>
-        <item m="1" x="35"/>
-        <item m="1" x="38"/>
+      <items count="72">
+        <item m="1" x="64"/>
+        <item m="1" x="53"/>
+        <item m="1" x="59"/>
+        <item m="1" x="70"/>
+        <item m="1" x="67"/>
+        <item m="1" x="42"/>
+        <item m="1" x="50"/>
+        <item m="1" x="44"/>
+        <item m="1" x="51"/>
+        <item m="1" x="48"/>
+        <item m="1" x="69"/>
+        <item m="1" x="52"/>
         <item m="1" x="45"/>
-        <item m="1" x="43"/>
-        <item m="1" x="26"/>
-        <item m="1" x="32"/>
-        <item m="1" x="27"/>
-        <item m="1" x="33"/>
-        <item m="1" x="31"/>
-        <item m="1" x="44"/>
-        <item m="1" x="34"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="42"/>
-        <item m="1" x="40"/>
-        <item m="1" x="39"/>
-        <item m="1" x="30"/>
-        <item m="1" x="37"/>
-        <item m="1" x="36"/>
+        <item m="1" x="46"/>
+        <item m="1" x="66"/>
+        <item m="1" x="63"/>
+        <item m="1" x="60"/>
+        <item m="1" x="47"/>
+        <item m="1" x="58"/>
+        <item m="1" x="55"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -7663,11 +8397,11 @@
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="8"/>
+        <item m="1" x="49"/>
         <item x="9"/>
         <item x="10"/>
         <item x="11"/>
-        <item x="12"/>
+        <item m="1" x="68"/>
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
@@ -7675,12 +8409,37 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item m="1" x="54"/>
+        <item m="1" x="56"/>
+        <item m="1" x="62"/>
+        <item m="1" x="65"/>
+        <item m="1" x="57"/>
+        <item m="1" x="61"/>
+        <item x="8"/>
+        <item x="12"/>
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
         <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item m="1" x="43"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="35"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -7699,72 +8458,78 @@
   <rowFields count="1">
     <field x="16"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="25">
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
     <i>
       <x v="36"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="62"/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
       <x v="31"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="44"/>
     </i>
     <i>
       <x v="24"/>
     </i>
     <i>
-      <x v="43"/>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="59"/>
     </i>
     <i>
       <x v="30"/>
     </i>
     <i>
+      <x v="70"/>
+    </i>
+    <i>
       <x v="37"/>
     </i>
     <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="45"/>
+      <x v="48"/>
     </i>
     <i>
       <x v="22"/>
     </i>
     <i>
-      <x v="35"/>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
     </i>
     <i>
       <x v="20"/>
     </i>
     <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
       <x v="26"/>
-    </i>
-    <i>
-      <x v="28"/>
     </i>
     <i t="grand">
       <x/>
@@ -7779,8 +8544,44 @@
   <dataFields count="1">
     <dataField name="Summe von Cons. MT" fld="13" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="5">
     <chartFormat chart="4" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="20" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="21" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="25" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7803,27 +8604,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B3:T29" totalsRowShown="0">
-  <autoFilter ref="B3:T29" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}" name="GeneralTable" displayName="GeneralTable" ref="B3:T45" totalsRowShown="0">
+  <autoFilter ref="B3:T45" xr:uid="{D71527BF-35EF-41E4-9E51-2CB3A9570C24}"/>
   <tableColumns count="19">
     <tableColumn id="9" xr3:uid="{930AA11C-DBAD-449C-9AAB-58413DD653FF}" name="Ref-No."/>
     <tableColumn id="12" xr3:uid="{E49439F9-F907-4E59-A719-6E96236549B4}" name="Version" dataCellStyle="Eingabe"/>
     <tableColumn id="1" xr3:uid="{4EB90E3D-8138-420D-9685-23ED5E0CD304}" name="Post-No" dataCellStyle="Eingabe"/>
     <tableColumn id="2" xr3:uid="{92C57538-460C-4E03-9CB9-83B07236AA32}" name="CPU" dataCellStyle="Eingabe"/>
     <tableColumn id="3" xr3:uid="{F26113B1-1044-4D8E-AAF2-786269A14A78}" name="User" dataCellStyle="Eingabe"/>
-    <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Remark" dataDxfId="3" dataCellStyle="Eingabe"/>
-    <tableColumn id="19" xr3:uid="{94C794A9-6812-467E-9A80-159F40002F47}" name="Chart-Remark" dataDxfId="1" dataCellStyle="Eingabe"/>
-    <tableColumn id="17" xr3:uid="{4676CE90-8D18-4367-92DF-8446949D7324}" name="Exclude From Chart" dataDxfId="2" dataCellStyle="Eingabe"/>
-    <tableColumn id="4" xr3:uid="{DC9686E4-85C0-47F0-8897-2265DDE0051D}" name="PES ST" dataCellStyle="Eingabe"/>
-    <tableColumn id="6" xr3:uid="{374DB514-59D1-4DD5-9B7D-7CBBDA45F154}" name="Cons. ST" dataCellStyle="Eingabe"/>
-    <tableColumn id="13" xr3:uid="{10E1BD7B-CAF9-42F5-8914-D1310D8226D9}" name="Dur. ST" dataCellStyle="Eingabe"/>
-    <tableColumn id="14" xr3:uid="{24DAABC1-44C6-41F4-932F-8FE2CC1373D1}" name="Avg. Pwr. ST" dataCellStyle="Eingabe"/>
-    <tableColumn id="5" xr3:uid="{12E62267-0D7D-4CE4-BBC7-A7856D373EEC}" name="PES MT" dataCellStyle="Eingabe"/>
-    <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Cons. MT" dataCellStyle="Eingabe"/>
-    <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataCellStyle="Eingabe"/>
-    <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataCellStyle="Eingabe"/>
+    <tableColumn id="11" xr3:uid="{C9A1EC67-185F-4C31-82BF-1FD4E60EEEB8}" name="Remark" dataDxfId="11" dataCellStyle="Eingabe"/>
+    <tableColumn id="19" xr3:uid="{94C794A9-6812-467E-9A80-159F40002F47}" name="Chart-Remark" dataDxfId="10" dataCellStyle="Eingabe"/>
+    <tableColumn id="17" xr3:uid="{4676CE90-8D18-4367-92DF-8446949D7324}" name="Exclude From Chart" dataDxfId="9" dataCellStyle="Eingabe"/>
+    <tableColumn id="4" xr3:uid="{DC9686E4-85C0-47F0-8897-2265DDE0051D}" name="PES ST" dataDxfId="8" dataCellStyle="Eingabe"/>
+    <tableColumn id="6" xr3:uid="{374DB514-59D1-4DD5-9B7D-7CBBDA45F154}" name="Cons. ST" dataDxfId="7" dataCellStyle="Komma"/>
+    <tableColumn id="13" xr3:uid="{10E1BD7B-CAF9-42F5-8914-D1310D8226D9}" name="Dur. ST" dataDxfId="6" dataCellStyle="Eingabe"/>
+    <tableColumn id="14" xr3:uid="{24DAABC1-44C6-41F4-932F-8FE2CC1373D1}" name="Avg. Pwr. ST" dataDxfId="5" dataCellStyle="Eingabe"/>
+    <tableColumn id="5" xr3:uid="{12E62267-0D7D-4CE4-BBC7-A7856D373EEC}" name="PES MT" dataDxfId="4" dataCellStyle="Komma"/>
+    <tableColumn id="7" xr3:uid="{601EDF6E-3CF8-4495-BCA8-F12B64C740B5}" name="Cons. MT" dataDxfId="3" dataCellStyle="Komma"/>
+    <tableColumn id="15" xr3:uid="{CE683E5F-B131-497D-9152-9159DF956534}" name="Dur. MT" dataDxfId="2" dataCellStyle="Eingabe"/>
+    <tableColumn id="16" xr3:uid="{27A65197-EB92-4DD2-BC96-E7065F4BE0F9}" name="Avg. Pwr. MT" dataDxfId="1" dataCellStyle="Eingabe"/>
     <tableColumn id="10" xr3:uid="{17D81176-3AE4-44FC-9069-C773914DD128}" name="GraphLabel" dataDxfId="0" dataCellStyle="Standard">
-      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</calculatedColumnFormula>
+      <calculatedColumnFormula>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{7CD33795-D9C5-445A-86EB-6454E2C11F57}" name="BB-Code Single-Thread" dataCellStyle="Standard">
       <calculatedColumnFormula>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</calculatedColumnFormula>
@@ -8099,11 +8900,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:T29"/>
+  <dimension ref="B1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8132,12 +8931,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="7"/>
+      <c r="C1" s="24"/>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1">
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
@@ -8160,7 +8965,7 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
         <v>43</v>
@@ -8199,12 +9004,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -8216,45 +9021,45 @@
         <v>5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="4">
-        <v>129.46</v>
-      </c>
-      <c r="K4" s="4">
-        <v>10446</v>
-      </c>
-      <c r="L4" s="4">
-        <v>739.49</v>
-      </c>
-      <c r="M4" s="4">
-        <v>14.13</v>
-      </c>
-      <c r="N4" s="4">
-        <v>2618.48</v>
-      </c>
-      <c r="O4" s="4">
-        <v>2651</v>
-      </c>
-      <c r="P4" s="4">
-        <v>144.08000000000001</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>18.399999999999999</v>
+      <c r="J4" s="15">
+        <v>141.66999999999999</v>
+      </c>
+      <c r="K4" s="19">
+        <v>10273</v>
+      </c>
+      <c r="L4" s="15">
+        <v>687.11</v>
+      </c>
+      <c r="M4" s="15">
+        <v>14.95</v>
+      </c>
+      <c r="N4" s="17">
+        <v>2778.66</v>
+      </c>
+      <c r="O4" s="19">
+        <v>2220</v>
+      </c>
+      <c r="P4" s="15">
+        <v>162.13</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>13.69</v>
       </c>
       <c r="R4" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 4700U (Renoir) [1]</v>
       </c>
       <c r="S4" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>1|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|129,46|10446|739,49|14,13</v>
+        <v>1|3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|141,67|10273|687,11|14,95</v>
       </c>
       <c r="T4" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>1|3|R7 4700U (Renoir)|CrazyIvan|Batt. / Win: Better Eff. / HP: Recmd.|v0.5.0|2618,48|2651|144,08|18,4</v>
+        <v>1|3|R7 4700U (Renoir)|CrazyIvan|AC / Win: Best Perf. / HP: Recmd.|v0.5.1|2778,66|2220|162,13|13,69</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
@@ -8276,24 +9081,24 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="4">
+      <c r="J5" s="15">
         <v>45.76</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="19">
         <v>32112</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="17">
         <v>1386.39</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="19">
         <v>7223</v>
       </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
       <c r="R5" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R5 3600 (Matisse) v0.3.1 [2]</v>
       </c>
       <c r="S5" t="str">
@@ -8324,24 +9129,24 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="4">
+      <c r="J6" s="15">
         <v>127.76</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="19">
         <v>9839</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4">
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="17">
         <v>885.22</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="19">
         <v>3912</v>
       </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
       <c r="R6" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i7 1065G (IceLake) v0.3.1 [3]</v>
       </c>
       <c r="S6" t="str">
@@ -8371,33 +9176,35 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4">
+      <c r="I7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="15">
         <v>55.41</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="19">
         <v>35920</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="15">
         <v>502.43</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="15">
         <v>71.489999999999995</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="17">
         <v>4779.3</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="19">
         <v>6242</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="15">
         <v>33.520000000000003</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="15">
         <v>186.22</v>
       </c>
       <c r="R7" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [4]</v>
       </c>
       <c r="S7" t="str">
@@ -8428,24 +9235,24 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="4">
+      <c r="J8" s="15">
         <v>153.88</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="19">
         <v>10352</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4">
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="17">
         <v>2637.56</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="19">
         <v>5262</v>
       </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
       <c r="R8" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 4750G (Renoir) v0.3.1 [5]</v>
       </c>
       <c r="S8" t="str">
@@ -8477,25 +9284,27 @@
         <v>27</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4">
+      <c r="I9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="15">
         <v>51.8</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="19">
         <v>30057</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="17">
         <v>2058.48</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="19">
         <v>6377</v>
       </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
       <c r="R9" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.3.1 [6]</v>
       </c>
       <c r="S9" t="str">
@@ -8526,24 +9335,24 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="4">
+      <c r="J10" s="15">
         <v>137.88</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="19">
         <v>10396</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="17">
         <v>3599.63</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="19">
         <v>2029</v>
       </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
       <c r="R10" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 4750U (Renoir) v0.3.1 [7]</v>
       </c>
       <c r="S10" t="str">
@@ -8576,24 +9385,24 @@
       <c r="I11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="15">
         <v>52.94</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="19">
         <v>37274</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="17">
         <v>5760.71</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="19">
         <v>4507</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
       <c r="R11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [8]</v>
       </c>
       <c r="S11" t="str">
@@ -8624,37 +9433,39 @@
       <c r="G12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4">
+      <c r="H12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="15">
         <v>111.79</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="19">
         <v>6239</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="15">
         <v>1433.91</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="15">
         <v>4.3499999999999996</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="17">
         <v>3815.05</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="19">
         <v>1738</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="15">
         <v>150.85</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="15">
         <v>11.52</v>
       </c>
       <c r="R12" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R9 5900HS (Cezanne)@ESM v0.3.1 [9]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5900HS (Cezanne) @ESM v0.3.1 [9]</v>
       </c>
       <c r="S12" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -8686,32 +9497,32 @@
       <c r="I13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="15">
         <v>165.09</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="19">
         <v>10936</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="15">
         <v>553.86</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="15">
         <v>19.75</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="17">
         <v>3481.64</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="19">
         <v>4085</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="15">
         <v>70.3</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="15">
         <v>58.11</v>
       </c>
       <c r="R13" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) v0.3.1 [10]</v>
       </c>
       <c r="S13" t="str">
@@ -8742,32 +9553,32 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="4">
+      <c r="J14" s="15">
         <v>88.24</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="19">
         <v>11657</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="15">
         <v>972.15</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="15">
         <v>11.99</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="17">
         <v>656.66</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="19">
         <v>4575</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="15">
         <v>332.85</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="15">
         <v>13.75</v>
       </c>
       <c r="R14" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>i5 8365U (WhiskeyLake) v0.3.1 [11]</v>
       </c>
       <c r="S14" t="str">
@@ -8798,32 +9609,32 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="4">
+      <c r="J15" s="15">
         <v>146.74</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="19">
         <v>10450</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="15">
         <v>16.03</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="15">
         <v>16.03</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="17">
         <v>1818.77</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="19">
         <v>5785</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="15">
         <v>95.05</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="15">
         <v>60.86</v>
       </c>
       <c r="R15" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R5 PRO 4650G (Renoir) v0.3.1 [12]</v>
       </c>
       <c r="S15" t="str">
@@ -8854,37 +9665,39 @@
       <c r="G16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4">
+      <c r="H16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="15">
         <v>173.7</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="19">
         <v>9122</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="15">
         <v>631.12</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="15">
         <v>14.45</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="17">
         <v>4670.05</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="19">
         <v>2227</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="15">
         <v>96.17</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="15">
         <v>23.15</v>
       </c>
       <c r="R16" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R7 4750G (Renoir)@25W v0.3.1 [13]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 4750G (Renoir) @25W v0.3.1 [13]</v>
       </c>
       <c r="S16" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -8915,25 +9728,27 @@
         <v>25</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4">
+      <c r="I17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="15">
         <v>133.62</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="19">
         <v>10168</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4">
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="17">
         <v>2586.7600000000002</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="19">
         <v>2649</v>
       </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
       <c r="R17" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 4700U (Renoir) v0.3.1 [14]</v>
       </c>
       <c r="S17" t="str">
@@ -8966,32 +9781,32 @@
       <c r="I18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="15">
         <v>59</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="19">
         <v>33870</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="15">
         <v>500.42</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="15">
         <v>67.680000000000007</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="17">
         <v>5578.81</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="19">
         <v>4561</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="15">
         <v>39.299999999999997</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="15">
         <v>116.04</v>
       </c>
       <c r="R18" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [15]</v>
       </c>
       <c r="S18" t="str">
@@ -9023,33 +9838,35 @@
         <v>23</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4">
+      <c r="I19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="15">
         <v>169.55</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="19">
         <v>10364</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="15">
         <v>569.12</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="15">
         <v>18.21</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="17">
         <v>3498.15</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="19">
         <v>3831</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="15">
         <v>74.63</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="15">
         <v>51.33</v>
       </c>
       <c r="R19" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5900HS (Cezanne) v0.3.1 [16]</v>
       </c>
       <c r="S19" t="str">
@@ -9080,32 +9897,32 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="4">
+      <c r="J20" s="15">
         <v>31.1</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="19">
         <v>32204</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="15">
         <v>998.38</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="15">
         <v>32.26</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="17">
         <v>262.60000000000002</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="19">
         <v>13138</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="15">
         <v>289.86</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="15">
         <v>45.32</v>
       </c>
       <c r="R20" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R3 1200 (Summit Ridge) v0.3.1 [17]</v>
       </c>
       <c r="S20" t="str">
@@ -9138,32 +9955,32 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="4">
+      <c r="J21" s="15">
         <v>55.08</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="19">
         <v>23918</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="15">
         <v>759.07</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="15">
         <v>31.51</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="17">
         <v>2787.1</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="19">
         <v>4404</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="15">
         <v>81.48</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="15">
         <v>54.05</v>
       </c>
       <c r="R21" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R7 3700X (Matisse) v0.3.1 [18]</v>
       </c>
       <c r="S21" t="str">
@@ -9193,33 +10010,35 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="4">
+      <c r="I22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="15">
         <v>41.55</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="19">
         <v>45942</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="15">
         <v>523.91</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="15">
         <v>87.69</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="17">
         <v>3983</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="19">
         <v>5607</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="15">
         <v>44.78</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="15">
         <v>125.22</v>
       </c>
       <c r="R22" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5900X (Vermeer) v0.3.1 [19]</v>
       </c>
       <c r="S22" t="str">
@@ -9251,33 +10070,35 @@
         <v>31</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="4">
+      <c r="I23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="15">
         <v>60.29</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="19">
         <v>33002</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="15">
         <v>502.56</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="15">
         <v>65.67</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="17">
         <v>5295.16</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="19">
         <v>5633</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="15">
         <v>33.520000000000003</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="15">
         <v>168.04</v>
       </c>
       <c r="R23" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
         <v>R9 5950X (Vermeer) v0.3.1 [20]</v>
       </c>
       <c r="S23" t="str">
@@ -9293,48 +10114,48 @@
       <c r="B24">
         <v>21</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>88</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="9">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="16">
         <v>62.61</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="20">
         <v>32182</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="16">
         <v>496.32</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="16">
         <v>64.84</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="18">
         <v>5945.36</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="20">
         <v>4356</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="16">
         <v>38.61</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q24" s="16">
         <v>112.84</v>
       </c>
       <c r="R24" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R9 5950X (Vermeer) [21]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.5.0 [21]</v>
       </c>
       <c r="S24" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -9349,48 +10170,50 @@
       <c r="B25">
         <v>22</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>90</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="9">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="16">
         <v>63.92</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="20">
         <v>30783</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="16">
         <v>508.2</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="16">
         <v>60.57</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="18">
         <v>4834.1899999999996</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="20">
         <v>5902</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="16">
         <v>35.049999999999997</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="Q25" s="16">
         <v>168.38</v>
       </c>
       <c r="R25" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R9 5950X (Vermeer) [22]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.5.0 [22]</v>
       </c>
       <c r="S25" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
@@ -9402,233 +10225,1167 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="9">
-        <v>91</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="D26" s="7">
+        <v>108</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J26" s="9">
-        <v>10.28</v>
-      </c>
-      <c r="K26" s="9">
-        <v>57948</v>
-      </c>
-      <c r="L26" s="9">
-        <v>1678.77</v>
-      </c>
-      <c r="M26" s="9">
-        <v>34.520000000000003</v>
-      </c>
-      <c r="N26" s="9">
-        <v>240.62</v>
-      </c>
-      <c r="O26" s="9">
-        <v>20261</v>
-      </c>
-      <c r="P26" s="9">
-        <v>205.12</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>98.78</v>
+      <c r="G26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="16">
+        <v>17.45</v>
+      </c>
+      <c r="K26" s="20">
+        <v>55373</v>
+      </c>
+      <c r="L26" s="16">
+        <v>1034.6400000000001</v>
+      </c>
+      <c r="M26" s="16">
+        <v>53.52</v>
+      </c>
+      <c r="N26" s="18">
+        <v>237.59</v>
+      </c>
+      <c r="O26" s="20">
+        <v>20531</v>
+      </c>
+      <c r="P26" s="16">
+        <v>205</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>100.15</v>
       </c>
       <c r="R26" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>??? v0.3.1 [23]</v>
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 4820K (Ivy Bridge) @4,5Ghz v0.3.1 [23]</v>
       </c>
       <c r="S26" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>23|91|???|Platos||v0.3.1|10,28|57948|1678,77|34,52</v>
+        <v>23|108|i7 4820K (Ivy Bridge)|Platos|@4,5Ghz|v0.3.1|17,45|55373|1034,64|53,52</v>
       </c>
       <c r="T26" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>23|91|???|Platos||v0.3.1|240,62|20261|205,12|98,78</v>
+        <v>23|108|i7 4820K (Ivy Bridge)|Platos|@4,5Ghz|v0.3.1|237,59|20531|205|100,15</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>24</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="4">
-        <v>94</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="9">
-        <v>121.52</v>
-      </c>
-      <c r="K27" s="9">
-        <v>14243</v>
-      </c>
-      <c r="L27" s="9">
-        <v>577.78</v>
-      </c>
-      <c r="M27" s="9">
-        <v>24.65</v>
-      </c>
-      <c r="N27" s="9">
-        <v>1314.72</v>
-      </c>
-      <c r="O27" s="9">
-        <v>5212</v>
-      </c>
-      <c r="P27" s="9">
-        <v>145.93</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>35.72</v>
-      </c>
-      <c r="R27" s="11" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>i7 1165G7 (TigerLake) [24]</v>
-      </c>
-      <c r="S27" s="11" t="str">
+      <c r="G27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="16">
+        <v>172.46</v>
+      </c>
+      <c r="K27" s="20">
+        <v>10777</v>
+      </c>
+      <c r="L27" s="16">
+        <v>538.05999999999995</v>
+      </c>
+      <c r="M27" s="16">
+        <v>20.03</v>
+      </c>
+      <c r="N27" s="18">
+        <v>1438.78</v>
+      </c>
+      <c r="O27" s="20">
+        <v>3774</v>
+      </c>
+      <c r="P27" s="16">
+        <v>184.18</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>20.49</v>
+      </c>
+      <c r="R27" s="9" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 1165G7 (TigerLake) v0.5.0 [24]</v>
+      </c>
+      <c r="S27" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>24|94|i7 1165G7 (TigerLake)|misterh||v0.5.0|121,52|14243|577,78|24,65</v>
-      </c>
-      <c r="T27" s="11" t="str">
+        <v>24|102|i7 1165G7 (TigerLake)|misterh|Win: Best Perf.|v0.5.0|172,46|10777|538,06|20,03</v>
+      </c>
+      <c r="T27" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>24|94|i7 1165G7 (TigerLake)|misterh||v0.5.0|1314,72|5212|145,93|35,72</v>
+        <v>24|102|i7 1165G7 (TigerLake)|misterh|Win: Best Perf.|v0.5.0|1438,78|3774|184,18|20,49</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <v>25</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <v>94</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="14" t="s">
+      <c r="G28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="9">
+      <c r="H28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="16">
         <v>63.04</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="20">
         <v>28707</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="16">
         <v>552.55999999999995</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="16">
         <v>51.95</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="18">
         <v>5167.0600000000004</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="20">
         <v>5332</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="16">
         <v>36.299999999999997</v>
       </c>
-      <c r="Q28" s="9">
+      <c r="Q28" s="16">
         <v>146.87</v>
       </c>
-      <c r="R28" s="13" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R9 5950X (Vermeer)@-0,1V [25]</v>
-      </c>
-      <c r="S28" s="11" t="str">
+      <c r="R28" s="11" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) @-0,1V v0.5.0 [25]</v>
+      </c>
+      <c r="S28" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
         <v>25|94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|63,04|28707|552,56|51,95</v>
       </c>
-      <c r="T28" s="11" t="str">
+      <c r="T28" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
         <v>25|94|R9 5950X (Vermeer)|misterh|-0,1V Curve Optimization|v0.5.0|5167,06|5332|36,3|146,87</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>26</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="7">
+        <v>96</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="16">
+        <v>59.97</v>
+      </c>
+      <c r="K29" s="20">
+        <v>33184.629999999997</v>
+      </c>
+      <c r="L29" s="16">
+        <v>502.51</v>
+      </c>
+      <c r="M29" s="16">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="N29" s="18">
+        <v>6103.75</v>
+      </c>
+      <c r="O29" s="20">
+        <v>4353.5600000000004</v>
+      </c>
+      <c r="P29" s="16">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>115.69</v>
+      </c>
+      <c r="R29" s="11" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5950X (Vermeer) v0.3.1 [26]</v>
+      </c>
+      <c r="S29" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>26|96|R9 5950X (Vermeer)|Sweepi||v0.3.1|59,97|33184,63|502,51|66,04</v>
+      </c>
+      <c r="T29" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>26|96|R9 5950X (Vermeer)|Sweepi||v0.3.1|6103,75|4353,56|37,63|115,69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="7">
+        <v>118</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="16">
+        <v>164.2</v>
+      </c>
+      <c r="K30" s="20">
+        <v>9800.31</v>
+      </c>
+      <c r="L30" s="16">
+        <v>621.42999999999995</v>
+      </c>
+      <c r="M30" s="16">
+        <v>15.77</v>
+      </c>
+      <c r="N30" s="18">
+        <v>4760.57</v>
+      </c>
+      <c r="O30" s="20">
+        <v>2004.54</v>
+      </c>
+      <c r="P30" s="16">
+        <v>104.79</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>19.13</v>
+      </c>
+      <c r="R30" s="11" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 4750G (Renoir) @20W [27]</v>
+      </c>
+      <c r="S30" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>27|118|R7 4750G (Renoir)|Poekel|20W|v0.5.1|164,2|9800,31|621,43|15,77</v>
+      </c>
+      <c r="T30" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>27|118|R7 4750G (Renoir)|Poekel|20W|v0.5.1|4760,57|2004,54|104,79|19,13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
+        <v>28</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="7">
+        <v>129</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="16">
+        <v>55.06</v>
+      </c>
+      <c r="K31" s="20">
+        <v>20078</v>
+      </c>
+      <c r="L31" s="16">
+        <v>904.59</v>
+      </c>
+      <c r="M31" s="16">
+        <v>22.2</v>
+      </c>
+      <c r="N31" s="18">
+        <v>560.07000000000005</v>
+      </c>
+      <c r="O31" s="20">
+        <v>9308</v>
+      </c>
+      <c r="P31" s="16">
+        <v>191.83</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>48.52</v>
+      </c>
+      <c r="R31" s="11" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 5775C (Broadwell) [28]</v>
+      </c>
+      <c r="S31" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>28|129|i7 5775C (Broadwell)|MD_Enigma||v0.5.1|55,06|20078|904,59|22,2</v>
+      </c>
+      <c r="T31" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>28|129|i7 5775C (Broadwell)|MD_Enigma||v0.5.1|560,07|9308|191,83|48,52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="7">
+        <v>133</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="16">
+        <v>186.38</v>
+      </c>
+      <c r="K32" s="20">
+        <v>7581.59</v>
+      </c>
+      <c r="L32" s="16">
+        <v>707.68</v>
+      </c>
+      <c r="M32" s="16">
+        <v>10.71</v>
+      </c>
+      <c r="N32" s="18">
+        <v>1839.93</v>
+      </c>
+      <c r="O32" s="20">
+        <v>3342.48</v>
+      </c>
+      <c r="P32" s="16">
+        <v>162.6</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>20.56</v>
+      </c>
+      <c r="R32" s="11" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R5 4500U (Renoir) [29]</v>
+      </c>
+      <c r="S32" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>29|133|R5 4500U (Renoir)|Poekel||v0.5.1|186,38|7581,59|707,68|10,71</v>
+      </c>
+      <c r="T32" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>29|133|R5 4500U (Renoir)|Poekel||v0.5.1|1839,93|3342,48|162,6|20,56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
+        <v>30</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D33" s="7">
+        <v>134</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="16">
+        <v>216.08</v>
+      </c>
+      <c r="K33" s="20">
+        <v>7445</v>
+      </c>
+      <c r="L33" s="16">
+        <v>621.65</v>
+      </c>
+      <c r="M33" s="16">
+        <v>11.98</v>
+      </c>
+      <c r="N33" s="18">
+        <v>3936.18</v>
+      </c>
+      <c r="O33" s="20">
+        <v>3010</v>
+      </c>
+      <c r="P33" s="16">
+        <v>84.41</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="R33" s="11" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5900HS (Cezanne) v0.5.0 [30]</v>
+      </c>
+      <c r="S33" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>30|134|R9 5900HS (Cezanne)|Monkey|Win: Better Eff.|v0.5.0|216,08|7445|621,65|11,98</v>
+      </c>
+      <c r="T33" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>30|134|R9 5900HS (Cezanne)|Monkey|Win: Better Eff.|v0.5.0|3936,18|3010|84,41|35,66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
+        <v>31</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="7">
+        <v>135</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="16">
+        <v>60.14</v>
+      </c>
+      <c r="K34" s="20">
+        <v>24336</v>
+      </c>
+      <c r="L34" s="16">
+        <v>683.23</v>
+      </c>
+      <c r="M34" s="16">
+        <v>35.619999999999997</v>
+      </c>
+      <c r="N34" s="18">
+        <v>4414.66</v>
+      </c>
+      <c r="O34" s="20">
+        <v>4151</v>
+      </c>
+      <c r="P34" s="16">
+        <v>54.57</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>76.08</v>
+      </c>
+      <c r="R34" s="11" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5900X (Vermeer) [31]</v>
+      </c>
+      <c r="S34" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>31|135|R9 5900X (Vermeer)|harzer_knaller|Balanced Power Plan|v0.5.1|60,14|24336|683,23|35,62</v>
+      </c>
+      <c r="T34" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>31|135|R9 5900X (Vermeer)|harzer_knaller|Balanced Power Plan|v0.5.1|4414,66|4151|54,57|76,08</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
+        <v>32</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="7">
+        <v>136</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="16">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="K35" s="20">
+        <v>25543</v>
+      </c>
+      <c r="L35" s="16">
+        <v>518.05999999999995</v>
+      </c>
+      <c r="M35" s="16">
+        <v>49.31</v>
+      </c>
+      <c r="N35" s="18">
+        <v>4461.2299999999996</v>
+      </c>
+      <c r="O35" s="20">
+        <v>5187.88</v>
+      </c>
+      <c r="P35" s="16">
+        <v>43.21</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>120.07</v>
+      </c>
+      <c r="R35" s="11" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5900X (Vermeer) [32]</v>
+      </c>
+      <c r="S35" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>32|136|R9 5900X (Vermeer)|Darkearth27||v0.5.1|75,57|25543|518,06|49,31</v>
+      </c>
+      <c r="T35" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>32|136|R9 5900X (Vermeer)|Darkearth27||v0.5.1|4461,23|5187,88|43,21|120,07</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="4">
+        <v>140</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="15">
+        <v>52.3</v>
+      </c>
+      <c r="K36" s="19">
+        <v>38103</v>
+      </c>
+      <c r="L36" s="15">
+        <v>501.84</v>
+      </c>
+      <c r="M36" s="15">
+        <v>75.930000000000007</v>
+      </c>
+      <c r="N36" s="17">
+        <v>3945.77</v>
+      </c>
+      <c r="O36" s="19">
+        <v>5760</v>
+      </c>
+      <c r="P36" s="15">
+        <v>44</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>130.91999999999999</v>
+      </c>
+      <c r="R36" s="23" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R9 5900X (Vermeer) [33]</v>
+      </c>
+      <c r="S36" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>33|140|R9 5900X (Vermeer)|Krischi|CTR|v0.5.1|52,3|38103|501,84|75,93</v>
+      </c>
+      <c r="T36" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>33|140|R9 5900X (Vermeer)|Krischi|CTR|v0.5.1|3945,77|5760|44|130,92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B37" s="6">
+        <v>34</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="7">
+        <v>141</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="9">
-        <v>59.97</v>
-      </c>
-      <c r="K29" s="9">
-        <v>33184.629999999997</v>
-      </c>
-      <c r="L29" s="9">
-        <v>502.51</v>
-      </c>
-      <c r="M29" s="9">
-        <v>66.040000000000006</v>
-      </c>
-      <c r="N29" s="9">
-        <v>6103.75</v>
-      </c>
-      <c r="O29" s="9">
-        <v>4353.5600000000004</v>
-      </c>
-      <c r="P29" s="9">
-        <v>37.630000000000003</v>
-      </c>
-      <c r="Q29" s="9">
-        <v>115.69</v>
-      </c>
-      <c r="R29" s="13" t="str">
-        <f>GeneralTable[[#This Row],[CPU]] &amp; GeneralTable[[#This Row],[Chart-Remark]] &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
-        <v>R9 5950X (Vermeer) [26]</v>
-      </c>
-      <c r="S29" s="11" t="str">
+      <c r="F37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="16">
+        <v>26.38</v>
+      </c>
+      <c r="K37" s="21">
+        <v>38525</v>
+      </c>
+      <c r="L37" s="16">
+        <v>983.86</v>
+      </c>
+      <c r="M37" s="16">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="N37" s="22">
+        <v>269.61</v>
+      </c>
+      <c r="O37" s="21">
+        <v>18669</v>
+      </c>
+      <c r="P37" s="16">
+        <v>198.68</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>93.96</v>
+      </c>
+      <c r="R37" s="23" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 2600K (Sandy Bridge) @4,4Ghz [34]</v>
+      </c>
+      <c r="S37" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
-        <v>26|96|R9 5950X (Vermeer)|Sweepi||v0.5.0|59,97|33184,63|502,51|66,04</v>
-      </c>
-      <c r="T29" s="11" t="str">
+        <v>34|141|i7 2600K (Sandy Bridge)|Tyrann|@4,4Ghz|v0.5.1|26,38|38525|983,86|39,16</v>
+      </c>
+      <c r="T37" s="9" t="str">
         <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
-        <v>26|96|R9 5950X (Vermeer)|Sweepi||v0.5.0|6103,75|4353,56|37,63|115,69</v>
+        <v>34|141|i7 2600K (Sandy Bridge)|Tyrann|@4,4Ghz|v0.5.1|269,61|18669|198,68|93,96</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B38" s="6">
+        <v>35</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="7">
+        <v>145</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="16">
+        <v>57.13</v>
+      </c>
+      <c r="K38" s="21">
+        <v>34236</v>
+      </c>
+      <c r="L38" s="16">
+        <v>511.24</v>
+      </c>
+      <c r="M38" s="16">
+        <v>66.97</v>
+      </c>
+      <c r="N38" s="22">
+        <v>2347.02</v>
+      </c>
+      <c r="O38" s="21">
+        <v>7508</v>
+      </c>
+      <c r="P38" s="16">
+        <v>56.75</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>132.29</v>
+      </c>
+      <c r="R38" s="23" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 5800X (Vermeer) [35]</v>
+      </c>
+      <c r="S38" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>35|145|R7 5800X (Vermeer)|hq-hq||v0.5.1|57,13|34236|511,24|66,97</v>
+      </c>
+      <c r="T38" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>35|145|R7 5800X (Vermeer)|hq-hq||v0.5.1|2347,02|7508|56,75|132,29</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
+        <v>36</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="7">
+        <v>146</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="16">
+        <v>83.49</v>
+      </c>
+      <c r="K39" s="21">
+        <v>11096</v>
+      </c>
+      <c r="L39" s="16">
+        <v>1079.3699999999999</v>
+      </c>
+      <c r="M39" s="16">
+        <v>10.28</v>
+      </c>
+      <c r="N39" s="22">
+        <v>384.59</v>
+      </c>
+      <c r="O39" s="21">
+        <v>5226</v>
+      </c>
+      <c r="P39" s="16">
+        <v>497.55</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="R39" s="23" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 7500U (Kaby Lake) 2C/4T [36]</v>
+      </c>
+      <c r="S39" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>36|146|i7 7500U (Kaby Lake)|Tyrann||v0.5.1|83,49|11096|1079,37|10,28</v>
+      </c>
+      <c r="T39" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>36|146|i7 7500U (Kaby Lake)|Tyrann||v0.5.1|384,59|5226|497,55|10,5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B40" s="6">
+        <v>37</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="7">
+        <v>146</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="16">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="K40" s="21">
+        <v>18192</v>
+      </c>
+      <c r="L40" s="16">
+        <v>3293.49</v>
+      </c>
+      <c r="M40" s="16">
+        <v>5.52</v>
+      </c>
+      <c r="N40" s="22">
+        <v>35.61</v>
+      </c>
+      <c r="O40" s="21">
+        <v>12920</v>
+      </c>
+      <c r="P40" s="16">
+        <v>2173.7800000000002</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>5.94</v>
+      </c>
+      <c r="R40" s="23" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>Celeron N3450 (Apollo Lake) [37]</v>
+      </c>
+      <c r="S40" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>37|146|Celeron N3450 (Apollo Lake)|Tyrann||v0.5.1|16,69|18192|3293,49|5,52</v>
+      </c>
+      <c r="T40" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>37|146|Celeron N3450 (Apollo Lake)|Tyrann||v0.5.1|35,61|12920|2173,78|5,94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B41" s="6">
+        <v>38</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="7">
+        <v>148</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="16">
+        <v>68.06</v>
+      </c>
+      <c r="K41" s="21">
+        <v>28138</v>
+      </c>
+      <c r="L41" s="16">
+        <v>522.16999999999996</v>
+      </c>
+      <c r="M41" s="16">
+        <v>53.89</v>
+      </c>
+      <c r="N41" s="22">
+        <v>1876.01</v>
+      </c>
+      <c r="O41" s="21">
+        <v>7902</v>
+      </c>
+      <c r="P41" s="16">
+        <v>67.459999999999994</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>117.13</v>
+      </c>
+      <c r="R41" s="23" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 5800X (Vermeer) [38]</v>
+      </c>
+      <c r="S41" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>38|148|R7 5800X (Vermeer)|patrock84||v0.5.1|68,06|28138|522,17|53,89</v>
+      </c>
+      <c r="T41" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>38|148|R7 5800X (Vermeer)|patrock84||v0.5.1|1876,01|7902|67,46|117,13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B42" s="6">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="7">
+        <v>154</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="16">
+        <v>58.25</v>
+      </c>
+      <c r="K42" s="21">
+        <v>27864</v>
+      </c>
+      <c r="L42" s="16">
+        <v>616.08000000000004</v>
+      </c>
+      <c r="M42" s="16">
+        <v>45.23</v>
+      </c>
+      <c r="N42" s="22">
+        <v>739.31</v>
+      </c>
+      <c r="O42" s="21">
+        <v>12266</v>
+      </c>
+      <c r="P42" s="16">
+        <v>110.27</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>111.24</v>
+      </c>
+      <c r="R42" s="23" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i5 8600k (Coffee Lake) [39]</v>
+      </c>
+      <c r="S42" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>39|154|i5 8600k (Coffee Lake)|hq-hq||v0.5.1|58,25|27864|616,08|45,23</v>
+      </c>
+      <c r="T42" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>39|154|i5 8600k (Coffee Lake)|hq-hq||v0.5.1|739,31|12266|110,27|111,24</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B43" s="6">
+        <v>40</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="7">
+        <v>154</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="16">
+        <v>54.74</v>
+      </c>
+      <c r="K43" s="21">
+        <v>20650</v>
+      </c>
+      <c r="L43" s="16">
+        <v>884.67</v>
+      </c>
+      <c r="M43" s="16">
+        <v>23.34</v>
+      </c>
+      <c r="N43" s="22">
+        <v>336.42</v>
+      </c>
+      <c r="O43" s="21">
+        <v>10055</v>
+      </c>
+      <c r="P43" s="16">
+        <v>295.61</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="R43" s="23" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i5 7500 (Kaby Lake) 4C/4T [40]</v>
+      </c>
+      <c r="S43" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>40|154|i5 7500 (Kaby Lake)|hq-hq||v0.5.1|54,74|20650|884,67|23,34</v>
+      </c>
+      <c r="T43" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>40|154|i5 7500 (Kaby Lake)|hq-hq||v0.5.1|336,42|10055|295,61|34,02</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B44" s="6">
+        <v>41</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="7">
+        <v>155</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="16">
+        <v>61.55</v>
+      </c>
+      <c r="K44" s="21">
+        <v>25887</v>
+      </c>
+      <c r="L44" s="16">
+        <v>627.62</v>
+      </c>
+      <c r="M44" s="16">
+        <v>41.25</v>
+      </c>
+      <c r="N44" s="22">
+        <v>925.56</v>
+      </c>
+      <c r="O44" s="21">
+        <v>12017</v>
+      </c>
+      <c r="P44" s="16">
+        <v>89.91</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>133.65</v>
+      </c>
+      <c r="R44" s="23" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>i7 8700k (Coffee Lake) @5Ghz [41]</v>
+      </c>
+      <c r="S44" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>41|155|i7 8700k (Coffee Lake)|Bernman|@5Ghz|v0.5.1|61,55|25887|627,62|41,25</v>
+      </c>
+      <c r="T44" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>41|155|i7 8700k (Coffee Lake)|Bernman|@5Ghz|v0.5.1|925,56|12017|89,91|133,65</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B45" s="6">
+        <v>42</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="7">
+        <v>156</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="16">
+        <v>168.79</v>
+      </c>
+      <c r="K45" s="21">
+        <v>10124</v>
+      </c>
+      <c r="L45" s="16">
+        <v>585.17999999999995</v>
+      </c>
+      <c r="M45" s="16">
+        <v>17.3</v>
+      </c>
+      <c r="N45" s="22">
+        <v>3171.28</v>
+      </c>
+      <c r="O45" s="21">
+        <v>4516</v>
+      </c>
+      <c r="P45" s="16">
+        <v>69.83</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>64.67</v>
+      </c>
+      <c r="R45" s="23" t="str">
+        <f>GeneralTable[[#This Row],[CPU]] &amp;IF(ISBLANK(GeneralTable[[#This Row],[Chart-Remark]]),""," " &amp; GeneralTable[[#This Row],[Chart-Remark]]) &amp; IF(GeneralTable[[#This Row],[Version]]&lt;&gt;$D$1," "&amp;GeneralTable[[#This Row],[Version]],"") &amp; " [" &amp;GeneralTable[[#This Row],[Ref-No.]] &amp; "]"</f>
+        <v>R7 5800H (Cezanne) [42]</v>
+      </c>
+      <c r="S45" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. ST]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. ST]]</f>
+        <v>42|156|R7 5800H (Cezanne)|Darkearth27||v0.5.1|168,79|10124|585,18|17,3</v>
+      </c>
+      <c r="T45" s="9" t="str">
+        <f>GeneralTable[[#This Row],[Ref-No.]]&amp;"|"&amp;GeneralTable[[#This Row],[Post-No]]&amp;"|"&amp;GeneralTable[[#This Row],[CPU]]&amp;"|"&amp;GeneralTable[[#This Row],[User]]&amp;"|"&amp;GeneralTable[[#This Row],[Remark]]&amp;"|"&amp;GeneralTable[[#This Row],[Version]]&amp;"|"&amp;GeneralTable[[#This Row],[PES MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Cons. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Dur. MT]]&amp;"|"&amp;GeneralTable[[#This Row],[Avg. Pwr. MT]]</f>
+        <v>42|156|R7 5800H (Cezanne)|Darkearth27||v0.5.1|3171,28|4516|69,83|64,67</v>
       </c>
     </row>
   </sheetData>
@@ -9649,16 +11406,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6F6CD-AB6C-41CA-A4F9-5492FC969623}">
-  <dimension ref="B1:C26"/>
+  <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -9680,187 +11437,203 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="3">
+        <v>16.690000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3">
+        <v>17.45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="3">
+        <v>26.38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="3">
-        <v>31.1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="C8" s="3">
+        <v>45.76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="3">
+        <v>54.74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3">
+        <v>55.06</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="3">
-        <v>41.55</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="C11" s="3">
+        <v>55.08</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="3">
+        <v>57.13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="3">
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="3">
+        <v>61.55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="3">
+        <v>62.61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3">
+        <v>75.569999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="3">
+        <v>83.49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="3">
-        <v>45.76</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="C18" s="3">
+        <v>88.24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="3">
-        <v>51.8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="C19" s="3">
+        <v>127.76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3">
+        <v>137.88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="3">
-        <v>55.08</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="3">
-        <v>55.41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
+      <c r="C21" s="3">
+        <v>141.66999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="C10" s="3">
-        <v>59.97</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="3">
-        <v>60.29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="3">
-        <v>62.61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="3">
-        <v>63.04</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="3">
-        <v>63.92</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="3">
-        <v>88.24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="3">
-        <v>111.79</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="3">
-        <v>121.52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="3">
-        <v>127.76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="3">
-        <v>129.46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="3">
-        <v>133.62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="3">
-        <v>137.88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>88</v>
       </c>
       <c r="C22" s="3">
         <v>146.74</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>89</v>
+      <c r="B23" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="C23" s="3">
         <v>153.88</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>90</v>
+      <c r="B24" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="C24" s="3">
-        <v>169.55</v>
+        <v>168.79</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>91</v>
+      <c r="B25" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="C25" s="3">
-        <v>173.7</v>
+        <v>172.46</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="3">
+        <v>186.38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="3">
+        <v>216.08</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="3">
-        <v>2084.6699999999996</v>
+      <c r="C28" s="3">
+        <v>2240.7400000000002</v>
       </c>
     </row>
   </sheetData>
@@ -9871,16 +11644,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2B96D4-491E-48C1-A9CD-50F5C88BFD81}">
-  <dimension ref="B1:C26"/>
+  <dimension ref="B1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -9902,187 +11675,203 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55373</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1">
+        <v>38525</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="1">
+        <v>34236</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1">
+        <v>32204</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1">
+        <v>32182</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1">
+        <v>32112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1">
+        <v>27864</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="1">
+        <v>25887</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1">
+        <v>25543</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="1">
-        <v>45942</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="C13" s="1">
+        <v>23918</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20650</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20078</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="1">
+        <v>18192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1">
+        <v>11657</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11096</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10777</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10450</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="1">
-        <v>35920</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="1">
-        <v>33184.629999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="C21" s="1">
+        <v>10396</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="1">
-        <v>33002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="1">
-        <v>32204</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="1">
-        <v>32182</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="1">
-        <v>32112</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="1">
-        <v>30783</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
+      <c r="C22" s="1">
+        <v>10352</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10273</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="1">
-        <v>30057</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="1">
-        <v>28707</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="1">
-        <v>23918</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="1">
-        <v>14243</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="1">
-        <v>11657</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10450</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="1">
-        <v>10446</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="1">
-        <v>10396</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1">
-        <v>10364</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="1">
-        <v>10352</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="1">
-        <v>10168</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="C25" s="1">
         <v>9839</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="1">
-        <v>9122</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6239</v>
-      </c>
-    </row>
     <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7581.59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="1">
+        <v>7445</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="1">
-        <v>471287.63</v>
+      <c r="C28" s="1">
+        <v>496754.59</v>
       </c>
     </row>
   </sheetData>
@@ -10093,16 +11882,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94310CC2-D69A-4FCA-BA74-8F5DF32F63B3}">
-  <dimension ref="B1:C26"/>
+  <dimension ref="B1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -10124,187 +11913,203 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="3">
+        <v>35.61</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3">
+        <v>237.59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3">
+        <v>262.60000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="3">
+        <v>269.61</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="3">
+        <v>336.42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="3">
+        <v>384.59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3">
+        <v>560.07000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="3">
+        <v>656.66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="3">
+        <v>739.31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3">
+        <v>885.22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="3">
+        <v>925.56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="3">
-        <v>262.60000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="3">
-        <v>656.66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="C15" s="3">
+        <v>1386.39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1438.78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1818.77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1839.93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2347.02</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2637.56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2778.66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2787.1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3171.28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3599.63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3936.18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4461.2299999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="3">
-        <v>885.22</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1314.72</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1386.39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1818.77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2058.48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2586.7600000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2618.48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2637.56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2787.1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3498.15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3599.63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3815.05</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3983</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4670.05</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4779.3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4834.1899999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5167.0600000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="3">
-        <v>5295.16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="C27" s="3">
         <v>5945.36</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="3">
-        <v>6103.75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+    <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="3">
-        <v>70703.44</v>
+      <c r="C28" s="3">
+        <v>43441.129999999983</v>
       </c>
     </row>
   </sheetData>
@@ -10316,16 +12121,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1E4BCF-0D99-422A-A715-C65F85CECA2F}">
-  <dimension ref="B1:C26"/>
+  <dimension ref="B1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.44140625" customWidth="1"/>
   </cols>
@@ -10347,187 +12152,203 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20531</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18669</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13138</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12920</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12266</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12017</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10055</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9308</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="1">
-        <v>13138</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="C13" s="1">
+        <v>7223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5187.88</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="1">
-        <v>7223</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="C18" s="1">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="1">
-        <v>6377</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="C22" s="1">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3342.48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="1">
-        <v>6242</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5902</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5785</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5633</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5607</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5332</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5262</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5212</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4575</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4404</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4353.5600000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3912</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3831</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="1">
+      <c r="C27" s="1">
         <v>2029</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6" t="s">
+    <row r="28" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="1">
-        <v>108438.56</v>
+      <c r="C28" s="1">
+        <v>181234.36</v>
       </c>
     </row>
   </sheetData>
